--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.029510800395429</v>
       </c>
       <c r="E2">
-        <v>0.950443890456503</v>
+        <v>0.9504438904565031</v>
       </c>
       <c r="F2">
-        <v>0.9602812975949582</v>
+        <v>0.9602812975949579</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.9626396959717827</v>
       </c>
       <c r="M2">
-        <v>0.972323185938524</v>
+        <v>0.9723231859385237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9517255137605721</v>
+        <v>0.9517255137605714</v>
       </c>
       <c r="D3">
-        <v>1.034697221280943</v>
+        <v>1.034697221280944</v>
       </c>
       <c r="E3">
-        <v>0.9645994266108403</v>
+        <v>0.9645994266108399</v>
       </c>
       <c r="F3">
-        <v>0.9749042026880719</v>
+        <v>0.9749042026880717</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.046066620706735</v>
       </c>
       <c r="J3">
-        <v>0.9736246712297961</v>
+        <v>0.9736246712297957</v>
       </c>
       <c r="K3">
         <v>1.044904588634878</v>
       </c>
       <c r="L3">
-        <v>0.975706240337638</v>
+        <v>0.9757062403376373</v>
       </c>
       <c r="M3">
-        <v>0.9858685890433234</v>
+        <v>0.9858685890433232</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9616257162095813</v>
+        <v>0.9616257162095804</v>
       </c>
       <c r="D4">
         <v>1.037876101533378</v>
       </c>
       <c r="E4">
-        <v>0.9731851265526918</v>
+        <v>0.9731851265526907</v>
       </c>
       <c r="F4">
-        <v>0.9837836408076329</v>
+        <v>0.9837836408076321</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.048298796617583</v>
       </c>
       <c r="J4">
-        <v>0.9820647227873107</v>
+        <v>0.9820647227873097</v>
       </c>
       <c r="K4">
         <v>1.047537915854147</v>
       </c>
       <c r="L4">
-        <v>0.9836183323914137</v>
+        <v>0.9836183323914128</v>
       </c>
       <c r="M4">
-        <v>0.9940818051162958</v>
+        <v>0.9940818051162951</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9656463808235263</v>
+        <v>0.9656463808235257</v>
       </c>
       <c r="D5">
         <v>1.039174474792551</v>
       </c>
       <c r="E5">
-        <v>0.976673606653528</v>
+        <v>0.9766736066535274</v>
       </c>
       <c r="F5">
-        <v>0.9873936409766481</v>
+        <v>0.9873936409766477</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.049202534692538</v>
       </c>
       <c r="J5">
-        <v>0.9854909959517871</v>
+        <v>0.9854909959517866</v>
       </c>
       <c r="K5">
         <v>1.048608676096142</v>
       </c>
       <c r="L5">
-        <v>0.9868300565901411</v>
+        <v>0.9868300565901407</v>
       </c>
       <c r="M5">
-        <v>0.9974181456934043</v>
+        <v>0.9974181456934039</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9663136733223119</v>
+        <v>0.9663136733223117</v>
       </c>
       <c r="D6">
         <v>1.039390358458166</v>
       </c>
       <c r="E6">
-        <v>0.9772526614226658</v>
+        <v>0.9772526614226655</v>
       </c>
       <c r="F6">
         <v>0.9879929871926443</v>
@@ -597,10 +597,10 @@
         <v>1.048786439311772</v>
       </c>
       <c r="L6">
-        <v>0.9873629944092303</v>
+        <v>0.98736299440923</v>
       </c>
       <c r="M6">
-        <v>0.9979718943912935</v>
+        <v>0.9979718943912934</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616799731296535</v>
+        <v>0.9616799731296521</v>
       </c>
       <c r="D7">
-        <v>1.037893594752339</v>
+        <v>1.037893594752338</v>
       </c>
       <c r="E7">
-        <v>0.9732321958037654</v>
+        <v>0.9732321958037643</v>
       </c>
       <c r="F7">
-        <v>0.9838323414062352</v>
+        <v>0.9838323414062339</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048311003937053</v>
       </c>
       <c r="J7">
-        <v>0.9821109645855509</v>
+        <v>0.9821109645855496</v>
       </c>
       <c r="K7">
-        <v>1.047552361105079</v>
+        <v>1.047552361105078</v>
       </c>
       <c r="L7">
-        <v>0.9836616795298383</v>
+        <v>0.9836616795298373</v>
       </c>
       <c r="M7">
-        <v>0.9941268250066801</v>
+        <v>0.9941268250066789</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9410605437008936</v>
+        <v>0.9410605437008946</v>
       </c>
       <c r="D8">
         <v>1.031303171012853</v>
       </c>
       <c r="E8">
-        <v>0.9553577216217723</v>
+        <v>0.9553577216217728</v>
       </c>
       <c r="F8">
-        <v>0.9653549448466094</v>
+        <v>0.9653549448466099</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043653634909333</v>
       </c>
       <c r="J8">
-        <v>0.9645284659518619</v>
+        <v>0.9645284659518626</v>
       </c>
       <c r="K8">
-        <v>1.042075179857343</v>
+        <v>1.042075179857342</v>
       </c>
       <c r="L8">
-        <v>0.9671783945669865</v>
+        <v>0.9671783945669871</v>
       </c>
       <c r="M8">
-        <v>0.9770255961545924</v>
+        <v>0.9770255961545931</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8983814952917765</v>
+        <v>0.8983814952917777</v>
       </c>
       <c r="D9">
         <v>1.018071760914546</v>
       </c>
       <c r="E9">
-        <v>0.9184677849824235</v>
+        <v>0.918467784982425</v>
       </c>
       <c r="F9">
-        <v>0.9273308004472481</v>
+        <v>0.9273308004472492</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033968038897175</v>
       </c>
       <c r="J9">
-        <v>0.9281143472457162</v>
+        <v>0.9281143472457176</v>
       </c>
       <c r="K9">
         <v>1.030878286182674</v>
       </c>
       <c r="L9">
-        <v>0.9330383882579673</v>
+        <v>0.9330383882579685</v>
       </c>
       <c r="M9">
-        <v>0.9417242548691355</v>
+        <v>0.9417242548691368</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8631335174270164</v>
+        <v>0.8631335174270152</v>
       </c>
       <c r="D10">
         <v>1.007617796469091</v>
       </c>
       <c r="E10">
-        <v>0.8881450775687432</v>
+        <v>0.8881450775687414</v>
       </c>
       <c r="F10">
-        <v>0.8961966130464311</v>
+        <v>0.8961966130464293</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026011486290221</v>
       </c>
       <c r="J10">
-        <v>0.8980696387506698</v>
+        <v>0.8980696387506685</v>
       </c>
       <c r="K10">
-        <v>1.021850858067021</v>
+        <v>1.02185085806702</v>
       </c>
       <c r="L10">
-        <v>0.9048773690386005</v>
+        <v>0.9048773690385988</v>
       </c>
       <c r="M10">
-        <v>0.9127323113030014</v>
+        <v>0.9127323113029997</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.845212947961707</v>
+        <v>0.8452129479617104</v>
       </c>
       <c r="D11">
         <v>1.002483121373053</v>
       </c>
       <c r="E11">
-        <v>0.8727907997958149</v>
+        <v>0.8727907997958184</v>
       </c>
       <c r="F11">
-        <v>0.8804770764047781</v>
+        <v>0.8804770764047812</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022004655755213</v>
+        <v>1.022004655755214</v>
       </c>
       <c r="J11">
-        <v>0.8828197796210545</v>
+        <v>0.8828197796210581</v>
       </c>
       <c r="K11">
-        <v>1.01735836110014</v>
+        <v>1.017358361100141</v>
       </c>
       <c r="L11">
-        <v>0.8905893742925757</v>
+        <v>0.8905893742925791</v>
       </c>
       <c r="M11">
-        <v>0.8980697533490157</v>
+        <v>0.8980697533490187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.837993343528283</v>
+        <v>0.8379933435282835</v>
       </c>
       <c r="D12">
-        <v>1.000450520282662</v>
+        <v>1.000450520282661</v>
       </c>
       <c r="E12">
-        <v>0.8666184855276204</v>
+        <v>0.8666184855276209</v>
       </c>
       <c r="F12">
-        <v>0.8741671621286166</v>
+        <v>0.8741671621286167</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020400097439488</v>
       </c>
       <c r="J12">
-        <v>0.8766826561161702</v>
+        <v>0.8766826561161708</v>
       </c>
       <c r="K12">
-        <v>1.015569094121895</v>
+        <v>1.015569094121894</v>
       </c>
       <c r="L12">
-        <v>0.8848408294830258</v>
+        <v>0.8848408294830263</v>
       </c>
       <c r="M12">
-        <v>0.8921799058181771</v>
+        <v>0.8921799058181773</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.839571327341107</v>
       </c>
       <c r="D13">
-        <v>1.00089299005577</v>
+        <v>1.000892990055771</v>
       </c>
       <c r="E13">
         <v>0.8679668744021568</v>
       </c>
       <c r="F13">
-        <v>0.8755451464761781</v>
+        <v>0.875545146476178</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.020750289908384</v>
       </c>
       <c r="J13">
-        <v>0.8780236895312992</v>
+        <v>0.8780236895312988</v>
       </c>
       <c r="K13">
         <v>1.015959125277763</v>
       </c>
       <c r="L13">
-        <v>0.8860968732073867</v>
+        <v>0.8860968732073866</v>
       </c>
       <c r="M13">
         <v>0.8934663534726492</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8446290048429574</v>
+        <v>0.844629004842958</v>
       </c>
       <c r="D14">
-        <v>1.002317940169465</v>
+        <v>1.002317940169464</v>
       </c>
       <c r="E14">
-        <v>0.8722912675137229</v>
+        <v>0.8722912675137238</v>
       </c>
       <c r="F14">
-        <v>0.8799662069222127</v>
+        <v>0.8799662069222131</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021874653978281</v>
       </c>
       <c r="J14">
-        <v>0.8823232400391459</v>
+        <v>0.8823232400391463</v>
       </c>
       <c r="K14">
         <v>1.017213187190207</v>
       </c>
       <c r="L14">
-        <v>0.8901242392565233</v>
+        <v>0.8901242392565242</v>
       </c>
       <c r="M14">
-        <v>0.8975929811236827</v>
+        <v>0.897592981123683</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8476638632377234</v>
+        <v>0.8476638632377239</v>
       </c>
       <c r="D15">
         <v>1.003177901168889</v>
       </c>
       <c r="E15">
-        <v>0.8748879869277119</v>
+        <v>0.8748879869277122</v>
       </c>
       <c r="F15">
-        <v>0.8826222426270206</v>
+        <v>0.8826222426270214</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022550705958362</v>
       </c>
       <c r="J15">
-        <v>0.8849041246157603</v>
+        <v>0.8849041246157611</v>
       </c>
       <c r="K15">
         <v>1.017968538901297</v>
       </c>
       <c r="L15">
-        <v>0.8925419544963437</v>
+        <v>0.8925419544963441</v>
       </c>
       <c r="M15">
-        <v>0.9000715732046835</v>
+        <v>0.9000715732046841</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.864255057998111</v>
+        <v>0.864255057998109</v>
       </c>
       <c r="D16">
-        <v>1.007943299045407</v>
+        <v>1.007943299045406</v>
       </c>
       <c r="E16">
-        <v>0.8891075057847264</v>
+        <v>0.8891075057847244</v>
       </c>
       <c r="F16">
-        <v>0.8971829954646167</v>
+        <v>0.8971829954646146</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026263273053023</v>
+        <v>1.026263273053022</v>
       </c>
       <c r="J16">
-        <v>0.8990247179537419</v>
+        <v>0.8990247179537401</v>
       </c>
       <c r="K16">
         <v>1.022134339882829</v>
       </c>
       <c r="L16">
-        <v>0.9057723628149009</v>
+        <v>0.9057723628148989</v>
       </c>
       <c r="M16">
-        <v>0.9136518505183556</v>
+        <v>0.9136518505183535</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.87386282639502</v>
+        <v>0.8738628263950204</v>
       </c>
       <c r="D17">
         <v>1.010751350085246</v>
       </c>
       <c r="E17">
-        <v>0.8973590279087836</v>
+        <v>0.8973590279087841</v>
       </c>
       <c r="F17">
-        <v>0.905644863269181</v>
+        <v>0.9056448632691816</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.02842453223912</v>
       </c>
       <c r="J17">
-        <v>0.9072093120802636</v>
+        <v>0.9072093120802639</v>
       </c>
       <c r="K17">
-        <v>1.024573459151241</v>
+        <v>1.024573459151242</v>
       </c>
       <c r="L17">
-        <v>0.9134426947823147</v>
+        <v>0.913442694782315</v>
       </c>
       <c r="M17">
-        <v>0.9215376535820673</v>
+        <v>0.9215376535820679</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8792247383664789</v>
+        <v>0.8792247383664779</v>
       </c>
       <c r="D18">
         <v>1.012333532746369</v>
       </c>
       <c r="E18">
-        <v>0.9019691624946904</v>
+        <v>0.9019691624946897</v>
       </c>
       <c r="F18">
-        <v>0.9103763298750751</v>
+        <v>0.9103763298750741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029633751248935</v>
+        <v>1.029633751248936</v>
       </c>
       <c r="J18">
-        <v>0.9117789769200255</v>
+        <v>0.9117789769200249</v>
       </c>
       <c r="K18">
         <v>1.0259427160273</v>
       </c>
       <c r="L18">
-        <v>0.9177256890294664</v>
+        <v>0.9177256890294655</v>
       </c>
       <c r="M18">
-        <v>0.9259448944914576</v>
+        <v>0.9259448944914567</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8810154646468713</v>
+        <v>0.8810154646468717</v>
       </c>
       <c r="D19">
         <v>1.012864305789527</v>
       </c>
       <c r="E19">
-        <v>0.9035096037483227</v>
+        <v>0.9035096037483232</v>
       </c>
       <c r="F19">
-        <v>0.9119579118992283</v>
+        <v>0.9119579118992288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030038034478456</v>
+        <v>1.030038034478457</v>
       </c>
       <c r="J19">
-        <v>0.9133053998854994</v>
+        <v>0.9133053998855</v>
       </c>
       <c r="K19">
         <v>1.026401245821458</v>
       </c>
       <c r="L19">
-        <v>0.9191564193640298</v>
+        <v>0.9191564193640305</v>
       </c>
       <c r="M19">
-        <v>0.927417748800748</v>
+        <v>0.9274177488007485</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8728579299881115</v>
+        <v>0.872857929988109</v>
       </c>
       <c r="D20">
-        <v>1.010456019062337</v>
+        <v>1.010456019062336</v>
       </c>
       <c r="E20">
-        <v>0.8964954253286622</v>
+        <v>0.8964954253286598</v>
       </c>
       <c r="F20">
-        <v>0.9047588330893117</v>
+        <v>0.9047588330893092</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028198139252514</v>
+        <v>1.028198139252513</v>
       </c>
       <c r="J20">
-        <v>0.9063530443319339</v>
+        <v>0.9063530443319314</v>
       </c>
       <c r="K20">
-        <v>1.02431747034309</v>
+        <v>1.024317470343089</v>
       </c>
       <c r="L20">
-        <v>0.9126401779379341</v>
+        <v>0.9126401779379318</v>
       </c>
       <c r="M20">
-        <v>0.9207121675146936</v>
+        <v>0.9207121675146912</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8431570589388687</v>
+        <v>0.8431570589388684</v>
       </c>
       <c r="D21">
         <v>1.001902173529116</v>
       </c>
       <c r="E21">
-        <v>0.8710323257398658</v>
+        <v>0.8710323257398656</v>
       </c>
       <c r="F21">
-        <v>0.8786788488139355</v>
+        <v>0.878678848813935</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021547127481264</v>
       </c>
       <c r="J21">
-        <v>0.881071727611341</v>
+        <v>0.8810717276113407</v>
       </c>
       <c r="K21">
         <v>1.016847598040302</v>
       </c>
       <c r="L21">
-        <v>0.8889519072862108</v>
+        <v>0.8889519072862104</v>
       </c>
       <c r="M21">
-        <v>0.8963914771366082</v>
+        <v>0.8963914771366076</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8210381676481228</v>
+        <v>0.821038167648122</v>
       </c>
       <c r="D22">
-        <v>0.9957605945046597</v>
+        <v>0.9957605945046587</v>
       </c>
       <c r="E22">
-        <v>0.8521557906602755</v>
+        <v>0.8521557906602745</v>
       </c>
       <c r="F22">
-        <v>0.8594038314032063</v>
+        <v>0.8594038314032054</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016656895202467</v>
       </c>
       <c r="J22">
-        <v>0.862287122051091</v>
+        <v>0.8622871220510904</v>
       </c>
       <c r="K22">
-        <v>1.011416505272227</v>
+        <v>1.011416505272226</v>
       </c>
       <c r="L22">
-        <v>0.8713607628673538</v>
+        <v>0.8713607628673531</v>
       </c>
       <c r="M22">
-        <v>0.8783904910971265</v>
+        <v>0.8783904910971259</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8331805934628956</v>
+        <v>0.8331805934628962</v>
       </c>
       <c r="D23">
-        <v>0.9991072646958387</v>
+        <v>0.999107264695839</v>
       </c>
       <c r="E23">
-        <v>0.8625084244705423</v>
+        <v>0.8625084244705428</v>
       </c>
       <c r="F23">
-        <v>0.8699685146204231</v>
+        <v>0.8699685146204239</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.019333879880798</v>
       </c>
       <c r="J23">
-        <v>0.8725938676503011</v>
+        <v>0.8725938676503019</v>
       </c>
       <c r="K23">
         <v>1.01438320553015</v>
       </c>
       <c r="L23">
-        <v>0.8810114657148325</v>
+        <v>0.881011465714833</v>
       </c>
       <c r="M23">
-        <v>0.8882594901429555</v>
+        <v>0.8882594901429561</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.8733127369455843</v>
+        <v>0.8733127369455831</v>
       </c>
       <c r="D24">
-        <v>1.01058963634643</v>
+        <v>1.010589636346431</v>
       </c>
       <c r="E24">
-        <v>0.8968862681298347</v>
+        <v>0.896886268129834</v>
       </c>
       <c r="F24">
-        <v>0.9051598141622665</v>
+        <v>0.9051598141622655</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028300593262396</v>
       </c>
       <c r="J24">
-        <v>0.9067405771874948</v>
+        <v>0.906740577187494</v>
       </c>
       <c r="K24">
         <v>1.024433303646682</v>
       </c>
       <c r="L24">
-        <v>0.9130033826147111</v>
+        <v>0.9130033826147104</v>
       </c>
       <c r="M24">
-        <v>0.921085755424141</v>
+        <v>0.92108575542414</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9103702993115326</v>
+        <v>0.9103702993115338</v>
       </c>
       <c r="D25">
-        <v>1.021728441379077</v>
+        <v>1.021728441379078</v>
       </c>
       <c r="E25">
-        <v>0.9288133396665267</v>
+        <v>0.9288133396665279</v>
       </c>
       <c r="F25">
-        <v>0.9379788492101285</v>
+        <v>0.9379788492101293</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03668814577334</v>
+        <v>1.036688145773341</v>
       </c>
       <c r="J25">
-        <v>0.9383424286406387</v>
+        <v>0.9383424286406397</v>
       </c>
       <c r="K25">
-        <v>1.033998561722664</v>
+        <v>1.033998561722665</v>
       </c>
       <c r="L25">
-        <v>0.942627339155935</v>
+        <v>0.9426273391559359</v>
       </c>
       <c r="M25">
-        <v>0.9516228488702927</v>
+        <v>0.9516228488702936</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -427,10 +427,10 @@
         <v>1.029510800395429</v>
       </c>
       <c r="E2">
-        <v>0.9504438904565031</v>
+        <v>0.950443890456503</v>
       </c>
       <c r="F2">
-        <v>0.9602812975949579</v>
+        <v>0.9602812975949582</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.9626396959717827</v>
       </c>
       <c r="M2">
-        <v>0.9723231859385237</v>
+        <v>0.972323185938524</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9517255137605714</v>
+        <v>0.9517255137605721</v>
       </c>
       <c r="D3">
-        <v>1.034697221280944</v>
+        <v>1.034697221280943</v>
       </c>
       <c r="E3">
-        <v>0.9645994266108399</v>
+        <v>0.9645994266108403</v>
       </c>
       <c r="F3">
-        <v>0.9749042026880717</v>
+        <v>0.9749042026880719</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.046066620706735</v>
       </c>
       <c r="J3">
-        <v>0.9736246712297957</v>
+        <v>0.9736246712297961</v>
       </c>
       <c r="K3">
         <v>1.044904588634878</v>
       </c>
       <c r="L3">
-        <v>0.9757062403376373</v>
+        <v>0.975706240337638</v>
       </c>
       <c r="M3">
-        <v>0.9858685890433232</v>
+        <v>0.9858685890433234</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9616257162095804</v>
+        <v>0.9616257162095813</v>
       </c>
       <c r="D4">
         <v>1.037876101533378</v>
       </c>
       <c r="E4">
-        <v>0.9731851265526907</v>
+        <v>0.9731851265526918</v>
       </c>
       <c r="F4">
-        <v>0.9837836408076321</v>
+        <v>0.9837836408076329</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.048298796617583</v>
       </c>
       <c r="J4">
-        <v>0.9820647227873097</v>
+        <v>0.9820647227873107</v>
       </c>
       <c r="K4">
         <v>1.047537915854147</v>
       </c>
       <c r="L4">
-        <v>0.9836183323914128</v>
+        <v>0.9836183323914137</v>
       </c>
       <c r="M4">
-        <v>0.9940818051162951</v>
+        <v>0.9940818051162958</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9656463808235257</v>
+        <v>0.9656463808235263</v>
       </c>
       <c r="D5">
         <v>1.039174474792551</v>
       </c>
       <c r="E5">
-        <v>0.9766736066535274</v>
+        <v>0.976673606653528</v>
       </c>
       <c r="F5">
-        <v>0.9873936409766477</v>
+        <v>0.9873936409766481</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.049202534692538</v>
       </c>
       <c r="J5">
-        <v>0.9854909959517866</v>
+        <v>0.9854909959517871</v>
       </c>
       <c r="K5">
         <v>1.048608676096142</v>
       </c>
       <c r="L5">
-        <v>0.9868300565901407</v>
+        <v>0.9868300565901411</v>
       </c>
       <c r="M5">
-        <v>0.9974181456934039</v>
+        <v>0.9974181456934043</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9663136733223117</v>
+        <v>0.9663136733223119</v>
       </c>
       <c r="D6">
         <v>1.039390358458166</v>
       </c>
       <c r="E6">
-        <v>0.9772526614226655</v>
+        <v>0.9772526614226658</v>
       </c>
       <c r="F6">
         <v>0.9879929871926443</v>
@@ -597,10 +597,10 @@
         <v>1.048786439311772</v>
       </c>
       <c r="L6">
-        <v>0.98736299440923</v>
+        <v>0.9873629944092303</v>
       </c>
       <c r="M6">
-        <v>0.9979718943912934</v>
+        <v>0.9979718943912935</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616799731296521</v>
+        <v>0.9616799731296535</v>
       </c>
       <c r="D7">
-        <v>1.037893594752338</v>
+        <v>1.037893594752339</v>
       </c>
       <c r="E7">
-        <v>0.9732321958037643</v>
+        <v>0.9732321958037654</v>
       </c>
       <c r="F7">
-        <v>0.9838323414062339</v>
+        <v>0.9838323414062352</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048311003937053</v>
       </c>
       <c r="J7">
-        <v>0.9821109645855496</v>
+        <v>0.9821109645855509</v>
       </c>
       <c r="K7">
-        <v>1.047552361105078</v>
+        <v>1.047552361105079</v>
       </c>
       <c r="L7">
-        <v>0.9836616795298373</v>
+        <v>0.9836616795298383</v>
       </c>
       <c r="M7">
-        <v>0.9941268250066789</v>
+        <v>0.9941268250066801</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9410605437008946</v>
+        <v>0.9410605437008936</v>
       </c>
       <c r="D8">
         <v>1.031303171012853</v>
       </c>
       <c r="E8">
-        <v>0.9553577216217728</v>
+        <v>0.9553577216217723</v>
       </c>
       <c r="F8">
-        <v>0.9653549448466099</v>
+        <v>0.9653549448466094</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043653634909333</v>
       </c>
       <c r="J8">
-        <v>0.9645284659518626</v>
+        <v>0.9645284659518619</v>
       </c>
       <c r="K8">
-        <v>1.042075179857342</v>
+        <v>1.042075179857343</v>
       </c>
       <c r="L8">
-        <v>0.9671783945669871</v>
+        <v>0.9671783945669865</v>
       </c>
       <c r="M8">
-        <v>0.9770255961545931</v>
+        <v>0.9770255961545924</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8983814952917777</v>
+        <v>0.8983814952917765</v>
       </c>
       <c r="D9">
         <v>1.018071760914546</v>
       </c>
       <c r="E9">
-        <v>0.918467784982425</v>
+        <v>0.9184677849824235</v>
       </c>
       <c r="F9">
-        <v>0.9273308004472492</v>
+        <v>0.9273308004472481</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033968038897175</v>
       </c>
       <c r="J9">
-        <v>0.9281143472457176</v>
+        <v>0.9281143472457162</v>
       </c>
       <c r="K9">
         <v>1.030878286182674</v>
       </c>
       <c r="L9">
-        <v>0.9330383882579685</v>
+        <v>0.9330383882579673</v>
       </c>
       <c r="M9">
-        <v>0.9417242548691368</v>
+        <v>0.9417242548691355</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8631335174270152</v>
+        <v>0.8631335174270164</v>
       </c>
       <c r="D10">
         <v>1.007617796469091</v>
       </c>
       <c r="E10">
-        <v>0.8881450775687414</v>
+        <v>0.8881450775687432</v>
       </c>
       <c r="F10">
-        <v>0.8961966130464293</v>
+        <v>0.8961966130464311</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026011486290221</v>
       </c>
       <c r="J10">
-        <v>0.8980696387506685</v>
+        <v>0.8980696387506698</v>
       </c>
       <c r="K10">
-        <v>1.02185085806702</v>
+        <v>1.021850858067021</v>
       </c>
       <c r="L10">
-        <v>0.9048773690385988</v>
+        <v>0.9048773690386005</v>
       </c>
       <c r="M10">
-        <v>0.9127323113029997</v>
+        <v>0.9127323113030014</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8452129479617104</v>
+        <v>0.845212947961707</v>
       </c>
       <c r="D11">
         <v>1.002483121373053</v>
       </c>
       <c r="E11">
-        <v>0.8727907997958184</v>
+        <v>0.8727907997958149</v>
       </c>
       <c r="F11">
-        <v>0.8804770764047812</v>
+        <v>0.8804770764047781</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022004655755214</v>
+        <v>1.022004655755213</v>
       </c>
       <c r="J11">
-        <v>0.8828197796210581</v>
+        <v>0.8828197796210545</v>
       </c>
       <c r="K11">
-        <v>1.017358361100141</v>
+        <v>1.01735836110014</v>
       </c>
       <c r="L11">
-        <v>0.8905893742925791</v>
+        <v>0.8905893742925757</v>
       </c>
       <c r="M11">
-        <v>0.8980697533490187</v>
+        <v>0.8980697533490157</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8379933435282835</v>
+        <v>0.837993343528283</v>
       </c>
       <c r="D12">
-        <v>1.000450520282661</v>
+        <v>1.000450520282662</v>
       </c>
       <c r="E12">
-        <v>0.8666184855276209</v>
+        <v>0.8666184855276204</v>
       </c>
       <c r="F12">
-        <v>0.8741671621286167</v>
+        <v>0.8741671621286166</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020400097439488</v>
       </c>
       <c r="J12">
-        <v>0.8766826561161708</v>
+        <v>0.8766826561161702</v>
       </c>
       <c r="K12">
-        <v>1.015569094121894</v>
+        <v>1.015569094121895</v>
       </c>
       <c r="L12">
-        <v>0.8848408294830263</v>
+        <v>0.8848408294830258</v>
       </c>
       <c r="M12">
-        <v>0.8921799058181773</v>
+        <v>0.8921799058181771</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.839571327341107</v>
       </c>
       <c r="D13">
-        <v>1.000892990055771</v>
+        <v>1.00089299005577</v>
       </c>
       <c r="E13">
         <v>0.8679668744021568</v>
       </c>
       <c r="F13">
-        <v>0.875545146476178</v>
+        <v>0.8755451464761781</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.020750289908384</v>
       </c>
       <c r="J13">
-        <v>0.8780236895312988</v>
+        <v>0.8780236895312992</v>
       </c>
       <c r="K13">
         <v>1.015959125277763</v>
       </c>
       <c r="L13">
-        <v>0.8860968732073866</v>
+        <v>0.8860968732073867</v>
       </c>
       <c r="M13">
         <v>0.8934663534726492</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.844629004842958</v>
+        <v>0.8446290048429574</v>
       </c>
       <c r="D14">
-        <v>1.002317940169464</v>
+        <v>1.002317940169465</v>
       </c>
       <c r="E14">
-        <v>0.8722912675137238</v>
+        <v>0.8722912675137229</v>
       </c>
       <c r="F14">
-        <v>0.8799662069222131</v>
+        <v>0.8799662069222127</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021874653978281</v>
       </c>
       <c r="J14">
-        <v>0.8823232400391463</v>
+        <v>0.8823232400391459</v>
       </c>
       <c r="K14">
         <v>1.017213187190207</v>
       </c>
       <c r="L14">
-        <v>0.8901242392565242</v>
+        <v>0.8901242392565233</v>
       </c>
       <c r="M14">
-        <v>0.897592981123683</v>
+        <v>0.8975929811236827</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8476638632377239</v>
+        <v>0.8476638632377234</v>
       </c>
       <c r="D15">
         <v>1.003177901168889</v>
       </c>
       <c r="E15">
-        <v>0.8748879869277122</v>
+        <v>0.8748879869277119</v>
       </c>
       <c r="F15">
-        <v>0.8826222426270214</v>
+        <v>0.8826222426270206</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022550705958362</v>
       </c>
       <c r="J15">
-        <v>0.8849041246157611</v>
+        <v>0.8849041246157603</v>
       </c>
       <c r="K15">
         <v>1.017968538901297</v>
       </c>
       <c r="L15">
-        <v>0.8925419544963441</v>
+        <v>0.8925419544963437</v>
       </c>
       <c r="M15">
-        <v>0.9000715732046841</v>
+        <v>0.9000715732046835</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.864255057998109</v>
+        <v>0.864255057998111</v>
       </c>
       <c r="D16">
-        <v>1.007943299045406</v>
+        <v>1.007943299045407</v>
       </c>
       <c r="E16">
-        <v>0.8891075057847244</v>
+        <v>0.8891075057847264</v>
       </c>
       <c r="F16">
-        <v>0.8971829954646146</v>
+        <v>0.8971829954646167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026263273053022</v>
+        <v>1.026263273053023</v>
       </c>
       <c r="J16">
-        <v>0.8990247179537401</v>
+        <v>0.8990247179537419</v>
       </c>
       <c r="K16">
         <v>1.022134339882829</v>
       </c>
       <c r="L16">
-        <v>0.9057723628148989</v>
+        <v>0.9057723628149009</v>
       </c>
       <c r="M16">
-        <v>0.9136518505183535</v>
+        <v>0.9136518505183556</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8738628263950204</v>
+        <v>0.87386282639502</v>
       </c>
       <c r="D17">
         <v>1.010751350085246</v>
       </c>
       <c r="E17">
-        <v>0.8973590279087841</v>
+        <v>0.8973590279087836</v>
       </c>
       <c r="F17">
-        <v>0.9056448632691816</v>
+        <v>0.905644863269181</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.02842453223912</v>
       </c>
       <c r="J17">
-        <v>0.9072093120802639</v>
+        <v>0.9072093120802636</v>
       </c>
       <c r="K17">
-        <v>1.024573459151242</v>
+        <v>1.024573459151241</v>
       </c>
       <c r="L17">
-        <v>0.913442694782315</v>
+        <v>0.9134426947823147</v>
       </c>
       <c r="M17">
-        <v>0.9215376535820679</v>
+        <v>0.9215376535820673</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8792247383664779</v>
+        <v>0.8792247383664789</v>
       </c>
       <c r="D18">
         <v>1.012333532746369</v>
       </c>
       <c r="E18">
-        <v>0.9019691624946897</v>
+        <v>0.9019691624946904</v>
       </c>
       <c r="F18">
-        <v>0.9103763298750741</v>
+        <v>0.9103763298750751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029633751248936</v>
+        <v>1.029633751248935</v>
       </c>
       <c r="J18">
-        <v>0.9117789769200249</v>
+        <v>0.9117789769200255</v>
       </c>
       <c r="K18">
         <v>1.0259427160273</v>
       </c>
       <c r="L18">
-        <v>0.9177256890294655</v>
+        <v>0.9177256890294664</v>
       </c>
       <c r="M18">
-        <v>0.9259448944914567</v>
+        <v>0.9259448944914576</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8810154646468717</v>
+        <v>0.8810154646468713</v>
       </c>
       <c r="D19">
         <v>1.012864305789527</v>
       </c>
       <c r="E19">
-        <v>0.9035096037483232</v>
+        <v>0.9035096037483227</v>
       </c>
       <c r="F19">
-        <v>0.9119579118992288</v>
+        <v>0.9119579118992283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030038034478457</v>
+        <v>1.030038034478456</v>
       </c>
       <c r="J19">
-        <v>0.9133053998855</v>
+        <v>0.9133053998854994</v>
       </c>
       <c r="K19">
         <v>1.026401245821458</v>
       </c>
       <c r="L19">
-        <v>0.9191564193640305</v>
+        <v>0.9191564193640298</v>
       </c>
       <c r="M19">
-        <v>0.9274177488007485</v>
+        <v>0.927417748800748</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.872857929988109</v>
+        <v>0.8728579299881115</v>
       </c>
       <c r="D20">
-        <v>1.010456019062336</v>
+        <v>1.010456019062337</v>
       </c>
       <c r="E20">
-        <v>0.8964954253286598</v>
+        <v>0.8964954253286622</v>
       </c>
       <c r="F20">
-        <v>0.9047588330893092</v>
+        <v>0.9047588330893117</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028198139252513</v>
+        <v>1.028198139252514</v>
       </c>
       <c r="J20">
-        <v>0.9063530443319314</v>
+        <v>0.9063530443319339</v>
       </c>
       <c r="K20">
-        <v>1.024317470343089</v>
+        <v>1.02431747034309</v>
       </c>
       <c r="L20">
-        <v>0.9126401779379318</v>
+        <v>0.9126401779379341</v>
       </c>
       <c r="M20">
-        <v>0.9207121675146912</v>
+        <v>0.9207121675146936</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8431570589388684</v>
+        <v>0.8431570589388687</v>
       </c>
       <c r="D21">
         <v>1.001902173529116</v>
       </c>
       <c r="E21">
-        <v>0.8710323257398656</v>
+        <v>0.8710323257398658</v>
       </c>
       <c r="F21">
-        <v>0.878678848813935</v>
+        <v>0.8786788488139355</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021547127481264</v>
       </c>
       <c r="J21">
-        <v>0.8810717276113407</v>
+        <v>0.881071727611341</v>
       </c>
       <c r="K21">
         <v>1.016847598040302</v>
       </c>
       <c r="L21">
-        <v>0.8889519072862104</v>
+        <v>0.8889519072862108</v>
       </c>
       <c r="M21">
-        <v>0.8963914771366076</v>
+        <v>0.8963914771366082</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.821038167648122</v>
+        <v>0.8210381676481228</v>
       </c>
       <c r="D22">
-        <v>0.9957605945046587</v>
+        <v>0.9957605945046597</v>
       </c>
       <c r="E22">
-        <v>0.8521557906602745</v>
+        <v>0.8521557906602755</v>
       </c>
       <c r="F22">
-        <v>0.8594038314032054</v>
+        <v>0.8594038314032063</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016656895202467</v>
       </c>
       <c r="J22">
-        <v>0.8622871220510904</v>
+        <v>0.862287122051091</v>
       </c>
       <c r="K22">
-        <v>1.011416505272226</v>
+        <v>1.011416505272227</v>
       </c>
       <c r="L22">
-        <v>0.8713607628673531</v>
+        <v>0.8713607628673538</v>
       </c>
       <c r="M22">
-        <v>0.8783904910971259</v>
+        <v>0.8783904910971265</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8331805934628962</v>
+        <v>0.8331805934628956</v>
       </c>
       <c r="D23">
-        <v>0.999107264695839</v>
+        <v>0.9991072646958387</v>
       </c>
       <c r="E23">
-        <v>0.8625084244705428</v>
+        <v>0.8625084244705423</v>
       </c>
       <c r="F23">
-        <v>0.8699685146204239</v>
+        <v>0.8699685146204231</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.019333879880798</v>
       </c>
       <c r="J23">
-        <v>0.8725938676503019</v>
+        <v>0.8725938676503011</v>
       </c>
       <c r="K23">
         <v>1.01438320553015</v>
       </c>
       <c r="L23">
-        <v>0.881011465714833</v>
+        <v>0.8810114657148325</v>
       </c>
       <c r="M23">
-        <v>0.8882594901429561</v>
+        <v>0.8882594901429555</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.8733127369455831</v>
+        <v>0.8733127369455843</v>
       </c>
       <c r="D24">
-        <v>1.010589636346431</v>
+        <v>1.01058963634643</v>
       </c>
       <c r="E24">
-        <v>0.896886268129834</v>
+        <v>0.8968862681298347</v>
       </c>
       <c r="F24">
-        <v>0.9051598141622655</v>
+        <v>0.9051598141622665</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028300593262396</v>
       </c>
       <c r="J24">
-        <v>0.906740577187494</v>
+        <v>0.9067405771874948</v>
       </c>
       <c r="K24">
         <v>1.024433303646682</v>
       </c>
       <c r="L24">
-        <v>0.9130033826147104</v>
+        <v>0.9130033826147111</v>
       </c>
       <c r="M24">
-        <v>0.92108575542414</v>
+        <v>0.921085755424141</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9103702993115338</v>
+        <v>0.9103702993115326</v>
       </c>
       <c r="D25">
-        <v>1.021728441379078</v>
+        <v>1.021728441379077</v>
       </c>
       <c r="E25">
-        <v>0.9288133396665279</v>
+        <v>0.9288133396665267</v>
       </c>
       <c r="F25">
-        <v>0.9379788492101293</v>
+        <v>0.9379788492101285</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036688145773341</v>
+        <v>1.03668814577334</v>
       </c>
       <c r="J25">
-        <v>0.9383424286406397</v>
+        <v>0.9383424286406387</v>
       </c>
       <c r="K25">
-        <v>1.033998561722665</v>
+        <v>1.033998561722664</v>
       </c>
       <c r="L25">
-        <v>0.9426273391559359</v>
+        <v>0.942627339155935</v>
       </c>
       <c r="M25">
-        <v>0.9516228488702936</v>
+        <v>0.9516228488702927</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9353860723949587</v>
+        <v>0.9399695610827916</v>
       </c>
       <c r="D2">
-        <v>1.029510800395429</v>
+        <v>1.030458655722919</v>
       </c>
       <c r="E2">
-        <v>0.950443890456503</v>
+        <v>0.9543691700444185</v>
       </c>
       <c r="F2">
-        <v>0.9602812975949582</v>
+        <v>0.9639357265927803</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042367288279843</v>
+        <v>1.043288741481521</v>
       </c>
       <c r="J2">
-        <v>0.9596874618300437</v>
+        <v>0.964107036633019</v>
       </c>
       <c r="K2">
-        <v>1.040573760249459</v>
+        <v>1.041509355408188</v>
       </c>
       <c r="L2">
-        <v>0.9626396959717827</v>
+        <v>0.9665030735043821</v>
       </c>
       <c r="M2">
-        <v>0.972323185938524</v>
+        <v>0.9759214582117841</v>
+      </c>
+      <c r="N2">
+        <v>0.9654761792096607</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9517255137605721</v>
+        <v>0.9562147609612356</v>
       </c>
       <c r="D3">
-        <v>1.034697221280943</v>
+        <v>1.035624582069239</v>
       </c>
       <c r="E3">
-        <v>0.9645994266108403</v>
+        <v>0.9684483598723115</v>
       </c>
       <c r="F3">
-        <v>0.9749042026880719</v>
+        <v>0.9784780418217952</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046066620706735</v>
+        <v>1.046970067859673</v>
       </c>
       <c r="J3">
-        <v>0.9736246712297961</v>
+        <v>0.9779746521084756</v>
       </c>
       <c r="K3">
-        <v>1.044904588634878</v>
+        <v>1.045821060980765</v>
       </c>
       <c r="L3">
-        <v>0.975706240337638</v>
+        <v>0.9795015283274198</v>
       </c>
       <c r="M3">
-        <v>0.9858685890433234</v>
+        <v>0.9893939136115509</v>
+      </c>
+      <c r="N3">
+        <v>0.9793634882897304</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9616257162095813</v>
+        <v>0.9660652732958612</v>
       </c>
       <c r="D4">
-        <v>1.037876101533378</v>
+        <v>1.038792568869936</v>
       </c>
       <c r="E4">
-        <v>0.9731851265526918</v>
+        <v>0.976993925475631</v>
       </c>
       <c r="F4">
-        <v>0.9837836408076329</v>
+        <v>0.9873146967908906</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048298796617583</v>
+        <v>1.049192810364415</v>
       </c>
       <c r="J4">
-        <v>0.9820647227873107</v>
+        <v>0.9863787531371967</v>
       </c>
       <c r="K4">
-        <v>1.047537915854147</v>
+        <v>1.048444303685538</v>
       </c>
       <c r="L4">
-        <v>0.9836183323914137</v>
+        <v>0.9873781798400812</v>
       </c>
       <c r="M4">
-        <v>0.9940818051162958</v>
+        <v>0.9975686723853446</v>
+      </c>
+      <c r="N4">
+        <v>0.9877795241058757</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9656463808235263</v>
+        <v>0.9700672271025506</v>
       </c>
       <c r="D5">
-        <v>1.039174474792551</v>
+        <v>1.040086823819325</v>
       </c>
       <c r="E5">
-        <v>0.976673606653528</v>
+        <v>0.9804673241838849</v>
       </c>
       <c r="F5">
-        <v>0.9873936409766481</v>
+        <v>0.9909085242895395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049202534692538</v>
+        <v>1.050093014179342</v>
       </c>
       <c r="J5">
-        <v>0.9854909959517871</v>
+        <v>0.9897916629698101</v>
       </c>
       <c r="K5">
-        <v>1.048608676096142</v>
+        <v>1.049511270107149</v>
       </c>
       <c r="L5">
-        <v>0.9868300565901411</v>
+        <v>0.9905766693696687</v>
       </c>
       <c r="M5">
-        <v>0.9974181456934043</v>
+        <v>1.00089053833615</v>
+      </c>
+      <c r="N5">
+        <v>0.9911972806619179</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9663136733223119</v>
+        <v>0.9707314933376839</v>
       </c>
       <c r="D6">
-        <v>1.039390358458166</v>
+        <v>1.040302040548591</v>
       </c>
       <c r="E6">
-        <v>0.9772526614226658</v>
+        <v>0.9810439416229442</v>
       </c>
       <c r="F6">
-        <v>0.9879929871926443</v>
+        <v>0.9915052512207199</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0493523449257</v>
+        <v>1.050242253944854</v>
       </c>
       <c r="J6">
-        <v>0.9860595502934861</v>
+        <v>0.9903580661590776</v>
       </c>
       <c r="K6">
-        <v>1.048786439311772</v>
+        <v>1.049688420033607</v>
       </c>
       <c r="L6">
-        <v>0.9873629944092303</v>
+        <v>0.9911074731990419</v>
       </c>
       <c r="M6">
-        <v>0.9979718943912935</v>
+        <v>1.001441946450721</v>
+      </c>
+      <c r="N6">
+        <v>0.9917644882086815</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616799731296535</v>
+        <v>0.9661192722182176</v>
       </c>
       <c r="D7">
-        <v>1.037893594752339</v>
+        <v>1.038810005364027</v>
       </c>
       <c r="E7">
-        <v>0.9732321958037654</v>
+        <v>0.9770407866428941</v>
       </c>
       <c r="F7">
-        <v>0.9838323414062352</v>
+        <v>0.9873631746378155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048311003937053</v>
+        <v>1.049204968873096</v>
       </c>
       <c r="J7">
-        <v>0.9821109645855509</v>
+        <v>0.9864248099641973</v>
       </c>
       <c r="K7">
-        <v>1.047552361105079</v>
+        <v>1.048458696605061</v>
       </c>
       <c r="L7">
-        <v>0.9836616795298383</v>
+        <v>0.9874213440359016</v>
       </c>
       <c r="M7">
-        <v>0.9941268250066801</v>
+        <v>0.9976134926562601</v>
+      </c>
+      <c r="N7">
+        <v>0.9878256463388537</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9410605437008936</v>
+        <v>0.9456094738132232</v>
       </c>
       <c r="D8">
-        <v>1.031303171012853</v>
+        <v>1.032243535088082</v>
       </c>
       <c r="E8">
-        <v>0.9553577216217723</v>
+        <v>0.9592549780150288</v>
       </c>
       <c r="F8">
-        <v>0.9653549448466094</v>
+        <v>0.9689798959482595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043653634909333</v>
+        <v>1.044568473298568</v>
       </c>
       <c r="J8">
-        <v>0.9645284659518619</v>
+        <v>0.9689223401559385</v>
       </c>
       <c r="K8">
-        <v>1.042075179857343</v>
+        <v>1.043003765905671</v>
       </c>
       <c r="L8">
-        <v>0.9671783945669865</v>
+        <v>0.9710166939585507</v>
       </c>
       <c r="M8">
-        <v>0.9770255961545924</v>
+        <v>0.9805971209282849</v>
+      </c>
+      <c r="N8">
+        <v>0.9702983210159056</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8983814952917765</v>
+        <v>0.9032470948106741</v>
       </c>
       <c r="D9">
-        <v>1.018071760914546</v>
+        <v>1.01907989729791</v>
       </c>
       <c r="E9">
-        <v>0.9184677849824235</v>
+        <v>0.9226224019057082</v>
       </c>
       <c r="F9">
-        <v>0.9273308004472481</v>
+        <v>0.9312234758843858</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033968038897175</v>
+        <v>1.034943646871101</v>
       </c>
       <c r="J9">
-        <v>0.9281143472457162</v>
+        <v>0.9327487885162566</v>
       </c>
       <c r="K9">
-        <v>1.030878286182674</v>
+        <v>1.031870819469812</v>
       </c>
       <c r="L9">
-        <v>0.9330383882579673</v>
+        <v>0.9371094076555593</v>
       </c>
       <c r="M9">
-        <v>0.9417242548691355</v>
+        <v>0.9455405236199411</v>
+      </c>
+      <c r="N9">
+        <v>0.934073398783731</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8631335174270164</v>
+        <v>0.8683899436838841</v>
       </c>
       <c r="D10">
-        <v>1.007617796469091</v>
+        <v>1.008707610364978</v>
       </c>
       <c r="E10">
-        <v>0.8881450775687432</v>
+        <v>0.892617861827106</v>
       </c>
       <c r="F10">
-        <v>0.8961966130464311</v>
+        <v>0.9004147345776746</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026011486290221</v>
+        <v>1.0270619701976</v>
       </c>
       <c r="J10">
-        <v>0.8980696387506698</v>
+        <v>0.9030098979146866</v>
       </c>
       <c r="K10">
-        <v>1.021850858067021</v>
+        <v>1.022921406101797</v>
       </c>
       <c r="L10">
-        <v>0.9048773690386005</v>
+        <v>0.9092403530001661</v>
       </c>
       <c r="M10">
-        <v>0.9127323113030014</v>
+        <v>0.9168493219169911</v>
+      </c>
+      <c r="N10">
+        <v>0.9042922755464083</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.845212947961707</v>
+        <v>0.8507336717505367</v>
       </c>
       <c r="D11">
-        <v>1.002483121373053</v>
+        <v>1.003627377440551</v>
       </c>
       <c r="E11">
-        <v>0.8727907997958149</v>
+        <v>0.8774786673199529</v>
       </c>
       <c r="F11">
-        <v>0.8804770764047781</v>
+        <v>0.8849133475255819</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022004655755213</v>
+        <v>1.02310556750309</v>
       </c>
       <c r="J11">
-        <v>0.8828197796210545</v>
+        <v>0.8879696207196576</v>
       </c>
       <c r="K11">
-        <v>1.01735836110014</v>
+        <v>1.018481209421112</v>
       </c>
       <c r="L11">
-        <v>0.8905893742925757</v>
+        <v>0.8951510816830671</v>
       </c>
       <c r="M11">
-        <v>0.8980697533490157</v>
+        <v>0.9023893926519878</v>
+      </c>
+      <c r="N11">
+        <v>0.8892306394326186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.837993343528283</v>
+        <v>0.8436368958254397</v>
       </c>
       <c r="D12">
-        <v>1.000450520282662</v>
+        <v>1.001619918323876</v>
       </c>
       <c r="E12">
-        <v>0.8666184855276204</v>
+        <v>0.8714062633269439</v>
       </c>
       <c r="F12">
-        <v>0.8741671621286166</v>
+        <v>0.8787044220831696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020400097439488</v>
+        <v>1.021524390408218</v>
       </c>
       <c r="J12">
-        <v>0.8766826561161702</v>
+        <v>0.8819303876860676</v>
       </c>
       <c r="K12">
-        <v>1.015569094121895</v>
+        <v>1.016716148922501</v>
       </c>
       <c r="L12">
-        <v>0.8848408294830258</v>
+        <v>0.8894950930169243</v>
       </c>
       <c r="M12">
-        <v>0.8921799058181771</v>
+        <v>0.8965935386908001</v>
+      </c>
+      <c r="N12">
+        <v>0.8831828299954111</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.839571327341107</v>
+        <v>0.8451871346674401</v>
       </c>
       <c r="D13">
-        <v>1.00089299005577</v>
+        <v>1.002056716680495</v>
       </c>
       <c r="E13">
-        <v>0.8679668744021568</v>
+        <v>0.872732086918719</v>
       </c>
       <c r="F13">
-        <v>0.8755451464761781</v>
+        <v>0.8800596140039324</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020750289908384</v>
+        <v>1.021869304283494</v>
       </c>
       <c r="J13">
-        <v>0.8780236895312992</v>
+        <v>0.8832492864174577</v>
       </c>
       <c r="K13">
-        <v>1.015959125277763</v>
+        <v>1.017100717174972</v>
       </c>
       <c r="L13">
-        <v>0.8860968732073867</v>
+        <v>0.8907302208736677</v>
       </c>
       <c r="M13">
-        <v>0.8934663534726492</v>
+        <v>0.8978587637146881</v>
+      </c>
+      <c r="N13">
+        <v>0.8845036017142797</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8446290048429574</v>
+        <v>0.8501592821648545</v>
       </c>
       <c r="D14">
-        <v>1.002317940169465</v>
+        <v>1.003464155039388</v>
       </c>
       <c r="E14">
-        <v>0.8722912675137229</v>
+        <v>0.8769869071485529</v>
       </c>
       <c r="F14">
-        <v>0.8799662069222127</v>
+        <v>0.8844103410392052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021874653978281</v>
+        <v>1.022977385489698</v>
       </c>
       <c r="J14">
-        <v>0.8823232400391459</v>
+        <v>0.8874806852764475</v>
       </c>
       <c r="K14">
-        <v>1.017213187190207</v>
+        <v>1.018337920358518</v>
       </c>
       <c r="L14">
-        <v>0.8901242392565233</v>
+        <v>0.8946931417584453</v>
       </c>
       <c r="M14">
-        <v>0.8975929811236827</v>
+        <v>0.9019199349517132</v>
+      </c>
+      <c r="N14">
+        <v>0.8887410096449975</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8476638632377234</v>
+        <v>0.8531451861787407</v>
       </c>
       <c r="D15">
-        <v>1.003177901168889</v>
+        <v>1.004314072535762</v>
       </c>
       <c r="E15">
-        <v>0.8748879869277119</v>
+        <v>0.879543798601424</v>
       </c>
       <c r="F15">
-        <v>0.8826222426270206</v>
+        <v>0.887026069757726</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022550705958362</v>
+        <v>1.023644110433677</v>
       </c>
       <c r="J15">
-        <v>0.8849041246157603</v>
+        <v>0.8900226232674675</v>
       </c>
       <c r="K15">
-        <v>1.017968538901297</v>
+        <v>1.01908360981455</v>
       </c>
       <c r="L15">
-        <v>0.8925419544963437</v>
+        <v>0.8970739952407669</v>
       </c>
       <c r="M15">
-        <v>0.9000715732046835</v>
+        <v>0.9043610388838377</v>
+      </c>
+      <c r="N15">
+        <v>0.8912865574795289</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.864255057998111</v>
+        <v>0.8694966390069546</v>
       </c>
       <c r="D16">
-        <v>1.007943299045407</v>
+        <v>1.009030038907418</v>
       </c>
       <c r="E16">
-        <v>0.8891075057847264</v>
+        <v>0.893568205706865</v>
       </c>
       <c r="F16">
-        <v>0.8971829954646167</v>
+        <v>0.9013888244516435</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026263273053023</v>
+        <v>1.027310919495425</v>
       </c>
       <c r="J16">
-        <v>0.8990247179537419</v>
+        <v>0.9039532573014991</v>
       </c>
       <c r="K16">
-        <v>1.022134339882829</v>
+        <v>1.023201940532138</v>
       </c>
       <c r="L16">
-        <v>0.9057723628149009</v>
+        <v>0.9101242073920617</v>
       </c>
       <c r="M16">
-        <v>0.9136518505183556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9177574631236931</v>
+      </c>
+      <c r="N16">
+        <v>0.9052369746117551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.87386282639502</v>
+        <v>0.8789844060797248</v>
       </c>
       <c r="D17">
-        <v>1.010751350085246</v>
+        <v>1.01181316766264</v>
       </c>
       <c r="E17">
-        <v>0.8973590279087836</v>
+        <v>0.9017220355735507</v>
       </c>
       <c r="F17">
-        <v>0.905644863269181</v>
+        <v>0.909751147085759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02842453223912</v>
+        <v>1.029449222057967</v>
       </c>
       <c r="J17">
-        <v>0.9072093120802636</v>
+        <v>0.912043366788598</v>
       </c>
       <c r="K17">
-        <v>1.024573459151241</v>
+        <v>1.025617191817225</v>
       </c>
       <c r="L17">
-        <v>0.9134426947823147</v>
+        <v>0.9177046096971555</v>
       </c>
       <c r="M17">
-        <v>0.9215376535820673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9255510601669663</v>
+      </c>
+      <c r="N17">
+        <v>0.9133385729822744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8792247383664789</v>
+        <v>0.8842845543391806</v>
       </c>
       <c r="D18">
-        <v>1.012333532746369</v>
+        <v>1.013382467740291</v>
       </c>
       <c r="E18">
-        <v>0.9019691624946904</v>
+        <v>0.9062818851349776</v>
       </c>
       <c r="F18">
-        <v>0.9103763298750751</v>
+        <v>0.914431244134821</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029633751248935</v>
+        <v>1.030646611721337</v>
       </c>
       <c r="J18">
-        <v>0.9117789769200255</v>
+        <v>0.9165645981683941</v>
       </c>
       <c r="K18">
-        <v>1.0259427160273</v>
+        <v>1.026974132530885</v>
       </c>
       <c r="L18">
-        <v>0.9177256890294664</v>
+        <v>0.9219414103998341</v>
       </c>
       <c r="M18">
-        <v>0.9259448944914576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9299107926601254</v>
+      </c>
+      <c r="N18">
+        <v>0.917866225029222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8810154646468713</v>
+        <v>0.8860554262695662</v>
       </c>
       <c r="D19">
-        <v>1.012864305789527</v>
+        <v>1.013909090899468</v>
       </c>
       <c r="E19">
-        <v>0.9035096037483227</v>
+        <v>0.9078061618691754</v>
       </c>
       <c r="F19">
-        <v>0.9119579118992283</v>
+        <v>0.9159962919182071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030038034478456</v>
+        <v>1.031047090399615</v>
       </c>
       <c r="J19">
-        <v>0.9133053998854994</v>
+        <v>0.91807548407922</v>
       </c>
       <c r="K19">
-        <v>1.026401245821458</v>
+        <v>1.027428698395751</v>
       </c>
       <c r="L19">
-        <v>0.9191564193640298</v>
+        <v>0.9233573070385179</v>
       </c>
       <c r="M19">
-        <v>0.927417748800748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9313683674871494</v>
+      </c>
+      <c r="N19">
+        <v>0.9193792565713423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8728579299881115</v>
+        <v>0.8779914846879595</v>
       </c>
       <c r="D20">
-        <v>1.010456019062337</v>
+        <v>1.011520329822713</v>
       </c>
       <c r="E20">
-        <v>0.8964954253286622</v>
+        <v>0.9008681823065291</v>
       </c>
       <c r="F20">
-        <v>0.9047588330893117</v>
+        <v>0.9088750655953881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028198139252514</v>
+        <v>1.029225121525006</v>
       </c>
       <c r="J20">
-        <v>0.9063530443319339</v>
+        <v>0.9111965060532993</v>
       </c>
       <c r="K20">
-        <v>1.02431747034309</v>
+        <v>1.02536358836346</v>
       </c>
       <c r="L20">
-        <v>0.9126401779379341</v>
+        <v>0.9169110569227407</v>
       </c>
       <c r="M20">
-        <v>0.9207121675146936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9247347811666836</v>
+      </c>
+      <c r="N20">
+        <v>0.912490509607595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8431570589388687</v>
+        <v>0.8487117078596109</v>
       </c>
       <c r="D21">
-        <v>1.001902173529116</v>
+        <v>1.003053382835364</v>
       </c>
       <c r="E21">
-        <v>0.8710323257398658</v>
+        <v>0.875747791604083</v>
       </c>
       <c r="F21">
-        <v>0.8786788488139355</v>
+        <v>0.8831430354787952</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021547127481264</v>
+        <v>1.022654500391908</v>
       </c>
       <c r="J21">
-        <v>0.881071727611341</v>
+        <v>0.8862485791679686</v>
       </c>
       <c r="K21">
-        <v>1.016847598040302</v>
+        <v>1.01797713792899</v>
       </c>
       <c r="L21">
-        <v>0.8889519072862108</v>
+        <v>0.8935391680208669</v>
       </c>
       <c r="M21">
-        <v>0.8963914771366082</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9007370878031958</v>
+      </c>
+      <c r="N21">
+        <v>0.8875071538045199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8210381676481228</v>
+        <v>0.8270158784572881</v>
       </c>
       <c r="D22">
-        <v>0.9957605945046597</v>
+        <v>0.9969979923430278</v>
       </c>
       <c r="E22">
-        <v>0.8521557906602755</v>
+        <v>0.8572152085552263</v>
       </c>
       <c r="F22">
-        <v>0.8594038314032063</v>
+        <v>0.8642148276417133</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016656895202467</v>
+        <v>1.017844643505432</v>
       </c>
       <c r="J22">
-        <v>0.862287122051091</v>
+        <v>0.867802306421893</v>
       </c>
       <c r="K22">
-        <v>1.011416505272227</v>
+        <v>1.012629155095416</v>
       </c>
       <c r="L22">
-        <v>0.8713607628673538</v>
+        <v>0.8762672547924749</v>
       </c>
       <c r="M22">
-        <v>0.8783904910971265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.883059352859065</v>
+      </c>
+      <c r="N22">
+        <v>0.8690346852353276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8331805934628956</v>
+        <v>0.8389120674950165</v>
       </c>
       <c r="D23">
-        <v>0.9991072646958387</v>
+        <v>1.000294607216168</v>
       </c>
       <c r="E23">
-        <v>0.8625084244705423</v>
+        <v>0.8673676987749491</v>
       </c>
       <c r="F23">
-        <v>0.8699685146204231</v>
+        <v>0.8745779322919149</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019333879880798</v>
+        <v>1.020474889767906</v>
       </c>
       <c r="J23">
-        <v>0.8725938676503011</v>
+        <v>0.8779118225095454</v>
       </c>
       <c r="K23">
-        <v>1.01438320553015</v>
+        <v>1.015547553904711</v>
       </c>
       <c r="L23">
-        <v>0.8810114657148325</v>
+        <v>0.8857320405669649</v>
       </c>
       <c r="M23">
-        <v>0.8882594901429555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8927403427834867</v>
+      </c>
+      <c r="N23">
+        <v>0.8791585579954025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8733127369455843</v>
+        <v>0.8784408558385693</v>
       </c>
       <c r="D24">
-        <v>1.01058963634643</v>
+        <v>1.011652815556444</v>
       </c>
       <c r="E24">
-        <v>0.8968862681298347</v>
+        <v>0.9012545996216036</v>
       </c>
       <c r="F24">
-        <v>0.9051598141622665</v>
+        <v>0.9092715311016767</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028300593262396</v>
+        <v>1.029326534967198</v>
       </c>
       <c r="J24">
-        <v>0.9067405771874948</v>
+        <v>0.9115797681556523</v>
       </c>
       <c r="K24">
-        <v>1.024433303646682</v>
+        <v>1.025478338986362</v>
       </c>
       <c r="L24">
-        <v>0.9130033826147111</v>
+        <v>0.9172701922476348</v>
       </c>
       <c r="M24">
-        <v>0.921085755424141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9251041898830338</v>
+      </c>
+      <c r="N24">
+        <v>0.9128743159860941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9103702993115326</v>
+        <v>0.915132572251258</v>
       </c>
       <c r="D25">
-        <v>1.021728441379077</v>
+        <v>1.022714660392904</v>
       </c>
       <c r="E25">
-        <v>0.9288133396665267</v>
+        <v>0.93288388349712</v>
       </c>
       <c r="F25">
-        <v>0.9379788492101285</v>
+        <v>0.9417846851493489</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03668814577334</v>
+        <v>1.03764391076879</v>
       </c>
       <c r="J25">
-        <v>0.9383424286406387</v>
+        <v>0.942897344564736</v>
       </c>
       <c r="K25">
-        <v>1.033998561722664</v>
+        <v>1.034970304492547</v>
       </c>
       <c r="L25">
-        <v>0.942627339155935</v>
+        <v>0.94662184562798</v>
       </c>
       <c r="M25">
-        <v>0.9516228488702927</v>
+        <v>0.9553593594926943</v>
+      </c>
+      <c r="N25">
+        <v>0.9442363669458549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9399695610827916</v>
+        <v>0.9544015558538985</v>
       </c>
       <c r="D2">
-        <v>1.030458655722919</v>
+        <v>1.044569122837721</v>
       </c>
       <c r="E2">
-        <v>0.9543691700444185</v>
+        <v>0.9665737762215457</v>
       </c>
       <c r="F2">
-        <v>0.9639357265927803</v>
+        <v>1.031196892292324</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043288741481521</v>
+        <v>1.05985183165092</v>
       </c>
       <c r="J2">
-        <v>0.964107036633019</v>
+        <v>0.9780372353160588</v>
       </c>
       <c r="K2">
-        <v>1.041509355408188</v>
+        <v>1.055440588930566</v>
       </c>
       <c r="L2">
-        <v>0.9665030735043821</v>
+        <v>0.9785193059366979</v>
       </c>
       <c r="M2">
-        <v>0.9759214582117841</v>
+        <v>1.042238062682902</v>
       </c>
       <c r="N2">
-        <v>0.9654761792096607</v>
+        <v>0.9794261603726465</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9562147609612356</v>
+        <v>0.9650233079503131</v>
       </c>
       <c r="D3">
-        <v>1.035624582069239</v>
+        <v>1.049966854280157</v>
       </c>
       <c r="E3">
-        <v>0.9684483598723115</v>
+        <v>0.9754665134835775</v>
       </c>
       <c r="F3">
-        <v>0.9784780418217952</v>
+        <v>1.038294493600367</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046970067859673</v>
+        <v>1.062319473805596</v>
       </c>
       <c r="J3">
-        <v>0.9779746521084756</v>
+        <v>0.9865151169852004</v>
       </c>
       <c r="K3">
-        <v>1.045821060980765</v>
+        <v>1.059997956228474</v>
       </c>
       <c r="L3">
-        <v>0.9795015283274198</v>
+        <v>0.9864232368561384</v>
       </c>
       <c r="M3">
-        <v>0.9893939136115509</v>
+        <v>1.048459758536813</v>
       </c>
       <c r="N3">
-        <v>0.9793634882897304</v>
+        <v>0.9879160816061852</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9660652732958612</v>
+        <v>0.9716095052987573</v>
       </c>
       <c r="D4">
-        <v>1.038792568869936</v>
+        <v>1.053322671688043</v>
       </c>
       <c r="E4">
-        <v>0.976993925475631</v>
+        <v>0.9809900187277597</v>
       </c>
       <c r="F4">
-        <v>0.9873146967908906</v>
+        <v>1.042704314306815</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049192810364415</v>
+        <v>1.063834263728251</v>
       </c>
       <c r="J4">
-        <v>0.9863787531371967</v>
+        <v>0.9917684203085646</v>
       </c>
       <c r="K4">
-        <v>1.048444303685538</v>
+        <v>1.062817470550043</v>
       </c>
       <c r="L4">
-        <v>0.9873781798400812</v>
+        <v>0.9913234245967244</v>
       </c>
       <c r="M4">
-        <v>0.9975686723853446</v>
+        <v>1.052313271407397</v>
       </c>
       <c r="N4">
-        <v>0.9877795241058757</v>
+        <v>0.9931768452228303</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9700672271025506</v>
+        <v>0.9743151292416045</v>
       </c>
       <c r="D5">
-        <v>1.040086823819325</v>
+        <v>1.054702623822183</v>
       </c>
       <c r="E5">
-        <v>0.9804673241838849</v>
+        <v>0.9832611373511571</v>
       </c>
       <c r="F5">
-        <v>0.9909085242895395</v>
+        <v>1.044517234663562</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050093014179342</v>
+        <v>1.064452499467055</v>
       </c>
       <c r="J5">
-        <v>0.9897916629698101</v>
+        <v>0.9939254827953798</v>
       </c>
       <c r="K5">
-        <v>1.049511270107149</v>
+        <v>1.063973603327885</v>
       </c>
       <c r="L5">
-        <v>0.9905766693696687</v>
+        <v>0.9933360822212572</v>
       </c>
       <c r="M5">
-        <v>1.00089053833615</v>
+        <v>1.053894606551661</v>
       </c>
       <c r="N5">
-        <v>0.9911972806619179</v>
+        <v>0.9953369709857958</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9707314933376839</v>
+        <v>0.974765854103147</v>
       </c>
       <c r="D6">
-        <v>1.040302040548591</v>
+        <v>1.054932567920466</v>
       </c>
       <c r="E6">
-        <v>0.9810439416229442</v>
+        <v>0.9836395938767353</v>
       </c>
       <c r="F6">
-        <v>0.9915052512207199</v>
+        <v>1.044819304786262</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050242253944854</v>
+        <v>1.064555242162757</v>
       </c>
       <c r="J6">
-        <v>0.9903580661590776</v>
+        <v>0.9942847604763538</v>
       </c>
       <c r="K6">
-        <v>1.049688420033607</v>
+        <v>1.064166059504271</v>
       </c>
       <c r="L6">
-        <v>0.9911074731990419</v>
+        <v>0.9936713421123299</v>
       </c>
       <c r="M6">
-        <v>1.001441946450721</v>
+        <v>1.054157920664516</v>
       </c>
       <c r="N6">
-        <v>0.9917644882086815</v>
+        <v>0.9956967588822865</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9661192722182176</v>
+        <v>0.9716458996800437</v>
       </c>
       <c r="D7">
-        <v>1.038810005364027</v>
+        <v>1.053341229436353</v>
       </c>
       <c r="E7">
-        <v>0.9770407866428941</v>
+        <v>0.9810205605321629</v>
       </c>
       <c r="F7">
-        <v>0.9873631746378155</v>
+        <v>1.042728696161856</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049204968873096</v>
+        <v>1.063842596359809</v>
       </c>
       <c r="J7">
-        <v>0.9864248099641973</v>
+        <v>0.9917974399620466</v>
       </c>
       <c r="K7">
-        <v>1.048458696605061</v>
+        <v>1.062833031341829</v>
       </c>
       <c r="L7">
-        <v>0.9874213440359016</v>
+        <v>0.9913504992145955</v>
       </c>
       <c r="M7">
-        <v>0.9976134926562601</v>
+        <v>1.052334550096065</v>
       </c>
       <c r="N7">
-        <v>0.9878256463388537</v>
+        <v>0.9932059060875493</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9456094738132232</v>
+        <v>0.9580541156916894</v>
       </c>
       <c r="D8">
-        <v>1.032243535088082</v>
+        <v>1.046422891226414</v>
       </c>
       <c r="E8">
-        <v>0.9592549780150288</v>
+        <v>0.9696296292351682</v>
       </c>
       <c r="F8">
-        <v>0.9689798959482595</v>
+        <v>1.033635201917188</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044568473298568</v>
+        <v>1.060703412023243</v>
       </c>
       <c r="J8">
-        <v>0.9689223401559385</v>
+        <v>0.9809532251876352</v>
       </c>
       <c r="K8">
-        <v>1.043003765905671</v>
+        <v>1.057008713747652</v>
       </c>
       <c r="L8">
-        <v>0.9710166939585507</v>
+        <v>0.9812373317062176</v>
       </c>
       <c r="M8">
-        <v>0.9805971209282849</v>
+        <v>1.044378051162595</v>
       </c>
       <c r="N8">
-        <v>0.9702983210159056</v>
+        <v>0.9823462912843091</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9032470948106741</v>
+        <v>0.9316178544601793</v>
       </c>
       <c r="D9">
-        <v>1.01907989729791</v>
+        <v>1.033082541685189</v>
       </c>
       <c r="E9">
-        <v>0.9226224019057082</v>
+        <v>0.9475645840807504</v>
       </c>
       <c r="F9">
-        <v>0.9312234758843858</v>
+        <v>1.016064783399248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034943646871101</v>
+        <v>1.054490044694717</v>
       </c>
       <c r="J9">
-        <v>0.9327487885162566</v>
+        <v>0.9598400742170159</v>
       </c>
       <c r="K9">
-        <v>1.031870819469812</v>
+        <v>1.045660748750534</v>
       </c>
       <c r="L9">
-        <v>0.9371094076555593</v>
+        <v>0.9615698198607622</v>
       </c>
       <c r="M9">
-        <v>0.9455405236199411</v>
+        <v>1.028902488811013</v>
       </c>
       <c r="N9">
-        <v>0.934073398783731</v>
+        <v>0.9612031572175994</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8683899436838841</v>
+        <v>0.9118250419731041</v>
       </c>
       <c r="D10">
-        <v>1.008707610364978</v>
+        <v>1.023246440851437</v>
       </c>
       <c r="E10">
-        <v>0.892617861827106</v>
+        <v>0.9311279433517553</v>
       </c>
       <c r="F10">
-        <v>0.9004147345776746</v>
+        <v>1.003064184198891</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0270619701976</v>
+        <v>1.049798212609013</v>
       </c>
       <c r="J10">
-        <v>0.9030098979146866</v>
+        <v>0.9440334028616145</v>
       </c>
       <c r="K10">
-        <v>1.022921406101797</v>
+        <v>1.037208286395132</v>
       </c>
       <c r="L10">
-        <v>0.9092403530001661</v>
+        <v>0.9468629701599093</v>
       </c>
       <c r="M10">
-        <v>0.9168493219169911</v>
+        <v>1.017378333375386</v>
       </c>
       <c r="N10">
-        <v>0.9042922755464083</v>
+        <v>0.9453740385758228</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8507336717505367</v>
+        <v>0.9025918788759645</v>
       </c>
       <c r="D11">
-        <v>1.003627377440551</v>
+        <v>1.018714667649317</v>
       </c>
       <c r="E11">
-        <v>0.8774786673199529</v>
+        <v>0.9234864634305736</v>
       </c>
       <c r="F11">
-        <v>0.8849133475255819</v>
+        <v>0.9970576355788722</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02310556750309</v>
+        <v>1.04760979242982</v>
       </c>
       <c r="J11">
-        <v>0.8879696207196576</v>
+        <v>0.9366644027495353</v>
       </c>
       <c r="K11">
-        <v>1.018481209421112</v>
+        <v>1.033292076983267</v>
       </c>
       <c r="L11">
-        <v>0.8951510816830671</v>
+        <v>0.9400115161847892</v>
       </c>
       <c r="M11">
-        <v>0.9023893926519878</v>
+        <v>1.012035254725743</v>
       </c>
       <c r="N11">
-        <v>0.8892306394326186</v>
+        <v>0.9379945736383484</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8436368958254397</v>
+        <v>0.8990461989645223</v>
       </c>
       <c r="D12">
-        <v>1.001619918323876</v>
+        <v>1.016985079392058</v>
       </c>
       <c r="E12">
-        <v>0.8714062633269439</v>
+        <v>0.920556599559444</v>
       </c>
       <c r="F12">
-        <v>0.8787044220831696</v>
+        <v>0.9947620337012654</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021524390408218</v>
+        <v>1.046770481298368</v>
       </c>
       <c r="J12">
-        <v>0.8819303876860676</v>
+        <v>0.9338357815025641</v>
       </c>
       <c r="K12">
-        <v>1.016716148922501</v>
+        <v>1.031793949634257</v>
       </c>
       <c r="L12">
-        <v>0.8894950930169243</v>
+        <v>0.9373823505113551</v>
       </c>
       <c r="M12">
-        <v>0.8965935386908001</v>
+        <v>1.009990277637264</v>
       </c>
       <c r="N12">
-        <v>0.8831828299954111</v>
+        <v>0.9351619354247591</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8451871346674401</v>
+        <v>0.8998123220928502</v>
       </c>
       <c r="D13">
-        <v>1.002056716680495</v>
+        <v>1.017358275037033</v>
       </c>
       <c r="E13">
-        <v>0.872732086918719</v>
+        <v>0.921189443173319</v>
       </c>
       <c r="F13">
-        <v>0.8800596140039324</v>
+        <v>0.9952575124738019</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021869304283494</v>
+        <v>1.046951765887965</v>
       </c>
       <c r="J13">
-        <v>0.8832492864174577</v>
+        <v>0.9344469054782006</v>
       </c>
       <c r="K13">
-        <v>1.017100717174972</v>
+        <v>1.032117362606957</v>
       </c>
       <c r="L13">
-        <v>0.8907302208736677</v>
+        <v>0.9379503450666179</v>
       </c>
       <c r="M13">
-        <v>0.8978587637146881</v>
+        <v>1.01043179715318</v>
       </c>
       <c r="N13">
-        <v>0.8845036017142797</v>
+        <v>0.935773927266538</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8501592821648545</v>
+        <v>0.9023012698783464</v>
       </c>
       <c r="D14">
-        <v>1.003464155039388</v>
+        <v>1.018572678604225</v>
       </c>
       <c r="E14">
-        <v>0.8769869071485529</v>
+        <v>0.923246230733891</v>
       </c>
       <c r="F14">
-        <v>0.8844103410392052</v>
+        <v>0.9968692479628859</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022977385489698</v>
+        <v>1.04754097290915</v>
       </c>
       <c r="J14">
-        <v>0.8874806852764475</v>
+        <v>0.9364325376828386</v>
       </c>
       <c r="K14">
-        <v>1.018337920358518</v>
+        <v>1.033169160966156</v>
       </c>
       <c r="L14">
-        <v>0.8946931417584453</v>
+        <v>0.9397959842335252</v>
       </c>
       <c r="M14">
-        <v>0.9019199349517132</v>
+        <v>1.011867494909122</v>
       </c>
       <c r="N14">
-        <v>0.8887410096449975</v>
+        <v>0.9377623792966618</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8531451861787407</v>
+        <v>0.9038188488486588</v>
       </c>
       <c r="D15">
-        <v>1.004314072535762</v>
+        <v>1.01931460004841</v>
       </c>
       <c r="E15">
-        <v>0.879543798601424</v>
+        <v>0.9245009309239798</v>
       </c>
       <c r="F15">
-        <v>0.887026069757726</v>
+        <v>0.9978534795451893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023644110433677</v>
+        <v>1.047900403029703</v>
       </c>
       <c r="J15">
-        <v>0.8900226232674675</v>
+        <v>0.9376434033248248</v>
       </c>
       <c r="K15">
-        <v>1.01908360981455</v>
+        <v>1.033811280101898</v>
       </c>
       <c r="L15">
-        <v>0.8970739952407669</v>
+        <v>0.9409215861854028</v>
       </c>
       <c r="M15">
-        <v>0.9043610388838377</v>
+        <v>1.01274383650885</v>
       </c>
       <c r="N15">
-        <v>0.8912865574795289</v>
+        <v>0.9389749645067478</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8694966390069546</v>
+        <v>0.912422533911265</v>
       </c>
       <c r="D16">
-        <v>1.009030038907418</v>
+        <v>1.023541026664416</v>
       </c>
       <c r="E16">
-        <v>0.893568205706865</v>
+        <v>0.931623019567885</v>
       </c>
       <c r="F16">
-        <v>0.9013888244516435</v>
+        <v>1.003454242337393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027310919495425</v>
+        <v>1.049939915604099</v>
       </c>
       <c r="J16">
-        <v>0.9039532573014991</v>
+        <v>0.9445103955011432</v>
       </c>
       <c r="K16">
-        <v>1.023201940532138</v>
+        <v>1.037462393514705</v>
       </c>
       <c r="L16">
-        <v>0.9101242073920617</v>
+        <v>0.9473065660435611</v>
       </c>
       <c r="M16">
-        <v>0.9177574631236931</v>
+        <v>1.01772491292944</v>
       </c>
       <c r="N16">
-        <v>0.9052369746117551</v>
+        <v>0.9458517085996118</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8789844060797248</v>
+        <v>0.9176315012887574</v>
       </c>
       <c r="D17">
-        <v>1.01181316766264</v>
+        <v>1.026115740886092</v>
       </c>
       <c r="E17">
-        <v>0.9017220355735507</v>
+        <v>0.9359420757049428</v>
       </c>
       <c r="F17">
-        <v>0.909751147085759</v>
+        <v>1.006861457001966</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029449222057967</v>
+        <v>1.051175421732027</v>
       </c>
       <c r="J17">
-        <v>0.912043366788598</v>
+        <v>0.9486694072657532</v>
       </c>
       <c r="K17">
-        <v>1.025617191817225</v>
+        <v>1.039680853665971</v>
       </c>
       <c r="L17">
-        <v>0.9177046096971555</v>
+        <v>0.9511749244649467</v>
       </c>
       <c r="M17">
-        <v>0.9255510601669663</v>
+        <v>1.020750240169862</v>
       </c>
       <c r="N17">
-        <v>0.9133385729822744</v>
+        <v>0.9500166266379728</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8842845543391806</v>
+        <v>0.9206071556647407</v>
       </c>
       <c r="D18">
-        <v>1.013382467740291</v>
+        <v>1.027591631807814</v>
       </c>
       <c r="E18">
-        <v>0.9062818851349776</v>
+        <v>0.9384117168642228</v>
       </c>
       <c r="F18">
-        <v>0.914431244134821</v>
+        <v>1.00881304257474</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030646611721337</v>
+        <v>1.051881163422119</v>
       </c>
       <c r="J18">
-        <v>0.9165645981683941</v>
+        <v>0.9510456625725102</v>
       </c>
       <c r="K18">
-        <v>1.026974132530885</v>
+        <v>1.040950507612862</v>
       </c>
       <c r="L18">
-        <v>0.9219414103998341</v>
+        <v>0.9533855536273951</v>
       </c>
       <c r="M18">
-        <v>0.9299107926601254</v>
+        <v>1.022481365874088</v>
       </c>
       <c r="N18">
-        <v>0.917866225029222</v>
+        <v>0.9523962564998256</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8860554262695662</v>
+        <v>0.9216115896028687</v>
       </c>
       <c r="D19">
-        <v>1.013909090899468</v>
+        <v>1.028090623376913</v>
       </c>
       <c r="E19">
-        <v>0.9078061618691754</v>
+        <v>0.9392457278945069</v>
       </c>
       <c r="F19">
-        <v>0.9159962919182071</v>
+        <v>1.009472623600942</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031047090399615</v>
+        <v>1.052119351786867</v>
       </c>
       <c r="J19">
-        <v>0.91807548407922</v>
+        <v>0.9518478233671919</v>
       </c>
       <c r="K19">
-        <v>1.027428698395751</v>
+        <v>1.041379432869617</v>
       </c>
       <c r="L19">
-        <v>0.9233573070385179</v>
+        <v>0.954131876095317</v>
       </c>
       <c r="M19">
-        <v>0.9313683674871494</v>
+        <v>1.023066148915708</v>
       </c>
       <c r="N19">
-        <v>0.9193792565713423</v>
+        <v>0.9531995564548447</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8779914846879595</v>
+        <v>0.9170792150905801</v>
       </c>
       <c r="D20">
-        <v>1.011520329822713</v>
+        <v>1.025842211780967</v>
       </c>
       <c r="E20">
-        <v>0.9008681823065291</v>
+        <v>0.9354838936371196</v>
       </c>
       <c r="F20">
-        <v>0.9088750655953881</v>
+        <v>1.006499647640213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029225121525006</v>
+        <v>1.051044424408989</v>
       </c>
       <c r="J20">
-        <v>0.9111965060532993</v>
+        <v>0.9482283995044019</v>
       </c>
       <c r="K20">
-        <v>1.02536358836346</v>
+        <v>1.039445383610822</v>
       </c>
       <c r="L20">
-        <v>0.9169110569227407</v>
+        <v>0.9507646904185596</v>
       </c>
       <c r="M20">
-        <v>0.9247347811666836</v>
+        <v>1.02042916334702</v>
       </c>
       <c r="N20">
-        <v>0.912490509607595</v>
+        <v>0.9495749925950158</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8487117078596109</v>
+        <v>0.9015716941434487</v>
       </c>
       <c r="D21">
-        <v>1.003053382835364</v>
+        <v>1.018216393462623</v>
       </c>
       <c r="E21">
-        <v>0.875747791604083</v>
+        <v>0.9226432009930857</v>
       </c>
       <c r="F21">
-        <v>0.8831430354787952</v>
+        <v>0.9963964845316723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022654500391908</v>
+        <v>1.047368222188662</v>
       </c>
       <c r="J21">
-        <v>0.8862485791679686</v>
+        <v>0.9358504598918987</v>
       </c>
       <c r="K21">
-        <v>1.01797713792899</v>
+        <v>1.032860678268314</v>
       </c>
       <c r="L21">
-        <v>0.8935391680208669</v>
+        <v>0.9392549223337422</v>
       </c>
       <c r="M21">
-        <v>0.9007370878031958</v>
+        <v>1.011446449736731</v>
       </c>
       <c r="N21">
-        <v>0.8875071538045199</v>
+        <v>0.9371794748884934</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8270158784572881</v>
+        <v>0.8911384493045289</v>
       </c>
       <c r="D22">
-        <v>0.9969979923430278</v>
+        <v>1.013150349439818</v>
       </c>
       <c r="E22">
-        <v>0.8572152085552263</v>
+        <v>0.9140316803954671</v>
       </c>
       <c r="F22">
-        <v>0.8642148276417133</v>
+        <v>0.9896657130309838</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017844643505432</v>
+        <v>1.044901961409559</v>
       </c>
       <c r="J22">
-        <v>0.867802306421893</v>
+        <v>0.9275301171653981</v>
       </c>
       <c r="K22">
-        <v>1.012629155095416</v>
+        <v>1.028465720453208</v>
       </c>
       <c r="L22">
-        <v>0.8762672547924749</v>
+        <v>0.9315228869509417</v>
       </c>
       <c r="M22">
-        <v>0.883059352859065</v>
+        <v>1.005444712161708</v>
       </c>
       <c r="N22">
-        <v>0.8690346852353276</v>
+        <v>0.9288473163209647</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8389120674950165</v>
+        <v>0.8967407249537778</v>
       </c>
       <c r="D23">
-        <v>1.000294607216168</v>
+        <v>1.015863791374068</v>
       </c>
       <c r="E23">
-        <v>0.8673676987749491</v>
+        <v>0.918652932892669</v>
       </c>
       <c r="F23">
-        <v>0.8745779322919149</v>
+        <v>0.9932728204930629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020474889767906</v>
+        <v>1.046225196322479</v>
       </c>
       <c r="J23">
-        <v>0.8779118225095454</v>
+        <v>0.9319969613463501</v>
       </c>
       <c r="K23">
-        <v>1.015547553904711</v>
+        <v>1.030821710509036</v>
       </c>
       <c r="L23">
-        <v>0.8857320405669649</v>
+        <v>0.9356734258338087</v>
       </c>
       <c r="M23">
-        <v>0.8927403427834867</v>
+        <v>1.008662800422823</v>
       </c>
       <c r="N23">
-        <v>0.8791585579954025</v>
+        <v>0.9333205039330075</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8784408558385693</v>
+        <v>0.91732896184658</v>
       </c>
       <c r="D24">
-        <v>1.011652815556444</v>
+        <v>1.025965887447386</v>
       </c>
       <c r="E24">
-        <v>0.9012545996216036</v>
+        <v>0.9356910787141666</v>
       </c>
       <c r="F24">
-        <v>0.9092715311016767</v>
+        <v>1.006663243729953</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029326534967198</v>
+        <v>1.051103662320516</v>
       </c>
       <c r="J24">
-        <v>0.9115797681556523</v>
+        <v>0.9484278243643542</v>
       </c>
       <c r="K24">
-        <v>1.025478338986362</v>
+        <v>1.039551857235006</v>
       </c>
       <c r="L24">
-        <v>0.9172701922476348</v>
+        <v>0.9509501979611501</v>
       </c>
       <c r="M24">
-        <v>0.9251041898830338</v>
+        <v>1.020574347123757</v>
       </c>
       <c r="N24">
-        <v>0.9128743159860941</v>
+        <v>0.9497747006611433</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.915132572251258</v>
+        <v>0.9387922735183832</v>
       </c>
       <c r="D25">
-        <v>1.022714660392904</v>
+        <v>1.036683254695121</v>
       </c>
       <c r="E25">
-        <v>0.93288388349712</v>
+        <v>0.9535404938515647</v>
       </c>
       <c r="F25">
-        <v>0.9417846851493489</v>
+        <v>1.020813243194274</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03764391076879</v>
+        <v>1.056185567493318</v>
       </c>
       <c r="J25">
-        <v>0.942897344564736</v>
+        <v>0.9655709577756857</v>
       </c>
       <c r="K25">
-        <v>1.034970304492547</v>
+        <v>1.048737600933954</v>
       </c>
       <c r="L25">
-        <v>0.94662184562798</v>
+        <v>0.9669055583853876</v>
       </c>
       <c r="M25">
-        <v>0.9553593594926943</v>
+        <v>1.033096829079152</v>
       </c>
       <c r="N25">
-        <v>0.9442363669458549</v>
+        <v>0.966942179288264</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9544015558538985</v>
+        <v>1.009894460941901</v>
       </c>
       <c r="D2">
-        <v>1.044569122837721</v>
+        <v>1.036901995501343</v>
       </c>
       <c r="E2">
-        <v>0.9665737762215457</v>
+        <v>1.023156943751968</v>
       </c>
       <c r="F2">
-        <v>1.031196892292324</v>
+        <v>1.030202165894042</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05985183165092</v>
+        <v>1.049553891047348</v>
       </c>
       <c r="J2">
-        <v>0.9780372353160588</v>
+        <v>1.03178320485114</v>
       </c>
       <c r="K2">
-        <v>1.055440588930566</v>
+        <v>1.047870094962917</v>
       </c>
       <c r="L2">
-        <v>0.9785193059366979</v>
+        <v>1.034302823646176</v>
       </c>
       <c r="M2">
-        <v>1.042238062682902</v>
+        <v>1.041256180397412</v>
       </c>
       <c r="N2">
-        <v>0.9794261603726465</v>
+        <v>1.01399280322751</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9650233079503131</v>
+        <v>1.015190452564036</v>
       </c>
       <c r="D3">
-        <v>1.049966854280157</v>
+        <v>1.039770886898362</v>
       </c>
       <c r="E3">
-        <v>0.9754665134835775</v>
+        <v>1.027652626647315</v>
       </c>
       <c r="F3">
-        <v>1.038294493600367</v>
+        <v>1.035112304864711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062319473805596</v>
+        <v>1.051009961530275</v>
       </c>
       <c r="J3">
-        <v>0.9865151169852004</v>
+        <v>1.035275405462131</v>
       </c>
       <c r="K3">
-        <v>1.059997956228474</v>
+        <v>1.049918976387445</v>
       </c>
       <c r="L3">
-        <v>0.9864232368561384</v>
+        <v>1.037943502447652</v>
       </c>
       <c r="M3">
-        <v>1.048459758536813</v>
+        <v>1.045314795603088</v>
       </c>
       <c r="N3">
-        <v>0.9879160816061852</v>
+        <v>1.015199885221003</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9716095052987573</v>
+        <v>1.018540461980846</v>
       </c>
       <c r="D4">
-        <v>1.053322671688043</v>
+        <v>1.041590494713001</v>
       </c>
       <c r="E4">
-        <v>0.9809900187277597</v>
+        <v>1.030502454547502</v>
       </c>
       <c r="F4">
-        <v>1.042704314306815</v>
+        <v>1.038225237273696</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063834263728251</v>
+        <v>1.051922419759726</v>
       </c>
       <c r="J4">
-        <v>0.9917684203085646</v>
+        <v>1.037481504165881</v>
       </c>
       <c r="K4">
-        <v>1.062817470550043</v>
+        <v>1.051211592056783</v>
       </c>
       <c r="L4">
-        <v>0.9913234245967244</v>
+        <v>1.040246168858443</v>
       </c>
       <c r="M4">
-        <v>1.052313271407397</v>
+        <v>1.047883209146383</v>
       </c>
       <c r="N4">
-        <v>0.9931768452228303</v>
+        <v>1.015961815769308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9743151292416045</v>
+        <v>1.019931156956</v>
       </c>
       <c r="D5">
-        <v>1.054702623822183</v>
+        <v>1.04234692724507</v>
       </c>
       <c r="E5">
-        <v>0.9832611373511571</v>
+        <v>1.031686908967102</v>
       </c>
       <c r="F5">
-        <v>1.044517234663562</v>
+        <v>1.039519141657558</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064452499467055</v>
+        <v>1.052299097360266</v>
       </c>
       <c r="J5">
-        <v>0.9939254827953798</v>
+        <v>1.038396584650315</v>
       </c>
       <c r="K5">
-        <v>1.063973603327885</v>
+        <v>1.051747298083767</v>
       </c>
       <c r="L5">
-        <v>0.9933360822212572</v>
+        <v>1.041201968608728</v>
       </c>
       <c r="M5">
-        <v>1.053894606551661</v>
+        <v>1.048949655250158</v>
       </c>
       <c r="N5">
-        <v>0.9953369709857958</v>
+        <v>1.016277706685063</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.974765854103147</v>
+        <v>1.020163646802897</v>
       </c>
       <c r="D6">
-        <v>1.054932567920466</v>
+        <v>1.042473442917697</v>
       </c>
       <c r="E6">
-        <v>0.9836395938767353</v>
+        <v>1.031885001339555</v>
       </c>
       <c r="F6">
-        <v>1.044819304786262</v>
+        <v>1.039735544759887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064555242162757</v>
+        <v>1.052361942851997</v>
       </c>
       <c r="J6">
-        <v>0.9942847604763538</v>
+        <v>1.0385495187468</v>
       </c>
       <c r="K6">
-        <v>1.064166059504271</v>
+        <v>1.051836799729492</v>
       </c>
       <c r="L6">
-        <v>0.9936713421123299</v>
+        <v>1.041361746940706</v>
       </c>
       <c r="M6">
-        <v>1.054157920664516</v>
+        <v>1.049127949975818</v>
       </c>
       <c r="N6">
-        <v>0.9956967588822865</v>
+        <v>1.016330491053575</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9716458996800437</v>
+        <v>1.018559112903353</v>
       </c>
       <c r="D7">
-        <v>1.053341229436353</v>
+        <v>1.041600635374339</v>
       </c>
       <c r="E7">
-        <v>0.9810205605321629</v>
+        <v>1.030518334064413</v>
       </c>
       <c r="F7">
-        <v>1.042728696161856</v>
+        <v>1.038242583749176</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063842596359809</v>
+        <v>1.051927479884745</v>
       </c>
       <c r="J7">
-        <v>0.9917974399620466</v>
+        <v>1.037493779498289</v>
       </c>
       <c r="K7">
-        <v>1.062833031341829</v>
+        <v>1.051218780189663</v>
       </c>
       <c r="L7">
-        <v>0.9913504992145955</v>
+        <v>1.040258987797787</v>
       </c>
       <c r="M7">
-        <v>1.052334550096065</v>
+        <v>1.04789751070508</v>
       </c>
       <c r="N7">
-        <v>0.9932059060875493</v>
+        <v>1.015966053905518</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9580541156916894</v>
+        <v>1.011700643888976</v>
       </c>
       <c r="D8">
-        <v>1.046422891226414</v>
+        <v>1.03787932809333</v>
       </c>
       <c r="E8">
-        <v>0.9696296292351682</v>
+        <v>1.024688878190436</v>
       </c>
       <c r="F8">
-        <v>1.033635201917188</v>
+        <v>1.031875253567038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060703412023243</v>
+        <v>1.050052250557169</v>
       </c>
       <c r="J8">
-        <v>0.9809532251876352</v>
+        <v>1.032974795309059</v>
       </c>
       <c r="K8">
-        <v>1.057008713747652</v>
+        <v>1.048569527561079</v>
       </c>
       <c r="L8">
-        <v>0.9812373317062176</v>
+        <v>1.035544493656013</v>
       </c>
       <c r="M8">
-        <v>1.044378051162595</v>
+        <v>1.042640093909479</v>
       </c>
       <c r="N8">
-        <v>0.9823462912843091</v>
+        <v>1.014404800257268</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9316178544601793</v>
+        <v>0.9989905084567205</v>
       </c>
       <c r="D9">
-        <v>1.033082541685189</v>
+        <v>1.031027541445251</v>
       </c>
       <c r="E9">
-        <v>0.9475645840807504</v>
+        <v>1.013936789896647</v>
       </c>
       <c r="F9">
-        <v>1.016064783399248</v>
+        <v>1.020133793250259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054490044694717</v>
+        <v>1.046510924602694</v>
       </c>
       <c r="J9">
-        <v>0.9598400742170159</v>
+        <v>1.024578964903559</v>
       </c>
       <c r="K9">
-        <v>1.045660748750534</v>
+        <v>1.043636505714424</v>
       </c>
       <c r="L9">
-        <v>0.9615698198607622</v>
+        <v>1.026807727972923</v>
       </c>
       <c r="M9">
-        <v>1.028902488811013</v>
+        <v>1.032908446191545</v>
       </c>
       <c r="N9">
-        <v>0.9612031572175994</v>
+        <v>1.011499664104592</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9118250419731041</v>
+        <v>0.9900427081114537</v>
       </c>
       <c r="D10">
-        <v>1.023246440851437</v>
+        <v>1.026242521805548</v>
       </c>
       <c r="E10">
-        <v>0.9311279433517553</v>
+        <v>1.006406100716489</v>
       </c>
       <c r="F10">
-        <v>1.003064184198891</v>
+        <v>1.011911527174991</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049798212609013</v>
+        <v>1.043976679343692</v>
       </c>
       <c r="J10">
-        <v>0.9440334028616145</v>
+        <v>1.018657033478888</v>
       </c>
       <c r="K10">
-        <v>1.037208286395132</v>
+        <v>1.040153591398925</v>
       </c>
       <c r="L10">
-        <v>0.9468629701599093</v>
+        <v>1.020660646381632</v>
       </c>
       <c r="M10">
-        <v>1.017378333375386</v>
+        <v>1.026068995034627</v>
       </c>
       <c r="N10">
-        <v>0.9453740385758228</v>
+        <v>1.009448090240743</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9025918788759645</v>
+        <v>0.986042253221814</v>
       </c>
       <c r="D11">
-        <v>1.018714667649317</v>
+        <v>1.024114345980851</v>
       </c>
       <c r="E11">
-        <v>0.9234864634305736</v>
+        <v>1.003049376501274</v>
       </c>
       <c r="F11">
-        <v>0.9970576355788722</v>
+        <v>1.008246757985491</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04760979242982</v>
+        <v>1.042834742860993</v>
       </c>
       <c r="J11">
-        <v>0.9366644027495353</v>
+        <v>1.016007443829913</v>
       </c>
       <c r="K11">
-        <v>1.033292076983267</v>
+        <v>1.038595392242143</v>
       </c>
       <c r="L11">
-        <v>0.9400115161847892</v>
+        <v>1.017914014261549</v>
       </c>
       <c r="M11">
-        <v>1.012035254725743</v>
+        <v>1.023014810445888</v>
       </c>
       <c r="N11">
-        <v>0.9379945736383484</v>
+        <v>1.008529724836934</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8990461989645223</v>
+        <v>0.9845361170958642</v>
       </c>
       <c r="D12">
-        <v>1.016985079392058</v>
+        <v>1.023314962355966</v>
       </c>
       <c r="E12">
-        <v>0.920556599559444</v>
+        <v>1.00178721539286</v>
       </c>
       <c r="F12">
-        <v>0.9947620337012654</v>
+        <v>1.006868792130514</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046770481298368</v>
+        <v>1.042403554227977</v>
       </c>
       <c r="J12">
-        <v>0.9338357815025641</v>
+        <v>1.015009667864975</v>
       </c>
       <c r="K12">
-        <v>1.031793949634257</v>
+        <v>1.038008713158665</v>
       </c>
       <c r="L12">
-        <v>0.9373823505113551</v>
+        <v>1.016880255090169</v>
       </c>
       <c r="M12">
-        <v>1.009990277637264</v>
+        <v>1.021865569552489</v>
       </c>
       <c r="N12">
-        <v>0.9351619354247591</v>
+        <v>1.008183833070929</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8998123220928502</v>
+        <v>0.9848601234123388</v>
       </c>
       <c r="D13">
-        <v>1.017358275037033</v>
+        <v>1.023486842270575</v>
       </c>
       <c r="E13">
-        <v>0.921189443173319</v>
+        <v>1.002058662272858</v>
       </c>
       <c r="F13">
-        <v>0.9952575124738019</v>
+        <v>1.007165143688362</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046951765887965</v>
+        <v>1.042496368921481</v>
       </c>
       <c r="J13">
-        <v>0.9344469054782006</v>
+        <v>1.015224322833127</v>
       </c>
       <c r="K13">
-        <v>1.032117362606957</v>
+        <v>1.038134921348557</v>
       </c>
       <c r="L13">
-        <v>0.9379503450666179</v>
+        <v>1.01710262581736</v>
       </c>
       <c r="M13">
-        <v>1.01043179715318</v>
+        <v>1.022112769079179</v>
       </c>
       <c r="N13">
-        <v>0.935773927266538</v>
+        <v>1.00825824828947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9023012698783464</v>
+        <v>0.985918175055311</v>
       </c>
       <c r="D14">
-        <v>1.018572678604225</v>
+        <v>1.024048452561789</v>
       </c>
       <c r="E14">
-        <v>0.923246230733891</v>
+        <v>1.002945364060804</v>
       </c>
       <c r="F14">
-        <v>0.9968692479628859</v>
+        <v>1.008133201868703</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04754097290915</v>
+        <v>1.042799245895489</v>
       </c>
       <c r="J14">
-        <v>0.9364325376828386</v>
+        <v>1.015925249524432</v>
       </c>
       <c r="K14">
-        <v>1.033169160966156</v>
+        <v>1.038547060465118</v>
       </c>
       <c r="L14">
-        <v>0.9397959842335252</v>
+        <v>1.017828844321489</v>
       </c>
       <c r="M14">
-        <v>1.011867494909122</v>
+        <v>1.022920120583903</v>
       </c>
       <c r="N14">
-        <v>0.9377623792966618</v>
+        <v>1.008501232200481</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9038188488486588</v>
+        <v>0.986567360853704</v>
       </c>
       <c r="D15">
-        <v>1.01931460004841</v>
+        <v>1.024393288312514</v>
       </c>
       <c r="E15">
-        <v>0.9245009309239798</v>
+        <v>1.003489630927186</v>
       </c>
       <c r="F15">
-        <v>0.9978534795451893</v>
+        <v>1.008727408905367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047900403029703</v>
+        <v>1.042984917719709</v>
       </c>
       <c r="J15">
-        <v>0.9376434033248248</v>
+        <v>1.01635528707006</v>
       </c>
       <c r="K15">
-        <v>1.033811280101898</v>
+        <v>1.038799935263059</v>
       </c>
       <c r="L15">
-        <v>0.9409215861854028</v>
+        <v>1.018274473153083</v>
       </c>
       <c r="M15">
-        <v>1.01274383650885</v>
+        <v>1.023415570968763</v>
       </c>
       <c r="N15">
-        <v>0.9389749645067478</v>
+        <v>1.008650302404345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.912422533911265</v>
+        <v>0.9903054454256855</v>
       </c>
       <c r="D16">
-        <v>1.023541026664416</v>
+        <v>1.026382540621287</v>
       </c>
       <c r="E16">
-        <v>0.931623019567885</v>
+        <v>1.006626778540496</v>
       </c>
       <c r="F16">
-        <v>1.003454242337393</v>
+        <v>1.01215246023876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049939915604099</v>
+        <v>1.044051499422329</v>
       </c>
       <c r="J16">
-        <v>0.9445103955011432</v>
+        <v>1.018831014848903</v>
       </c>
       <c r="K16">
-        <v>1.037462393514705</v>
+        <v>1.04025591789774</v>
       </c>
       <c r="L16">
-        <v>0.9473065660435611</v>
+        <v>1.020841077192347</v>
       </c>
       <c r="M16">
-        <v>1.01772491292944</v>
+        <v>1.026269667214259</v>
       </c>
       <c r="N16">
-        <v>0.9458517085996118</v>
+        <v>1.009508384949772</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9176315012887574</v>
+        <v>0.9926156578623726</v>
       </c>
       <c r="D17">
-        <v>1.026115740886092</v>
+        <v>1.027614993763974</v>
       </c>
       <c r="E17">
-        <v>0.9359420757049428</v>
+        <v>1.008568331723776</v>
       </c>
       <c r="F17">
-        <v>1.006861457001966</v>
+        <v>1.014272245424853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051175421732027</v>
+        <v>1.04470837947821</v>
       </c>
       <c r="J17">
-        <v>0.9486694072657532</v>
+        <v>1.020360593182537</v>
       </c>
       <c r="K17">
-        <v>1.039680853665971</v>
+        <v>1.041155557888514</v>
       </c>
       <c r="L17">
-        <v>0.9511749244649467</v>
+        <v>1.022427776630837</v>
       </c>
       <c r="M17">
-        <v>1.020750240169862</v>
+        <v>1.028034574082539</v>
       </c>
       <c r="N17">
-        <v>0.9500166266379728</v>
+        <v>1.010038423434273</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9206071556647407</v>
+        <v>0.9939510992220273</v>
       </c>
       <c r="D18">
-        <v>1.027591631807814</v>
+        <v>1.028328468565662</v>
       </c>
       <c r="E18">
-        <v>0.9384117168642228</v>
+        <v>1.00969162111787</v>
       </c>
       <c r="F18">
-        <v>1.00881304257474</v>
+        <v>1.015498672619485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051881163422119</v>
+        <v>1.045087247244465</v>
       </c>
       <c r="J18">
-        <v>0.9510456625725102</v>
+        <v>1.021244590679089</v>
       </c>
       <c r="K18">
-        <v>1.040950507612862</v>
+        <v>1.041675497831629</v>
       </c>
       <c r="L18">
-        <v>0.9533855536273951</v>
+        <v>1.023345135545221</v>
       </c>
       <c r="M18">
-        <v>1.022481365874088</v>
+        <v>1.029055136045642</v>
       </c>
       <c r="N18">
-        <v>0.9523962564998256</v>
+        <v>1.010344708032427</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9216115896028687</v>
+        <v>0.994404440043284</v>
       </c>
       <c r="D19">
-        <v>1.028090623376913</v>
+        <v>1.02857084278318</v>
       </c>
       <c r="E19">
-        <v>0.9392457278945069</v>
+        <v>1.010073102390532</v>
       </c>
       <c r="F19">
-        <v>1.009472623600942</v>
+        <v>1.015915184504979</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052119351786867</v>
+        <v>1.045215714914737</v>
       </c>
       <c r="J19">
-        <v>0.9518478233671919</v>
+        <v>1.021544646116834</v>
       </c>
       <c r="K19">
-        <v>1.041379432869617</v>
+        <v>1.041851979734943</v>
       </c>
       <c r="L19">
-        <v>0.954131876095317</v>
+        <v>1.023656573913126</v>
       </c>
       <c r="M19">
-        <v>1.023066148915708</v>
+        <v>1.029401640354867</v>
       </c>
       <c r="N19">
-        <v>0.9531995564548447</v>
+        <v>1.010448662566005</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9170792150905801</v>
+        <v>0.9923690507823796</v>
       </c>
       <c r="D20">
-        <v>1.025842211780967</v>
+        <v>1.027483324207015</v>
       </c>
       <c r="E20">
-        <v>0.9354838936371196</v>
+        <v>1.008360977963378</v>
       </c>
       <c r="F20">
-        <v>1.006499647640213</v>
+        <v>1.014045854718701</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051044424408989</v>
+        <v>1.044638347340622</v>
       </c>
       <c r="J20">
-        <v>0.9482283995044019</v>
+        <v>1.020197335373578</v>
       </c>
       <c r="K20">
-        <v>1.039445383610822</v>
+        <v>1.041059534610115</v>
       </c>
       <c r="L20">
-        <v>0.9507646904185596</v>
+        <v>1.022258385788379</v>
       </c>
       <c r="M20">
-        <v>1.02042916334702</v>
+        <v>1.027846140598985</v>
       </c>
       <c r="N20">
-        <v>0.9495749925950158</v>
+        <v>1.009981854802592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9015716941434487</v>
+        <v>0.985607173191041</v>
       </c>
       <c r="D21">
-        <v>1.018216393462623</v>
+        <v>1.023883321254586</v>
       </c>
       <c r="E21">
-        <v>0.9226432009930857</v>
+        <v>1.002684683267566</v>
       </c>
       <c r="F21">
-        <v>0.9963964845316723</v>
+        <v>1.007848602611961</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047368222188662</v>
+        <v>1.042710252762348</v>
       </c>
       <c r="J21">
-        <v>0.9358504598918987</v>
+        <v>1.015719226088075</v>
       </c>
       <c r="K21">
-        <v>1.032860678268314</v>
+        <v>1.038425916827716</v>
       </c>
       <c r="L21">
-        <v>0.9392549223337422</v>
+        <v>1.017615371384103</v>
       </c>
       <c r="M21">
-        <v>1.011446449736731</v>
+        <v>1.022682790975252</v>
       </c>
       <c r="N21">
-        <v>0.9371794748884934</v>
+        <v>1.00842981336459</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8911384493045289</v>
+        <v>0.981238199826507</v>
       </c>
       <c r="D22">
-        <v>1.013150349439818</v>
+        <v>1.021568212976021</v>
       </c>
       <c r="E22">
-        <v>0.9140316803954671</v>
+        <v>0.9990265981459585</v>
       </c>
       <c r="F22">
-        <v>0.9896657130309838</v>
+        <v>1.003854916713539</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044901961409559</v>
+        <v>1.04145717272942</v>
       </c>
       <c r="J22">
-        <v>0.9275301171653981</v>
+        <v>1.012824539711948</v>
       </c>
       <c r="K22">
-        <v>1.028465720453208</v>
+        <v>1.036724175260808</v>
       </c>
       <c r="L22">
-        <v>0.9315228869509417</v>
+        <v>1.014617363011739</v>
       </c>
       <c r="M22">
-        <v>1.005444712161708</v>
+        <v>1.019350391816922</v>
       </c>
       <c r="N22">
-        <v>0.9288473163209647</v>
+        <v>1.0074262408134</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8967407249537778</v>
+        <v>0.9835658635393859</v>
       </c>
       <c r="D23">
-        <v>1.015863791374068</v>
+        <v>1.022800545592391</v>
       </c>
       <c r="E23">
-        <v>0.918652932892669</v>
+        <v>1.000974597883421</v>
       </c>
       <c r="F23">
-        <v>0.9932728204930629</v>
+        <v>1.00598162131632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046225196322479</v>
+        <v>1.042125437544603</v>
       </c>
       <c r="J23">
-        <v>0.9319969613463501</v>
+        <v>1.014366844360688</v>
       </c>
       <c r="K23">
-        <v>1.030821710509036</v>
+        <v>1.037630781661001</v>
       </c>
       <c r="L23">
-        <v>0.9356734258338087</v>
+        <v>1.016214408015279</v>
       </c>
       <c r="M23">
-        <v>1.008662800422823</v>
+        <v>1.021125417390273</v>
       </c>
       <c r="N23">
-        <v>0.9333205039330075</v>
+        <v>1.007960975829422</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.91732896184658</v>
+        <v>0.9924805191030249</v>
       </c>
       <c r="D24">
-        <v>1.025965887447386</v>
+        <v>1.027542836650462</v>
       </c>
       <c r="E24">
-        <v>0.9356910787141666</v>
+        <v>1.008454700521601</v>
       </c>
       <c r="F24">
-        <v>1.006663243729953</v>
+        <v>1.014148181786392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051103662320516</v>
+        <v>1.044670005049533</v>
       </c>
       <c r="J24">
-        <v>0.9484278243643542</v>
+        <v>1.02027112977062</v>
       </c>
       <c r="K24">
-        <v>1.039551857235006</v>
+        <v>1.041102938217655</v>
       </c>
       <c r="L24">
-        <v>0.9509501979611501</v>
+        <v>1.022334951304106</v>
       </c>
       <c r="M24">
-        <v>1.020574347123757</v>
+        <v>1.027931312952834</v>
       </c>
       <c r="N24">
-        <v>0.9497747006611433</v>
+        <v>1.010007424606732</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9387922735183832</v>
+        <v>1.002355749959755</v>
       </c>
       <c r="D25">
-        <v>1.036683254695121</v>
+        <v>1.032835675611061</v>
       </c>
       <c r="E25">
-        <v>0.9535404938515647</v>
+        <v>1.016777263423188</v>
       </c>
       <c r="F25">
-        <v>1.020813243194274</v>
+        <v>1.023235367478194</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056185567493318</v>
+        <v>1.047455903195784</v>
       </c>
       <c r="J25">
-        <v>0.9655709577756857</v>
+        <v>1.026804092979841</v>
       </c>
       <c r="K25">
-        <v>1.048737600933954</v>
+        <v>1.044944780594069</v>
       </c>
       <c r="L25">
-        <v>0.9669055583853876</v>
+        <v>1.029120599340847</v>
       </c>
       <c r="M25">
-        <v>1.033096829079152</v>
+        <v>1.035483382650114</v>
       </c>
       <c r="N25">
-        <v>0.966942179288264</v>
+        <v>1.012270070178918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009894460941901</v>
+        <v>1.044269252652559</v>
       </c>
       <c r="D2">
-        <v>1.036901995501343</v>
+        <v>1.042574350693107</v>
       </c>
       <c r="E2">
-        <v>1.023156943751968</v>
+        <v>1.05153667465833</v>
       </c>
       <c r="F2">
-        <v>1.030202165894042</v>
+        <v>1.060888035034363</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049553891047348</v>
+        <v>1.041731533383036</v>
       </c>
       <c r="J2">
-        <v>1.03178320485114</v>
+        <v>1.049335242836279</v>
       </c>
       <c r="K2">
-        <v>1.047870094962917</v>
+        <v>1.045350653450992</v>
       </c>
       <c r="L2">
-        <v>1.034302823646176</v>
+        <v>1.054287903491258</v>
       </c>
       <c r="M2">
-        <v>1.041256180397412</v>
+        <v>1.063613590662148</v>
       </c>
       <c r="N2">
-        <v>1.01399280322751</v>
+        <v>1.020252522136109</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015190452564036</v>
+        <v>1.045378982712692</v>
       </c>
       <c r="D3">
-        <v>1.039770886898362</v>
+        <v>1.043170791527352</v>
       </c>
       <c r="E3">
-        <v>1.027652626647315</v>
+        <v>1.052530256005684</v>
       </c>
       <c r="F3">
-        <v>1.035112304864711</v>
+        <v>1.06198092762699</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051009961530275</v>
+        <v>1.041978314892545</v>
       </c>
       <c r="J3">
-        <v>1.035275405462131</v>
+        <v>1.050091365997522</v>
       </c>
       <c r="K3">
-        <v>1.049918976387445</v>
+        <v>1.045758515411779</v>
       </c>
       <c r="L3">
-        <v>1.037943502447652</v>
+        <v>1.055093685577495</v>
       </c>
       <c r="M3">
-        <v>1.045314795603088</v>
+        <v>1.064520294503491</v>
       </c>
       <c r="N3">
-        <v>1.015199885221003</v>
+        <v>1.020509636479818</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018540461980846</v>
+        <v>1.046097198055176</v>
       </c>
       <c r="D4">
-        <v>1.041590494713001</v>
+        <v>1.043556793396399</v>
       </c>
       <c r="E4">
-        <v>1.030502454547502</v>
+        <v>1.053173647814641</v>
       </c>
       <c r="F4">
-        <v>1.038225237273696</v>
+        <v>1.062688719804192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051922419759726</v>
+        <v>1.042136875497875</v>
       </c>
       <c r="J4">
-        <v>1.037481504165881</v>
+        <v>1.050580213184197</v>
       </c>
       <c r="K4">
-        <v>1.051211592056783</v>
+        <v>1.046021796759023</v>
       </c>
       <c r="L4">
-        <v>1.040246168858443</v>
+        <v>1.055614944087508</v>
       </c>
       <c r="M4">
-        <v>1.047883209146383</v>
+        <v>1.065107013679338</v>
       </c>
       <c r="N4">
-        <v>1.015961815769308</v>
+        <v>1.020675720670588</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019931156956</v>
+        <v>1.046399171189773</v>
       </c>
       <c r="D5">
-        <v>1.04234692724507</v>
+        <v>1.04371908287049</v>
       </c>
       <c r="E5">
-        <v>1.031686908967102</v>
+        <v>1.053444244065106</v>
       </c>
       <c r="F5">
-        <v>1.039519141657558</v>
+        <v>1.062986423412037</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052299097360266</v>
+        <v>1.042203265134253</v>
       </c>
       <c r="J5">
-        <v>1.038396584650315</v>
+        <v>1.050785625169838</v>
       </c>
       <c r="K5">
-        <v>1.051747298083767</v>
+        <v>1.046132328057453</v>
       </c>
       <c r="L5">
-        <v>1.041201968608728</v>
+        <v>1.05583404844248</v>
       </c>
       <c r="M5">
-        <v>1.048949655250158</v>
+        <v>1.065353675408081</v>
       </c>
       <c r="N5">
-        <v>1.016277706685063</v>
+        <v>1.02074547388707</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020163646802897</v>
+        <v>1.046449875898689</v>
       </c>
       <c r="D6">
-        <v>1.042473442917697</v>
+        <v>1.04374633278971</v>
       </c>
       <c r="E6">
-        <v>1.031885001339555</v>
+        <v>1.053489685066318</v>
       </c>
       <c r="F6">
-        <v>1.039735544759887</v>
+        <v>1.063036417821309</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052361942851997</v>
+        <v>1.042214396450134</v>
       </c>
       <c r="J6">
-        <v>1.0385495187468</v>
+        <v>1.050820108918771</v>
       </c>
       <c r="K6">
-        <v>1.051836799729492</v>
+        <v>1.046150877803636</v>
       </c>
       <c r="L6">
-        <v>1.041361746940706</v>
+        <v>1.055870835106846</v>
       </c>
       <c r="M6">
-        <v>1.049127949975818</v>
+        <v>1.065395091287923</v>
       </c>
       <c r="N6">
-        <v>1.016330491053575</v>
+        <v>1.02075718173437</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018559112903353</v>
+        <v>1.046101232895222</v>
       </c>
       <c r="D7">
-        <v>1.041600635374339</v>
+        <v>1.043558961861689</v>
       </c>
       <c r="E7">
-        <v>1.030518334064413</v>
+        <v>1.053177263085922</v>
       </c>
       <c r="F7">
-        <v>1.038242583749176</v>
+        <v>1.062692697153798</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051927479884745</v>
+        <v>1.042137763657713</v>
       </c>
       <c r="J7">
-        <v>1.037493779498289</v>
+        <v>1.05058295829967</v>
       </c>
       <c r="K7">
-        <v>1.051218780189663</v>
+        <v>1.046023274282527</v>
       </c>
       <c r="L7">
-        <v>1.040258987797787</v>
+        <v>1.055617871899289</v>
       </c>
       <c r="M7">
-        <v>1.04789751070508</v>
+        <v>1.065110309565929</v>
       </c>
       <c r="N7">
-        <v>1.015966053905518</v>
+        <v>1.020676652986083</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011700643888976</v>
+        <v>1.044644261237206</v>
       </c>
       <c r="D8">
-        <v>1.03787932809333</v>
+        <v>1.042775906525047</v>
       </c>
       <c r="E8">
-        <v>1.024688878190436</v>
+        <v>1.051872361009552</v>
       </c>
       <c r="F8">
-        <v>1.031875253567038</v>
+        <v>1.061257255280927</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050052250557169</v>
+        <v>1.041815166824514</v>
       </c>
       <c r="J8">
-        <v>1.032974795309059</v>
+        <v>1.049590864135959</v>
       </c>
       <c r="K8">
-        <v>1.048569527561079</v>
+        <v>1.045488622858504</v>
       </c>
       <c r="L8">
-        <v>1.035544493656013</v>
+        <v>1.054560249514634</v>
       </c>
       <c r="M8">
-        <v>1.042640093909479</v>
+        <v>1.063920011041392</v>
       </c>
       <c r="N8">
-        <v>1.014404800257268</v>
+        <v>1.020339474279386</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9989905084567205</v>
+        <v>1.042077984816745</v>
       </c>
       <c r="D9">
-        <v>1.031027541445251</v>
+        <v>1.041396612497119</v>
       </c>
       <c r="E9">
-        <v>1.013936789896647</v>
+        <v>1.049576626076656</v>
       </c>
       <c r="F9">
-        <v>1.020133793250259</v>
+        <v>1.05873255619793</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046510924602694</v>
+        <v>1.041238116686148</v>
       </c>
       <c r="J9">
-        <v>1.024578964903559</v>
+        <v>1.047839488456404</v>
       </c>
       <c r="K9">
-        <v>1.043636505714424</v>
+        <v>1.044541685748655</v>
       </c>
       <c r="L9">
-        <v>1.026807727972923</v>
+        <v>1.052695542050711</v>
       </c>
       <c r="M9">
-        <v>1.032908446191545</v>
+        <v>1.061822718093432</v>
       </c>
       <c r="N9">
-        <v>1.011499664104592</v>
+        <v>1.019743136850173</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9900427081114537</v>
+        <v>1.040367834769296</v>
       </c>
       <c r="D10">
-        <v>1.026242521805548</v>
+        <v>1.040477523940739</v>
       </c>
       <c r="E10">
-        <v>1.006406100716489</v>
+        <v>1.048048609193641</v>
       </c>
       <c r="F10">
-        <v>1.011911527174991</v>
+        <v>1.05705260652008</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043976679343692</v>
+        <v>1.040847653728597</v>
       </c>
       <c r="J10">
-        <v>1.018657033478888</v>
+        <v>1.046669764604452</v>
       </c>
       <c r="K10">
-        <v>1.040153591398925</v>
+        <v>1.043907200759933</v>
       </c>
       <c r="L10">
-        <v>1.020660646381632</v>
+        <v>1.05145170471533</v>
       </c>
       <c r="M10">
-        <v>1.026068995034627</v>
+        <v>1.060424635282511</v>
       </c>
       <c r="N10">
-        <v>1.009448090240743</v>
+        <v>1.019344114842671</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.986042253221814</v>
+        <v>1.039627478634734</v>
       </c>
       <c r="D11">
-        <v>1.024114345980851</v>
+        <v>1.040079667795023</v>
       </c>
       <c r="E11">
-        <v>1.003049376501274</v>
+        <v>1.04738754799368</v>
       </c>
       <c r="F11">
-        <v>1.008246757985491</v>
+        <v>1.056325923954072</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042834742860993</v>
+        <v>1.040677214897556</v>
       </c>
       <c r="J11">
-        <v>1.016007443829913</v>
+        <v>1.046162752284647</v>
       </c>
       <c r="K11">
-        <v>1.038595392242143</v>
+        <v>1.043631712941083</v>
       </c>
       <c r="L11">
-        <v>1.017914014261549</v>
+        <v>1.05091294309611</v>
       </c>
       <c r="M11">
-        <v>1.023014810445888</v>
+        <v>1.05981927610321</v>
       </c>
       <c r="N11">
-        <v>1.008529724836934</v>
+        <v>1.019170987654326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9845361170958642</v>
+        <v>1.039352499116617</v>
       </c>
       <c r="D12">
-        <v>1.023314962355966</v>
+        <v>1.03993190479089</v>
       </c>
       <c r="E12">
-        <v>1.00178721539286</v>
+        <v>1.047142087527325</v>
       </c>
       <c r="F12">
-        <v>1.006868792130514</v>
+        <v>1.0560561137046</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042403554227977</v>
+        <v>1.040613701308892</v>
       </c>
       <c r="J12">
-        <v>1.015009667864975</v>
+        <v>1.045974347869798</v>
       </c>
       <c r="K12">
-        <v>1.038008713158665</v>
+        <v>1.043529272232974</v>
       </c>
       <c r="L12">
-        <v>1.016880255090169</v>
+        <v>1.050712797082559</v>
       </c>
       <c r="M12">
-        <v>1.021865569552489</v>
+        <v>1.059594421587615</v>
       </c>
       <c r="N12">
-        <v>1.008183833070929</v>
+        <v>1.019106628259499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9848601234123388</v>
+        <v>1.039411482187505</v>
       </c>
       <c r="D13">
-        <v>1.023486842270575</v>
+        <v>1.039963599601818</v>
       </c>
       <c r="E13">
-        <v>1.002058662272858</v>
+        <v>1.047194735690394</v>
       </c>
       <c r="F13">
-        <v>1.007165143688362</v>
+        <v>1.05611398385309</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042496368921481</v>
+        <v>1.040627334463909</v>
       </c>
       <c r="J13">
-        <v>1.015224322833127</v>
+        <v>1.046014764765224</v>
       </c>
       <c r="K13">
-        <v>1.038134921348557</v>
+        <v>1.043551251182342</v>
       </c>
       <c r="L13">
-        <v>1.01710262581736</v>
+        <v>1.050755730258884</v>
       </c>
       <c r="M13">
-        <v>1.022112769079179</v>
+        <v>1.059642653518552</v>
       </c>
       <c r="N13">
-        <v>1.00825824828947</v>
+        <v>1.019120435931909</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.985918175055311</v>
+        <v>1.039604748303854</v>
       </c>
       <c r="D14">
-        <v>1.024048452561789</v>
+        <v>1.040067453275238</v>
       </c>
       <c r="E14">
-        <v>1.002945364060804</v>
+        <v>1.047367256378609</v>
       </c>
       <c r="F14">
-        <v>1.008133201868703</v>
+        <v>1.056303619070705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042799245895489</v>
+        <v>1.040671969025782</v>
       </c>
       <c r="J14">
-        <v>1.015925249524432</v>
+        <v>1.046147180298438</v>
       </c>
       <c r="K14">
-        <v>1.038547060465118</v>
+        <v>1.04362324744659</v>
       </c>
       <c r="L14">
-        <v>1.017828844321489</v>
+        <v>1.050896399494582</v>
       </c>
       <c r="M14">
-        <v>1.022920120583903</v>
+        <v>1.059800689501808</v>
       </c>
       <c r="N14">
-        <v>1.008501232200481</v>
+        <v>1.019165668752307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.986567360853704</v>
+        <v>1.039723828789082</v>
       </c>
       <c r="D15">
-        <v>1.024393288312514</v>
+        <v>1.040131443434982</v>
       </c>
       <c r="E15">
-        <v>1.003489630927186</v>
+        <v>1.047473563607635</v>
       </c>
       <c r="F15">
-        <v>1.008727408905367</v>
+        <v>1.056420474424333</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042984917719709</v>
+        <v>1.040699442690912</v>
       </c>
       <c r="J15">
-        <v>1.01635528707006</v>
+        <v>1.046228755607481</v>
       </c>
       <c r="K15">
-        <v>1.038799935263059</v>
+        <v>1.04366759186447</v>
       </c>
       <c r="L15">
-        <v>1.018274473153083</v>
+        <v>1.050983067009214</v>
       </c>
       <c r="M15">
-        <v>1.023415570968763</v>
+        <v>1.059898061058347</v>
       </c>
       <c r="N15">
-        <v>1.008650302404345</v>
+        <v>1.019193531263524</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9903054454256855</v>
+        <v>1.040416972858793</v>
       </c>
       <c r="D16">
-        <v>1.026382540621287</v>
+        <v>1.040503930870941</v>
       </c>
       <c r="E16">
-        <v>1.006626778540496</v>
+        <v>1.048092493866312</v>
       </c>
       <c r="F16">
-        <v>1.01215246023876</v>
+        <v>1.057100849766347</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044051499422329</v>
+        <v>1.040858936431874</v>
       </c>
       <c r="J16">
-        <v>1.018831014848903</v>
+        <v>1.046703402490822</v>
       </c>
       <c r="K16">
-        <v>1.04025591789774</v>
+        <v>1.043925468199379</v>
       </c>
       <c r="L16">
-        <v>1.020841077192347</v>
+        <v>1.051487456916904</v>
       </c>
       <c r="M16">
-        <v>1.026269667214259</v>
+        <v>1.060464811383786</v>
       </c>
       <c r="N16">
-        <v>1.009508384949772</v>
+        <v>1.019355597394757</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9926156578623726</v>
+        <v>1.040851803419479</v>
       </c>
       <c r="D17">
-        <v>1.027614993763974</v>
+        <v>1.040737614082757</v>
       </c>
       <c r="E17">
-        <v>1.008568331723776</v>
+        <v>1.048480887750236</v>
       </c>
       <c r="F17">
-        <v>1.014272245424853</v>
+        <v>1.057527831039058</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04470837947821</v>
+        <v>1.040958617104824</v>
       </c>
       <c r="J17">
-        <v>1.020360593182537</v>
+        <v>1.047000998129444</v>
       </c>
       <c r="K17">
-        <v>1.041155557888514</v>
+        <v>1.044087026443442</v>
       </c>
       <c r="L17">
-        <v>1.022427776630837</v>
+        <v>1.051803801272015</v>
       </c>
       <c r="M17">
-        <v>1.028034574082539</v>
+        <v>1.060820324110084</v>
       </c>
       <c r="N17">
-        <v>1.010038423434273</v>
+        <v>1.01945716404798</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9939510992220273</v>
+        <v>1.041105447269433</v>
       </c>
       <c r="D18">
-        <v>1.028328468565662</v>
+        <v>1.040873928590052</v>
       </c>
       <c r="E18">
-        <v>1.00969162111787</v>
+        <v>1.048707487316621</v>
       </c>
       <c r="F18">
-        <v>1.015498672619485</v>
+        <v>1.057776954051932</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045087247244465</v>
+        <v>1.041016627363683</v>
       </c>
       <c r="J18">
-        <v>1.021244590679089</v>
+        <v>1.047174531034721</v>
       </c>
       <c r="K18">
-        <v>1.041675497831629</v>
+        <v>1.044181188068284</v>
       </c>
       <c r="L18">
-        <v>1.023345135545221</v>
+        <v>1.051988303011167</v>
       </c>
       <c r="M18">
-        <v>1.029055136045642</v>
+        <v>1.061027690599162</v>
       </c>
       <c r="N18">
-        <v>1.010344708032427</v>
+        <v>1.019516372576428</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.994404440043284</v>
+        <v>1.041191935759451</v>
       </c>
       <c r="D19">
-        <v>1.02857084278318</v>
+        <v>1.040920410151969</v>
       </c>
       <c r="E19">
-        <v>1.010073102390532</v>
+        <v>1.048784761411075</v>
       </c>
       <c r="F19">
-        <v>1.015915184504979</v>
+        <v>1.057861910789503</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045215714914737</v>
+        <v>1.041036385003384</v>
       </c>
       <c r="J19">
-        <v>1.021544646116834</v>
+        <v>1.047233692865202</v>
       </c>
       <c r="K19">
-        <v>1.041851979734943</v>
+        <v>1.044213282420565</v>
       </c>
       <c r="L19">
-        <v>1.023656573913126</v>
+        <v>1.05205121052986</v>
       </c>
       <c r="M19">
-        <v>1.029401640354867</v>
+        <v>1.061098397545251</v>
       </c>
       <c r="N19">
-        <v>1.010448662566005</v>
+        <v>1.019536555457278</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9923690507823796</v>
+        <v>1.040805148717402</v>
       </c>
       <c r="D20">
-        <v>1.027483324207015</v>
+        <v>1.040712540934953</v>
       </c>
       <c r="E20">
-        <v>1.008360977963378</v>
+        <v>1.048439210971815</v>
       </c>
       <c r="F20">
-        <v>1.014045854718701</v>
+        <v>1.057482012537003</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044638347340622</v>
+        <v>1.040947935942452</v>
       </c>
       <c r="J20">
-        <v>1.020197335373578</v>
+        <v>1.046969074065214</v>
       </c>
       <c r="K20">
-        <v>1.041059534610115</v>
+        <v>1.044069700273833</v>
       </c>
       <c r="L20">
-        <v>1.022258385788379</v>
+        <v>1.051769862231505</v>
       </c>
       <c r="M20">
-        <v>1.027846140598985</v>
+        <v>1.060782180760386</v>
       </c>
       <c r="N20">
-        <v>1.009981854802592</v>
+        <v>1.019446270380538</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.985607173191041</v>
+        <v>1.039547835656915</v>
       </c>
       <c r="D21">
-        <v>1.023883321254586</v>
+        <v>1.040036870437345</v>
       </c>
       <c r="E21">
-        <v>1.002684683267566</v>
+        <v>1.047316450932152</v>
       </c>
       <c r="F21">
-        <v>1.007848602611961</v>
+        <v>1.056247773135008</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042710252762348</v>
+        <v>1.040658830917872</v>
       </c>
       <c r="J21">
-        <v>1.015719226088075</v>
+        <v>1.046108189364405</v>
       </c>
       <c r="K21">
-        <v>1.038425916827716</v>
+        <v>1.043602049435049</v>
       </c>
       <c r="L21">
-        <v>1.017615371384103</v>
+        <v>1.050854976628511</v>
       </c>
       <c r="M21">
-        <v>1.022682790975252</v>
+        <v>1.059754151766583</v>
       </c>
       <c r="N21">
-        <v>1.00842981336459</v>
+        <v>1.019152350256108</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.981238199826507</v>
+        <v>1.038757438254369</v>
       </c>
       <c r="D22">
-        <v>1.021568212976021</v>
+        <v>1.039612157087938</v>
       </c>
       <c r="E22">
-        <v>0.9990265981459585</v>
+        <v>1.046611031015438</v>
       </c>
       <c r="F22">
-        <v>1.003854916713539</v>
+        <v>1.055472405811495</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04145717272942</v>
+        <v>1.040475873031591</v>
       </c>
       <c r="J22">
-        <v>1.012824539711948</v>
+        <v>1.045566468692769</v>
       </c>
       <c r="K22">
-        <v>1.036724175260808</v>
+        <v>1.043307369578843</v>
       </c>
       <c r="L22">
-        <v>1.014617363011739</v>
+        <v>1.050279601473276</v>
       </c>
       <c r="M22">
-        <v>1.019350391816922</v>
+        <v>1.059107805476416</v>
       </c>
       <c r="N22">
-        <v>1.0074262408134</v>
+        <v>1.018967248732804</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9835658635393859</v>
+        <v>1.039176431282201</v>
       </c>
       <c r="D23">
-        <v>1.022800545592391</v>
+        <v>1.039837295091779</v>
       </c>
       <c r="E23">
-        <v>1.000974597883421</v>
+        <v>1.046984939721442</v>
       </c>
       <c r="F23">
-        <v>1.00598162131632</v>
+        <v>1.055883381338205</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042125437544603</v>
+        <v>1.040572974836403</v>
       </c>
       <c r="J23">
-        <v>1.014366844360688</v>
+        <v>1.045853687635172</v>
       </c>
       <c r="K23">
-        <v>1.037630781661001</v>
+        <v>1.043463646264891</v>
       </c>
       <c r="L23">
-        <v>1.016214408015279</v>
+        <v>1.050584633020105</v>
       </c>
       <c r="M23">
-        <v>1.021125417390273</v>
+        <v>1.059450444376009</v>
       </c>
       <c r="N23">
-        <v>1.007960975829422</v>
+        <v>1.019065403192046</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9924805191030249</v>
+        <v>1.040826229923815</v>
       </c>
       <c r="D24">
-        <v>1.027542836650462</v>
+        <v>1.040723870377172</v>
       </c>
       <c r="E24">
-        <v>1.008454700521601</v>
+        <v>1.0484580427409</v>
       </c>
       <c r="F24">
-        <v>1.014148181786392</v>
+        <v>1.05750271572302</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044670005049533</v>
+        <v>1.040952762707149</v>
       </c>
       <c r="J24">
-        <v>1.02027112977062</v>
+        <v>1.046983499328769</v>
       </c>
       <c r="K24">
-        <v>1.041102938217655</v>
+        <v>1.044077529448337</v>
       </c>
       <c r="L24">
-        <v>1.022334951304106</v>
+        <v>1.051785197874079</v>
       </c>
       <c r="M24">
-        <v>1.027931312952834</v>
+        <v>1.06079941609213</v>
       </c>
       <c r="N24">
-        <v>1.010007424606732</v>
+        <v>1.019451192863669</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002355749959755</v>
+        <v>1.042741302729563</v>
       </c>
       <c r="D25">
-        <v>1.032835675611061</v>
+        <v>1.041753120574562</v>
       </c>
       <c r="E25">
-        <v>1.016777263423188</v>
+        <v>1.050169693134977</v>
       </c>
       <c r="F25">
-        <v>1.023235367478194</v>
+        <v>1.059384690464629</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047455903195784</v>
+        <v>1.041388314807907</v>
       </c>
       <c r="J25">
-        <v>1.026804092979841</v>
+        <v>1.048292638057202</v>
       </c>
       <c r="K25">
-        <v>1.044944780594069</v>
+        <v>1.044787057675975</v>
       </c>
       <c r="L25">
-        <v>1.029120599340847</v>
+        <v>1.053177736935638</v>
       </c>
       <c r="M25">
-        <v>1.035483382650114</v>
+        <v>1.062364898875672</v>
       </c>
       <c r="N25">
-        <v>1.012270070178918</v>
+        <v>1.019897562773423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.044269252652559</v>
+        <v>1.009894460941901</v>
       </c>
       <c r="D2">
-        <v>1.042574350693107</v>
+        <v>1.036901995501343</v>
       </c>
       <c r="E2">
-        <v>1.05153667465833</v>
+        <v>1.023156943751968</v>
       </c>
       <c r="F2">
-        <v>1.060888035034363</v>
+        <v>1.030202165894042</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041731533383036</v>
+        <v>1.049553891047348</v>
       </c>
       <c r="J2">
-        <v>1.049335242836279</v>
+        <v>1.03178320485114</v>
       </c>
       <c r="K2">
-        <v>1.045350653450992</v>
+        <v>1.047870094962918</v>
       </c>
       <c r="L2">
-        <v>1.054287903491258</v>
+        <v>1.034302823646176</v>
       </c>
       <c r="M2">
-        <v>1.063613590662148</v>
+        <v>1.041256180397412</v>
       </c>
       <c r="N2">
-        <v>1.020252522136109</v>
+        <v>1.01399280322751</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045378982712692</v>
+        <v>1.015190452564036</v>
       </c>
       <c r="D3">
-        <v>1.043170791527352</v>
+        <v>1.039770886898362</v>
       </c>
       <c r="E3">
-        <v>1.052530256005684</v>
+        <v>1.027652626647315</v>
       </c>
       <c r="F3">
-        <v>1.06198092762699</v>
+        <v>1.035112304864711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041978314892545</v>
+        <v>1.051009961530276</v>
       </c>
       <c r="J3">
-        <v>1.050091365997522</v>
+        <v>1.035275405462131</v>
       </c>
       <c r="K3">
-        <v>1.045758515411779</v>
+        <v>1.049918976387445</v>
       </c>
       <c r="L3">
-        <v>1.055093685577495</v>
+        <v>1.037943502447652</v>
       </c>
       <c r="M3">
-        <v>1.064520294503491</v>
+        <v>1.045314795603088</v>
       </c>
       <c r="N3">
-        <v>1.020509636479818</v>
+        <v>1.015199885221004</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046097198055176</v>
+        <v>1.018540461980845</v>
       </c>
       <c r="D4">
-        <v>1.043556793396399</v>
+        <v>1.041590494713001</v>
       </c>
       <c r="E4">
-        <v>1.053173647814641</v>
+        <v>1.030502454547502</v>
       </c>
       <c r="F4">
-        <v>1.062688719804192</v>
+        <v>1.038225237273696</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042136875497875</v>
+        <v>1.051922419759725</v>
       </c>
       <c r="J4">
-        <v>1.050580213184197</v>
+        <v>1.03748150416588</v>
       </c>
       <c r="K4">
-        <v>1.046021796759023</v>
+        <v>1.051211592056783</v>
       </c>
       <c r="L4">
-        <v>1.055614944087508</v>
+        <v>1.040246168858443</v>
       </c>
       <c r="M4">
-        <v>1.065107013679338</v>
+        <v>1.047883209146383</v>
       </c>
       <c r="N4">
-        <v>1.020675720670588</v>
+        <v>1.015961815769308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046399171189773</v>
+        <v>1.019931156956001</v>
       </c>
       <c r="D5">
-        <v>1.04371908287049</v>
+        <v>1.042346927245071</v>
       </c>
       <c r="E5">
-        <v>1.053444244065106</v>
+        <v>1.031686908967103</v>
       </c>
       <c r="F5">
-        <v>1.062986423412037</v>
+        <v>1.039519141657559</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042203265134253</v>
+        <v>1.052299097360266</v>
       </c>
       <c r="J5">
-        <v>1.050785625169838</v>
+        <v>1.038396584650315</v>
       </c>
       <c r="K5">
-        <v>1.046132328057453</v>
+        <v>1.051747298083767</v>
       </c>
       <c r="L5">
-        <v>1.05583404844248</v>
+        <v>1.041201968608729</v>
       </c>
       <c r="M5">
-        <v>1.065353675408081</v>
+        <v>1.048949655250158</v>
       </c>
       <c r="N5">
-        <v>1.02074547388707</v>
+        <v>1.016277706685064</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046449875898689</v>
+        <v>1.020163646802897</v>
       </c>
       <c r="D6">
-        <v>1.04374633278971</v>
+        <v>1.042473442917696</v>
       </c>
       <c r="E6">
-        <v>1.053489685066318</v>
+        <v>1.031885001339554</v>
       </c>
       <c r="F6">
-        <v>1.063036417821309</v>
+        <v>1.039735544759887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042214396450134</v>
+        <v>1.052361942851996</v>
       </c>
       <c r="J6">
-        <v>1.050820108918771</v>
+        <v>1.038549518746799</v>
       </c>
       <c r="K6">
-        <v>1.046150877803636</v>
+        <v>1.051836799729492</v>
       </c>
       <c r="L6">
-        <v>1.055870835106846</v>
+        <v>1.041361746940705</v>
       </c>
       <c r="M6">
-        <v>1.065395091287923</v>
+        <v>1.049127949975817</v>
       </c>
       <c r="N6">
-        <v>1.02075718173437</v>
+        <v>1.016330491053575</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046101232895222</v>
+        <v>1.018559112903354</v>
       </c>
       <c r="D7">
-        <v>1.043558961861689</v>
+        <v>1.04160063537434</v>
       </c>
       <c r="E7">
-        <v>1.053177263085922</v>
+        <v>1.030518334064414</v>
       </c>
       <c r="F7">
-        <v>1.062692697153798</v>
+        <v>1.038242583749177</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042137763657713</v>
+        <v>1.051927479884746</v>
       </c>
       <c r="J7">
-        <v>1.05058295829967</v>
+        <v>1.03749377949829</v>
       </c>
       <c r="K7">
-        <v>1.046023274282527</v>
+        <v>1.051218780189664</v>
       </c>
       <c r="L7">
-        <v>1.055617871899289</v>
+        <v>1.040258987797788</v>
       </c>
       <c r="M7">
-        <v>1.065110309565929</v>
+        <v>1.047897510705081</v>
       </c>
       <c r="N7">
-        <v>1.020676652986083</v>
+        <v>1.015966053905518</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044644261237206</v>
+        <v>1.011700643888976</v>
       </c>
       <c r="D8">
-        <v>1.042775906525047</v>
+        <v>1.03787932809333</v>
       </c>
       <c r="E8">
-        <v>1.051872361009552</v>
+        <v>1.024688878190435</v>
       </c>
       <c r="F8">
-        <v>1.061257255280927</v>
+        <v>1.031875253567038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041815166824514</v>
+        <v>1.050052250557169</v>
       </c>
       <c r="J8">
-        <v>1.049590864135959</v>
+        <v>1.032974795309059</v>
       </c>
       <c r="K8">
-        <v>1.045488622858504</v>
+        <v>1.048569527561079</v>
       </c>
       <c r="L8">
-        <v>1.054560249514634</v>
+        <v>1.035544493656013</v>
       </c>
       <c r="M8">
-        <v>1.063920011041392</v>
+        <v>1.042640093909479</v>
       </c>
       <c r="N8">
-        <v>1.020339474279386</v>
+        <v>1.014404800257268</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042077984816745</v>
+        <v>0.998990508456721</v>
       </c>
       <c r="D9">
-        <v>1.041396612497119</v>
+        <v>1.031027541445251</v>
       </c>
       <c r="E9">
-        <v>1.049576626076656</v>
+        <v>1.013936789896647</v>
       </c>
       <c r="F9">
-        <v>1.05873255619793</v>
+        <v>1.020133793250259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041238116686148</v>
+        <v>1.046510924602694</v>
       </c>
       <c r="J9">
-        <v>1.047839488456404</v>
+        <v>1.024578964903559</v>
       </c>
       <c r="K9">
-        <v>1.044541685748655</v>
+        <v>1.043636505714424</v>
       </c>
       <c r="L9">
-        <v>1.052695542050711</v>
+        <v>1.026807727972923</v>
       </c>
       <c r="M9">
-        <v>1.061822718093432</v>
+        <v>1.032908446191546</v>
       </c>
       <c r="N9">
-        <v>1.019743136850173</v>
+        <v>1.011499664104592</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040367834769296</v>
+        <v>0.9900427081114539</v>
       </c>
       <c r="D10">
-        <v>1.040477523940739</v>
+        <v>1.026242521805548</v>
       </c>
       <c r="E10">
-        <v>1.048048609193641</v>
+        <v>1.006406100716489</v>
       </c>
       <c r="F10">
-        <v>1.05705260652008</v>
+        <v>1.011911527174991</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040847653728597</v>
+        <v>1.043976679343692</v>
       </c>
       <c r="J10">
-        <v>1.046669764604452</v>
+        <v>1.018657033478888</v>
       </c>
       <c r="K10">
-        <v>1.043907200759933</v>
+        <v>1.040153591398925</v>
       </c>
       <c r="L10">
-        <v>1.05145170471533</v>
+        <v>1.020660646381632</v>
       </c>
       <c r="M10">
-        <v>1.060424635282511</v>
+        <v>1.026068995034627</v>
       </c>
       <c r="N10">
-        <v>1.019344114842671</v>
+        <v>1.009448090240744</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039627478634734</v>
+        <v>0.9860422532218144</v>
       </c>
       <c r="D11">
-        <v>1.040079667795023</v>
+        <v>1.024114345980851</v>
       </c>
       <c r="E11">
-        <v>1.04738754799368</v>
+        <v>1.003049376501275</v>
       </c>
       <c r="F11">
-        <v>1.056325923954072</v>
+        <v>1.008246757985491</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040677214897556</v>
+        <v>1.042834742860994</v>
       </c>
       <c r="J11">
-        <v>1.046162752284647</v>
+        <v>1.016007443829913</v>
       </c>
       <c r="K11">
-        <v>1.043631712941083</v>
+        <v>1.038595392242143</v>
       </c>
       <c r="L11">
-        <v>1.05091294309611</v>
+        <v>1.01791401426155</v>
       </c>
       <c r="M11">
-        <v>1.05981927610321</v>
+        <v>1.023014810445889</v>
       </c>
       <c r="N11">
-        <v>1.019170987654326</v>
+        <v>1.008529724836935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039352499116617</v>
+        <v>0.9845361170958646</v>
       </c>
       <c r="D12">
-        <v>1.03993190479089</v>
+        <v>1.023314962355967</v>
       </c>
       <c r="E12">
-        <v>1.047142087527325</v>
+        <v>1.00178721539286</v>
       </c>
       <c r="F12">
-        <v>1.0560561137046</v>
+        <v>1.006868792130515</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040613701308892</v>
+        <v>1.042403554227978</v>
       </c>
       <c r="J12">
-        <v>1.045974347869798</v>
+        <v>1.015009667864975</v>
       </c>
       <c r="K12">
-        <v>1.043529272232974</v>
+        <v>1.038008713158665</v>
       </c>
       <c r="L12">
-        <v>1.050712797082559</v>
+        <v>1.01688025509017</v>
       </c>
       <c r="M12">
-        <v>1.059594421587615</v>
+        <v>1.02186556955249</v>
       </c>
       <c r="N12">
-        <v>1.019106628259499</v>
+        <v>1.008183833070929</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039411482187505</v>
+        <v>0.9848601234123383</v>
       </c>
       <c r="D13">
-        <v>1.039963599601818</v>
+        <v>1.023486842270575</v>
       </c>
       <c r="E13">
-        <v>1.047194735690394</v>
+        <v>1.002058662272857</v>
       </c>
       <c r="F13">
-        <v>1.05611398385309</v>
+        <v>1.007165143688361</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040627334463909</v>
+        <v>1.042496368921481</v>
       </c>
       <c r="J13">
-        <v>1.046014764765224</v>
+        <v>1.015224322833126</v>
       </c>
       <c r="K13">
-        <v>1.043551251182342</v>
+        <v>1.038134921348557</v>
       </c>
       <c r="L13">
-        <v>1.050755730258884</v>
+        <v>1.017102625817359</v>
       </c>
       <c r="M13">
-        <v>1.059642653518552</v>
+        <v>1.022112769079179</v>
       </c>
       <c r="N13">
-        <v>1.019120435931909</v>
+        <v>1.008258248289469</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039604748303854</v>
+        <v>0.9859181750553112</v>
       </c>
       <c r="D14">
-        <v>1.040067453275238</v>
+        <v>1.024048452561789</v>
       </c>
       <c r="E14">
-        <v>1.047367256378609</v>
+        <v>1.002945364060804</v>
       </c>
       <c r="F14">
-        <v>1.056303619070705</v>
+        <v>1.008133201868704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040671969025782</v>
+        <v>1.042799245895489</v>
       </c>
       <c r="J14">
-        <v>1.046147180298438</v>
+        <v>1.015925249524432</v>
       </c>
       <c r="K14">
-        <v>1.04362324744659</v>
+        <v>1.038547060465119</v>
       </c>
       <c r="L14">
-        <v>1.050896399494582</v>
+        <v>1.017828844321489</v>
       </c>
       <c r="M14">
-        <v>1.059800689501808</v>
+        <v>1.022920120583903</v>
       </c>
       <c r="N14">
-        <v>1.019165668752307</v>
+        <v>1.008501232200481</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039723828789082</v>
+        <v>0.986567360853703</v>
       </c>
       <c r="D15">
-        <v>1.040131443434982</v>
+        <v>1.024393288312513</v>
       </c>
       <c r="E15">
-        <v>1.047473563607635</v>
+        <v>1.003489630927185</v>
       </c>
       <c r="F15">
-        <v>1.056420474424333</v>
+        <v>1.008727408905366</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040699442690912</v>
+        <v>1.042984917719708</v>
       </c>
       <c r="J15">
-        <v>1.046228755607481</v>
+        <v>1.016355287070059</v>
       </c>
       <c r="K15">
-        <v>1.04366759186447</v>
+        <v>1.038799935263059</v>
       </c>
       <c r="L15">
-        <v>1.050983067009214</v>
+        <v>1.018274473153082</v>
       </c>
       <c r="M15">
-        <v>1.059898061058347</v>
+        <v>1.023415570968762</v>
       </c>
       <c r="N15">
-        <v>1.019193531263524</v>
+        <v>1.008650302404345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040416972858793</v>
+        <v>0.9903054454256852</v>
       </c>
       <c r="D16">
-        <v>1.040503930870941</v>
+        <v>1.026382540621287</v>
       </c>
       <c r="E16">
-        <v>1.048092493866312</v>
+        <v>1.006626778540496</v>
       </c>
       <c r="F16">
-        <v>1.057100849766347</v>
+        <v>1.01215246023876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040858936431874</v>
+        <v>1.044051499422329</v>
       </c>
       <c r="J16">
-        <v>1.046703402490822</v>
+        <v>1.018831014848903</v>
       </c>
       <c r="K16">
-        <v>1.043925468199379</v>
+        <v>1.040255917897739</v>
       </c>
       <c r="L16">
-        <v>1.051487456916904</v>
+        <v>1.020841077192346</v>
       </c>
       <c r="M16">
-        <v>1.060464811383786</v>
+        <v>1.026269667214259</v>
       </c>
       <c r="N16">
-        <v>1.019355597394757</v>
+        <v>1.009508384949772</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040851803419479</v>
+        <v>0.9926156578623722</v>
       </c>
       <c r="D17">
-        <v>1.040737614082757</v>
+        <v>1.027614993763973</v>
       </c>
       <c r="E17">
-        <v>1.048480887750236</v>
+        <v>1.008568331723775</v>
       </c>
       <c r="F17">
-        <v>1.057527831039058</v>
+        <v>1.014272245424853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040958617104824</v>
+        <v>1.04470837947821</v>
       </c>
       <c r="J17">
-        <v>1.047000998129444</v>
+        <v>1.020360593182536</v>
       </c>
       <c r="K17">
-        <v>1.044087026443442</v>
+        <v>1.041155557888514</v>
       </c>
       <c r="L17">
-        <v>1.051803801272015</v>
+        <v>1.022427776630836</v>
       </c>
       <c r="M17">
-        <v>1.060820324110084</v>
+        <v>1.028034574082538</v>
       </c>
       <c r="N17">
-        <v>1.01945716404798</v>
+        <v>1.010038423434273</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041105447269433</v>
+        <v>0.9939510992220266</v>
       </c>
       <c r="D18">
-        <v>1.040873928590052</v>
+        <v>1.028328468565662</v>
       </c>
       <c r="E18">
-        <v>1.048707487316621</v>
+        <v>1.00969162111787</v>
       </c>
       <c r="F18">
-        <v>1.057776954051932</v>
+        <v>1.015498672619485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041016627363683</v>
+        <v>1.045087247244465</v>
       </c>
       <c r="J18">
-        <v>1.047174531034721</v>
+        <v>1.021244590679089</v>
       </c>
       <c r="K18">
-        <v>1.044181188068284</v>
+        <v>1.041675497831628</v>
       </c>
       <c r="L18">
-        <v>1.051988303011167</v>
+        <v>1.023345135545221</v>
       </c>
       <c r="M18">
-        <v>1.061027690599162</v>
+        <v>1.029055136045641</v>
       </c>
       <c r="N18">
-        <v>1.019516372576428</v>
+        <v>1.010344708032427</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041191935759451</v>
+        <v>0.9944044400432837</v>
       </c>
       <c r="D19">
-        <v>1.040920410151969</v>
+        <v>1.02857084278318</v>
       </c>
       <c r="E19">
-        <v>1.048784761411075</v>
+        <v>1.010073102390532</v>
       </c>
       <c r="F19">
-        <v>1.057861910789503</v>
+        <v>1.015915184504978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041036385003384</v>
+        <v>1.045215714914737</v>
       </c>
       <c r="J19">
-        <v>1.047233692865202</v>
+        <v>1.021544646116833</v>
       </c>
       <c r="K19">
-        <v>1.044213282420565</v>
+        <v>1.041851979734943</v>
       </c>
       <c r="L19">
-        <v>1.05205121052986</v>
+        <v>1.023656573913126</v>
       </c>
       <c r="M19">
-        <v>1.061098397545251</v>
+        <v>1.029401640354867</v>
       </c>
       <c r="N19">
-        <v>1.019536555457278</v>
+        <v>1.010448662566005</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040805148717402</v>
+        <v>0.9923690507823798</v>
       </c>
       <c r="D20">
-        <v>1.040712540934953</v>
+        <v>1.027483324207015</v>
       </c>
       <c r="E20">
-        <v>1.048439210971815</v>
+        <v>1.008360977963378</v>
       </c>
       <c r="F20">
-        <v>1.057482012537003</v>
+        <v>1.014045854718701</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040947935942452</v>
+        <v>1.044638347340622</v>
       </c>
       <c r="J20">
-        <v>1.046969074065214</v>
+        <v>1.020197335373578</v>
       </c>
       <c r="K20">
-        <v>1.044069700273833</v>
+        <v>1.041059534610115</v>
       </c>
       <c r="L20">
-        <v>1.051769862231505</v>
+        <v>1.022258385788379</v>
       </c>
       <c r="M20">
-        <v>1.060782180760386</v>
+        <v>1.027846140598985</v>
       </c>
       <c r="N20">
-        <v>1.019446270380538</v>
+        <v>1.009981854802592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039547835656915</v>
+        <v>0.9856071731910415</v>
       </c>
       <c r="D21">
-        <v>1.040036870437345</v>
+        <v>1.023883321254587</v>
       </c>
       <c r="E21">
-        <v>1.047316450932152</v>
+        <v>1.002684683267566</v>
       </c>
       <c r="F21">
-        <v>1.056247773135008</v>
+        <v>1.007848602611962</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040658830917872</v>
+        <v>1.042710252762349</v>
       </c>
       <c r="J21">
-        <v>1.046108189364405</v>
+        <v>1.015719226088075</v>
       </c>
       <c r="K21">
-        <v>1.043602049435049</v>
+        <v>1.038425916827717</v>
       </c>
       <c r="L21">
-        <v>1.050854976628511</v>
+        <v>1.017615371384103</v>
       </c>
       <c r="M21">
-        <v>1.059754151766583</v>
+        <v>1.022682790975252</v>
       </c>
       <c r="N21">
-        <v>1.019152350256108</v>
+        <v>1.00842981336459</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038757438254369</v>
+        <v>0.9812381998265068</v>
       </c>
       <c r="D22">
-        <v>1.039612157087938</v>
+        <v>1.021568212976021</v>
       </c>
       <c r="E22">
-        <v>1.046611031015438</v>
+        <v>0.9990265981459584</v>
       </c>
       <c r="F22">
-        <v>1.055472405811495</v>
+        <v>1.003854916713539</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040475873031591</v>
+        <v>1.04145717272942</v>
       </c>
       <c r="J22">
-        <v>1.045566468692769</v>
+        <v>1.012824539711948</v>
       </c>
       <c r="K22">
-        <v>1.043307369578843</v>
+        <v>1.036724175260808</v>
       </c>
       <c r="L22">
-        <v>1.050279601473276</v>
+        <v>1.014617363011739</v>
       </c>
       <c r="M22">
-        <v>1.059107805476416</v>
+        <v>1.019350391816922</v>
       </c>
       <c r="N22">
-        <v>1.018967248732804</v>
+        <v>1.0074262408134</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039176431282201</v>
+        <v>0.983565863539386</v>
       </c>
       <c r="D23">
-        <v>1.039837295091779</v>
+        <v>1.022800545592391</v>
       </c>
       <c r="E23">
-        <v>1.046984939721442</v>
+        <v>1.000974597883421</v>
       </c>
       <c r="F23">
-        <v>1.055883381338205</v>
+        <v>1.00598162131632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040572974836403</v>
+        <v>1.042125437544603</v>
       </c>
       <c r="J23">
-        <v>1.045853687635172</v>
+        <v>1.014366844360688</v>
       </c>
       <c r="K23">
-        <v>1.043463646264891</v>
+        <v>1.037630781661001</v>
       </c>
       <c r="L23">
-        <v>1.050584633020105</v>
+        <v>1.016214408015279</v>
       </c>
       <c r="M23">
-        <v>1.059450444376009</v>
+        <v>1.021125417390273</v>
       </c>
       <c r="N23">
-        <v>1.019065403192046</v>
+        <v>1.007960975829422</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040826229923815</v>
+        <v>0.9924805191030248</v>
       </c>
       <c r="D24">
-        <v>1.040723870377172</v>
+        <v>1.027542836650462</v>
       </c>
       <c r="E24">
-        <v>1.0484580427409</v>
+        <v>1.008454700521601</v>
       </c>
       <c r="F24">
-        <v>1.05750271572302</v>
+        <v>1.014148181786392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040952762707149</v>
+        <v>1.044670005049532</v>
       </c>
       <c r="J24">
-        <v>1.046983499328769</v>
+        <v>1.020271129770619</v>
       </c>
       <c r="K24">
-        <v>1.044077529448337</v>
+        <v>1.041102938217655</v>
       </c>
       <c r="L24">
-        <v>1.051785197874079</v>
+        <v>1.022334951304105</v>
       </c>
       <c r="M24">
-        <v>1.06079941609213</v>
+        <v>1.027931312952834</v>
       </c>
       <c r="N24">
-        <v>1.019451192863669</v>
+        <v>1.010007424606732</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042741302729563</v>
+        <v>1.002355749959755</v>
       </c>
       <c r="D25">
-        <v>1.041753120574562</v>
+        <v>1.032835675611061</v>
       </c>
       <c r="E25">
-        <v>1.050169693134977</v>
+        <v>1.016777263423187</v>
       </c>
       <c r="F25">
-        <v>1.059384690464629</v>
+        <v>1.023235367478194</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041388314807907</v>
+        <v>1.047455903195784</v>
       </c>
       <c r="J25">
-        <v>1.048292638057202</v>
+        <v>1.026804092979841</v>
       </c>
       <c r="K25">
-        <v>1.044787057675975</v>
+        <v>1.044944780594069</v>
       </c>
       <c r="L25">
-        <v>1.053177736935638</v>
+        <v>1.029120599340847</v>
       </c>
       <c r="M25">
-        <v>1.062364898875672</v>
+        <v>1.035483382650114</v>
       </c>
       <c r="N25">
-        <v>1.019897562773423</v>
+        <v>1.012270070178918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009894460941901</v>
+        <v>0.9776105622230542</v>
       </c>
       <c r="D2">
-        <v>1.036901995501343</v>
+        <v>1.046198153774927</v>
       </c>
       <c r="E2">
-        <v>1.023156943751968</v>
+        <v>0.987165762897245</v>
       </c>
       <c r="F2">
-        <v>1.030202165894042</v>
+        <v>1.040162993520371</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049553891047348</v>
+        <v>1.061128886956958</v>
       </c>
       <c r="J2">
-        <v>1.03178320485114</v>
+        <v>1.000482201087158</v>
       </c>
       <c r="K2">
-        <v>1.047870094962918</v>
+        <v>1.057049315523727</v>
       </c>
       <c r="L2">
-        <v>1.034302823646176</v>
+        <v>0.9988068429239954</v>
       </c>
       <c r="M2">
-        <v>1.041256180397412</v>
+        <v>1.051089775442285</v>
       </c>
       <c r="N2">
-        <v>1.01399280322751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.004208372981936</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049006471433644</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051408948689054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015190452564036</v>
+        <v>0.9816772871060154</v>
       </c>
       <c r="D3">
-        <v>1.039770886898362</v>
+        <v>1.048242163042693</v>
       </c>
       <c r="E3">
-        <v>1.027652626647315</v>
+        <v>0.9903548044346931</v>
       </c>
       <c r="F3">
-        <v>1.035112304864711</v>
+        <v>1.042630473423974</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051009961530276</v>
+        <v>1.061735489713161</v>
       </c>
       <c r="J3">
-        <v>1.035275405462131</v>
+        <v>1.002680223962699</v>
       </c>
       <c r="K3">
-        <v>1.049918976387445</v>
+        <v>1.058292856674106</v>
       </c>
       <c r="L3">
-        <v>1.037943502447652</v>
+        <v>1.001112603280053</v>
       </c>
       <c r="M3">
-        <v>1.045314795603088</v>
+        <v>1.052745467148285</v>
       </c>
       <c r="N3">
-        <v>1.015199885221004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.004952207778158</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050316824027319</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.052285589157374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018540461980845</v>
+        <v>0.9842595133291436</v>
       </c>
       <c r="D4">
-        <v>1.041590494713001</v>
+        <v>1.049537696186207</v>
       </c>
       <c r="E4">
-        <v>1.030502454547502</v>
+        <v>0.9923863112711959</v>
       </c>
       <c r="F4">
-        <v>1.038225237273696</v>
+        <v>1.044197033870026</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051922419759725</v>
+        <v>1.062105048735729</v>
       </c>
       <c r="J4">
-        <v>1.03748150416588</v>
+        <v>1.004074616448131</v>
       </c>
       <c r="K4">
-        <v>1.051211592056783</v>
+        <v>1.059072862849828</v>
       </c>
       <c r="L4">
-        <v>1.040246168858443</v>
+        <v>1.002577503769304</v>
       </c>
       <c r="M4">
-        <v>1.047883209146383</v>
+        <v>1.053789770674763</v>
       </c>
       <c r="N4">
-        <v>1.015961815769308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.005423872406795</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051143308735157</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.052837981116919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019931156956001</v>
+        <v>0.9853330515053839</v>
       </c>
       <c r="D5">
-        <v>1.042346927245071</v>
+        <v>1.050077469329564</v>
       </c>
       <c r="E5">
-        <v>1.031686908967103</v>
+        <v>0.9932324587563219</v>
       </c>
       <c r="F5">
-        <v>1.039519141657559</v>
+        <v>1.044847380219591</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052299097360266</v>
+        <v>1.062255580287494</v>
       </c>
       <c r="J5">
-        <v>1.038396584650315</v>
+        <v>1.004653710448837</v>
       </c>
       <c r="K5">
-        <v>1.051747298083767</v>
+        <v>1.059396448828423</v>
       </c>
       <c r="L5">
-        <v>1.041201968608729</v>
+        <v>1.003186584115952</v>
       </c>
       <c r="M5">
-        <v>1.048949655250158</v>
+        <v>1.054221263765107</v>
       </c>
       <c r="N5">
-        <v>1.016277706685064</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.00561991811589</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051484801561231</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.053073821829066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020163646802897</v>
+        <v>0.9855118562741977</v>
       </c>
       <c r="D6">
-        <v>1.042473442917696</v>
+        <v>1.050169539373802</v>
       </c>
       <c r="E6">
-        <v>1.031885001339554</v>
+        <v>0.9933735168486885</v>
       </c>
       <c r="F6">
-        <v>1.039735544759887</v>
+        <v>1.044954702650891</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052361942851996</v>
+        <v>1.062281273765156</v>
       </c>
       <c r="J6">
-        <v>1.038549518746799</v>
+        <v>1.004749797951019</v>
       </c>
       <c r="K6">
-        <v>1.051836799729492</v>
+        <v>1.059452233252546</v>
       </c>
       <c r="L6">
-        <v>1.041361746940705</v>
+        <v>1.00328790920017</v>
       </c>
       <c r="M6">
-        <v>1.049127949975817</v>
+        <v>1.054291894683473</v>
       </c>
       <c r="N6">
-        <v>1.016330491053575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.005652709377535</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051540700360236</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.053121858087041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018559112903354</v>
+        <v>0.9842716714134714</v>
       </c>
       <c r="D7">
-        <v>1.04160063537434</v>
+        <v>1.049549485588861</v>
       </c>
       <c r="E7">
-        <v>1.030518334064414</v>
+        <v>0.9923959881799379</v>
       </c>
       <c r="F7">
-        <v>1.038242583749177</v>
+        <v>1.044201488064689</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051927479884746</v>
+        <v>1.062108889148723</v>
       </c>
       <c r="J7">
-        <v>1.03749377949829</v>
+        <v>1.004080208293294</v>
       </c>
       <c r="K7">
-        <v>1.051218780189664</v>
+        <v>1.059081712646181</v>
       </c>
       <c r="L7">
-        <v>1.040258987797788</v>
+        <v>1.002584029001834</v>
       </c>
       <c r="M7">
-        <v>1.047897510705081</v>
+        <v>1.053791344102376</v>
       </c>
       <c r="N7">
-        <v>1.015966053905518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.005426488626121</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051144553979579</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.05286400224419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011700643888976</v>
+        <v>0.9789920801111869</v>
       </c>
       <c r="D8">
-        <v>1.03787932809333</v>
+        <v>1.046898859115152</v>
       </c>
       <c r="E8">
-        <v>1.024688878190435</v>
+        <v>0.988247821252668</v>
       </c>
       <c r="F8">
-        <v>1.031875253567038</v>
+        <v>1.040996384809083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050052250557169</v>
+        <v>1.061340147944379</v>
       </c>
       <c r="J8">
-        <v>1.032974795309059</v>
+        <v>1.001227738228726</v>
       </c>
       <c r="K8">
-        <v>1.048569527561079</v>
+        <v>1.05747892893398</v>
       </c>
       <c r="L8">
-        <v>1.035544493656013</v>
+        <v>0.9995893721763335</v>
       </c>
       <c r="M8">
-        <v>1.042640093909479</v>
+        <v>1.051648256249769</v>
       </c>
       <c r="N8">
-        <v>1.014404800257268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.004461660407461</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049448466279951</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.051735223606979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.998990508456721</v>
+        <v>0.9692976889078752</v>
       </c>
       <c r="D9">
-        <v>1.031027541445251</v>
+        <v>1.042010947387185</v>
       </c>
       <c r="E9">
-        <v>1.013936789896647</v>
+        <v>0.9806850740709772</v>
       </c>
       <c r="F9">
-        <v>1.020133793250259</v>
+        <v>1.035121175041465</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046510924602694</v>
+        <v>1.059805913633465</v>
       </c>
       <c r="J9">
-        <v>1.024578964903559</v>
+        <v>0.9959832378716194</v>
       </c>
       <c r="K9">
-        <v>1.043636505714424</v>
+        <v>1.05445731036065</v>
       </c>
       <c r="L9">
-        <v>1.026807727972923</v>
+        <v>0.9940994936637564</v>
       </c>
       <c r="M9">
-        <v>1.032908446191546</v>
+        <v>1.0476690232726</v>
       </c>
       <c r="N9">
-        <v>1.011499664104592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.002684957741861</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046299201961509</v>
+      </c>
+      <c r="Q9">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R9">
+        <v>1.049595693863427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9900427081114539</v>
+        <v>0.9625370696875432</v>
       </c>
       <c r="D10">
-        <v>1.026242521805548</v>
+        <v>1.038616274794787</v>
       </c>
       <c r="E10">
-        <v>1.006406100716489</v>
+        <v>0.9754522110861134</v>
       </c>
       <c r="F10">
-        <v>1.011911527174991</v>
+        <v>1.031080360568531</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043976679343692</v>
+        <v>1.058669629652288</v>
       </c>
       <c r="J10">
-        <v>1.018657033478888</v>
+        <v>0.9923201436822485</v>
       </c>
       <c r="K10">
-        <v>1.040153591398925</v>
+        <v>1.052321630408552</v>
       </c>
       <c r="L10">
-        <v>1.020660646381632</v>
+        <v>0.9902792940877275</v>
       </c>
       <c r="M10">
-        <v>1.026068995034627</v>
+        <v>1.044910243654088</v>
       </c>
       <c r="N10">
-        <v>1.009448090240744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001447336145362</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044166912761315</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.048102214206724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9860422532218144</v>
+        <v>0.9594512768614699</v>
       </c>
       <c r="D11">
-        <v>1.024114345980851</v>
+        <v>1.037155619107147</v>
       </c>
       <c r="E11">
-        <v>1.003049376501275</v>
+        <v>0.9730816321148075</v>
       </c>
       <c r="F11">
-        <v>1.008246757985491</v>
+        <v>1.02957018702914</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042834742860994</v>
+        <v>1.058190141220284</v>
       </c>
       <c r="J11">
-        <v>1.016007443829913</v>
+        <v>0.9906139416908414</v>
       </c>
       <c r="K11">
-        <v>1.038595392242143</v>
+        <v>1.051409278231282</v>
       </c>
       <c r="L11">
-        <v>1.01791401426155</v>
+        <v>0.9885296926747541</v>
       </c>
       <c r="M11">
-        <v>1.023014810445889</v>
+        <v>1.043955197655851</v>
       </c>
       <c r="N11">
-        <v>1.008529724836935</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.000905426857329</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043844630294047</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.047489457839961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9845361170958646</v>
+        <v>0.9581991161570956</v>
       </c>
       <c r="D12">
-        <v>1.023314962355967</v>
+        <v>1.036543884537205</v>
       </c>
       <c r="E12">
-        <v>1.00178721539286</v>
+        <v>0.9721193738927559</v>
       </c>
       <c r="F12">
-        <v>1.006868792130515</v>
+        <v>1.029009662841812</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042403554227978</v>
+        <v>1.057980237584371</v>
       </c>
       <c r="J12">
-        <v>1.015009667864975</v>
+        <v>0.9898843231917706</v>
       </c>
       <c r="K12">
-        <v>1.038008713158665</v>
+        <v>1.051002924367081</v>
       </c>
       <c r="L12">
-        <v>1.01688025509017</v>
+        <v>0.9878009517620944</v>
       </c>
       <c r="M12">
-        <v>1.02186556955249</v>
+        <v>1.043601416709482</v>
       </c>
       <c r="N12">
-        <v>1.008183833070929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000687449438888</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043889461862342</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.047202161269715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9848601234123383</v>
+        <v>0.9582812165277154</v>
       </c>
       <c r="D13">
-        <v>1.023486842270575</v>
+        <v>1.036560760108427</v>
       </c>
       <c r="E13">
-        <v>1.002058662272857</v>
+        <v>0.9721790220710788</v>
       </c>
       <c r="F13">
-        <v>1.007165143688361</v>
+        <v>1.029158572655251</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042496368921481</v>
+        <v>1.057977447375836</v>
       </c>
       <c r="J13">
-        <v>1.015224322833126</v>
+        <v>0.9898629702593043</v>
       </c>
       <c r="K13">
-        <v>1.038134921348557</v>
+        <v>1.050977706518293</v>
       </c>
       <c r="L13">
-        <v>1.017102625817359</v>
+        <v>0.9878134680025132</v>
       </c>
       <c r="M13">
-        <v>1.022112769079179</v>
+        <v>1.043705446138133</v>
       </c>
       <c r="N13">
-        <v>1.008258248289469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.000706874321602</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044247145159856</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.047181879348309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9859181750553112</v>
+        <v>0.9589400918563001</v>
       </c>
       <c r="D14">
-        <v>1.024048452561789</v>
+        <v>1.036853557979501</v>
       </c>
       <c r="E14">
-        <v>1.002945364060804</v>
+        <v>0.9726809334485749</v>
       </c>
       <c r="F14">
-        <v>1.008133201868704</v>
+        <v>1.029577341735072</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042799245895489</v>
+        <v>1.058066674619669</v>
       </c>
       <c r="J14">
-        <v>1.015925249524432</v>
+        <v>0.9901649757475069</v>
       </c>
       <c r="K14">
-        <v>1.038547060465119</v>
+        <v>1.051128503203172</v>
       </c>
       <c r="L14">
-        <v>1.017828844321489</v>
+        <v>0.9881547890672442</v>
       </c>
       <c r="M14">
-        <v>1.022920120583903</v>
+        <v>1.043978494168161</v>
       </c>
       <c r="N14">
-        <v>1.008501232200481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.000826827940497</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044635645242252</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.047289896060447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.986567360853703</v>
+        <v>0.9593931607484391</v>
       </c>
       <c r="D15">
-        <v>1.024393288312513</v>
+        <v>1.037071658193275</v>
       </c>
       <c r="E15">
-        <v>1.003489630927185</v>
+        <v>0.9730281466115579</v>
       </c>
       <c r="F15">
-        <v>1.008727408905366</v>
+        <v>1.029848870010857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042984917719708</v>
+        <v>1.058139028993734</v>
       </c>
       <c r="J15">
-        <v>1.016355287070059</v>
+        <v>0.9903965462409451</v>
       </c>
       <c r="K15">
-        <v>1.038799935263059</v>
+        <v>1.051258518632479</v>
       </c>
       <c r="L15">
-        <v>1.018274473153082</v>
+        <v>0.9884024189561851</v>
       </c>
       <c r="M15">
-        <v>1.023415570968762</v>
+        <v>1.04416008291962</v>
       </c>
       <c r="N15">
-        <v>1.008650302404345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.000909193393248</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044816580320063</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.047387596461194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9903054454256852</v>
+        <v>0.962254762382065</v>
       </c>
       <c r="D16">
-        <v>1.026382540621287</v>
+        <v>1.038542682962284</v>
       </c>
       <c r="E16">
-        <v>1.006626778540496</v>
+        <v>0.975235644651931</v>
       </c>
       <c r="F16">
-        <v>1.01215246023876</v>
+        <v>1.031592342039622</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044051499422329</v>
+        <v>1.05865825005083</v>
       </c>
       <c r="J16">
-        <v>1.018831014848903</v>
+        <v>0.9919684506038795</v>
       </c>
       <c r="K16">
-        <v>1.040255917897739</v>
+        <v>1.052214503507646</v>
       </c>
       <c r="L16">
-        <v>1.020841077192346</v>
+        <v>0.9900288597087772</v>
       </c>
       <c r="M16">
-        <v>1.026269667214259</v>
+        <v>1.045378616664999</v>
       </c>
       <c r="N16">
-        <v>1.009508384949772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.001435092380106</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045741131986208</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.048066608968873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9926156578623722</v>
+        <v>0.9641063453185887</v>
       </c>
       <c r="D17">
-        <v>1.027614993763973</v>
+        <v>1.039517047159909</v>
       </c>
       <c r="E17">
-        <v>1.008568331723775</v>
+        <v>0.9766696920919861</v>
       </c>
       <c r="F17">
-        <v>1.014272245424853</v>
+        <v>1.032705584633669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04470837947821</v>
+        <v>1.059005513852226</v>
       </c>
       <c r="J17">
-        <v>1.020360593182536</v>
+        <v>0.9930173418397872</v>
       </c>
       <c r="K17">
-        <v>1.041155557888514</v>
+        <v>1.052865946477537</v>
       </c>
       <c r="L17">
-        <v>1.022427776630836</v>
+        <v>0.9910995372951185</v>
       </c>
       <c r="M17">
-        <v>1.028034574082538</v>
+        <v>1.046163478459895</v>
       </c>
       <c r="N17">
-        <v>1.010038423434273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.001775990691362</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046232990456279</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.048529734828653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9939510992220266</v>
+        <v>0.9652645135610958</v>
       </c>
       <c r="D18">
-        <v>1.028328468565662</v>
+        <v>1.040129690455114</v>
       </c>
       <c r="E18">
-        <v>1.00969162111787</v>
+        <v>0.9775692509490866</v>
       </c>
       <c r="F18">
-        <v>1.015498672619485</v>
+        <v>1.033337421525231</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045087247244465</v>
+        <v>1.059225308266843</v>
       </c>
       <c r="J18">
-        <v>1.021244590679089</v>
+        <v>0.9937072060375756</v>
       </c>
       <c r="K18">
-        <v>1.041675497831628</v>
+        <v>1.053289909091256</v>
       </c>
       <c r="L18">
-        <v>1.023345135545221</v>
+        <v>0.9917867369234101</v>
       </c>
       <c r="M18">
-        <v>1.029055136045641</v>
+        <v>1.046604492635304</v>
       </c>
       <c r="N18">
-        <v>1.010344708032427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.001986437175886</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04634507790278</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.048818032894583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9944044400432837</v>
+        <v>0.9657300810457022</v>
       </c>
       <c r="D19">
-        <v>1.02857084278318</v>
+        <v>1.040347756338976</v>
       </c>
       <c r="E19">
-        <v>1.010073102390532</v>
+        <v>0.9779292521884305</v>
       </c>
       <c r="F19">
-        <v>1.015915184504978</v>
+        <v>1.033428916438773</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045215714914737</v>
+        <v>1.059294621251439</v>
       </c>
       <c r="J19">
-        <v>1.021544646116833</v>
+        <v>0.9940107247502157</v>
       </c>
       <c r="K19">
-        <v>1.041851979734943</v>
+        <v>1.053443564230085</v>
       </c>
       <c r="L19">
-        <v>1.023656573913126</v>
+        <v>0.9920734941988377</v>
       </c>
       <c r="M19">
-        <v>1.029401640354867</v>
+        <v>1.046632948449009</v>
       </c>
       <c r="N19">
-        <v>1.010448662566005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.002061896744761</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046043959645202</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.048932956744993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9923690507823798</v>
+        <v>0.9642794989260247</v>
       </c>
       <c r="D20">
-        <v>1.027483324207015</v>
+        <v>1.0394978465185</v>
       </c>
       <c r="E20">
-        <v>1.008360977963378</v>
+        <v>0.9767979482425942</v>
       </c>
       <c r="F20">
-        <v>1.014045854718701</v>
+        <v>1.032107155915384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044638347340622</v>
+        <v>1.058968912141336</v>
       </c>
       <c r="J20">
-        <v>1.020197335373578</v>
+        <v>0.9932603886692241</v>
       </c>
       <c r="K20">
-        <v>1.041059534610115</v>
+        <v>1.052879996172931</v>
       </c>
       <c r="L20">
-        <v>1.022258385788379</v>
+        <v>0.9912614272910313</v>
       </c>
       <c r="M20">
-        <v>1.027846140598985</v>
+        <v>1.045607994642743</v>
       </c>
       <c r="N20">
-        <v>1.009981854802592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001767387402193</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044708628086316</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.048538353207285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9856071731910415</v>
+        <v>0.9592040156193288</v>
       </c>
       <c r="D21">
-        <v>1.023883321254587</v>
+        <v>1.036923301334257</v>
       </c>
       <c r="E21">
-        <v>1.002684683267566</v>
+        <v>0.9728820046456448</v>
       </c>
       <c r="F21">
-        <v>1.007848602611962</v>
+        <v>1.029004404788724</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042710252762349</v>
+        <v>1.058073632624454</v>
       </c>
       <c r="J21">
-        <v>1.015719226088075</v>
+        <v>0.9905122833599634</v>
       </c>
       <c r="K21">
-        <v>1.038425916827717</v>
+        <v>1.051237362461784</v>
       </c>
       <c r="L21">
-        <v>1.017615371384103</v>
+        <v>0.9883960161224722</v>
       </c>
       <c r="M21">
-        <v>1.022682790975252</v>
+        <v>1.043456354677843</v>
       </c>
       <c r="N21">
-        <v>1.00842981336459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000832309024281</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042965176182657</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.047380154440482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9812381998265068</v>
+        <v>0.9559457888457897</v>
       </c>
       <c r="D22">
-        <v>1.021568212976021</v>
+        <v>1.035279400205219</v>
       </c>
       <c r="E22">
-        <v>0.9990265981459584</v>
+        <v>0.9703781296126371</v>
       </c>
       <c r="F22">
-        <v>1.003854916713539</v>
+        <v>1.027050001836187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04145717272942</v>
+        <v>1.057490465049969</v>
       </c>
       <c r="J22">
-        <v>1.012824539711948</v>
+        <v>0.98874918109829</v>
       </c>
       <c r="K22">
-        <v>1.036724175260808</v>
+        <v>1.050182931071064</v>
       </c>
       <c r="L22">
-        <v>1.014617363011739</v>
+        <v>0.9865601619557599</v>
       </c>
       <c r="M22">
-        <v>1.019350391816922</v>
+        <v>1.042103986917488</v>
       </c>
       <c r="N22">
-        <v>1.0074262408134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.000233305827938</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041894870629528</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.046621364800942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.983565863539386</v>
+        <v>0.9576837365851172</v>
       </c>
       <c r="D23">
-        <v>1.022800545592391</v>
+        <v>1.036154704923022</v>
       </c>
       <c r="E23">
-        <v>1.000974597883421</v>
+        <v>0.9717128055553425</v>
       </c>
       <c r="F23">
-        <v>1.00598162131632</v>
+        <v>1.028098787214756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042125437544603</v>
+        <v>1.057803115766166</v>
       </c>
       <c r="J23">
-        <v>1.014366844360688</v>
+        <v>0.9896912103272012</v>
       </c>
       <c r="K23">
-        <v>1.037630781661001</v>
+        <v>1.050745375666328</v>
       </c>
       <c r="L23">
-        <v>1.016214408015279</v>
+        <v>0.9875399016074925</v>
       </c>
       <c r="M23">
-        <v>1.021125417390273</v>
+        <v>1.042833008204459</v>
       </c>
       <c r="N23">
-        <v>1.007960975829422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000552539737383</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042471840755412</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.047009549823068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9924805191030248</v>
+        <v>0.964371449803315</v>
       </c>
       <c r="D24">
-        <v>1.027542836650462</v>
+        <v>1.039528559996036</v>
       </c>
       <c r="E24">
-        <v>1.008454700521601</v>
+        <v>0.9768679456868602</v>
       </c>
       <c r="F24">
-        <v>1.014148181786392</v>
+        <v>1.032132772066405</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044670005049532</v>
+        <v>1.05897618843413</v>
       </c>
       <c r="J24">
-        <v>1.020271129770619</v>
+        <v>0.9933134970140125</v>
       </c>
       <c r="K24">
-        <v>1.041102938217655</v>
+        <v>1.052895334909135</v>
       </c>
       <c r="L24">
-        <v>1.022334951304105</v>
+        <v>0.9913138401582919</v>
       </c>
       <c r="M24">
-        <v>1.027931312952834</v>
+        <v>1.045618158076814</v>
       </c>
       <c r="N24">
-        <v>1.010007424606732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001781123037736</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044676090794729</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.048522250822077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002355749959755</v>
+        <v>0.9718483713403646</v>
       </c>
       <c r="D25">
-        <v>1.032835675611061</v>
+        <v>1.043303311217882</v>
       </c>
       <c r="E25">
-        <v>1.016777263423187</v>
+        <v>0.9826683562562887</v>
       </c>
       <c r="F25">
-        <v>1.023235367478194</v>
+        <v>1.036657628359749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047455903195784</v>
+        <v>1.060224452933292</v>
       </c>
       <c r="J25">
-        <v>1.026804092979841</v>
+        <v>0.9973617661502239</v>
       </c>
       <c r="K25">
-        <v>1.044944780594069</v>
+        <v>1.055264633967309</v>
       </c>
       <c r="L25">
-        <v>1.029120599340847</v>
+        <v>0.9955418172221989</v>
       </c>
       <c r="M25">
-        <v>1.035483382650114</v>
+        <v>1.048712337612429</v>
       </c>
       <c r="N25">
-        <v>1.012270070178918</v>
+        <v>1.003153411693645</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.047124908272967</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.050194600712049</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9776105622230542</v>
+        <v>0.9785798776830948</v>
       </c>
       <c r="D2">
-        <v>1.046198153774927</v>
+        <v>1.042831003068309</v>
       </c>
       <c r="E2">
-        <v>0.987165762897245</v>
+        <v>0.9879874354629263</v>
       </c>
       <c r="F2">
-        <v>1.040162993520371</v>
+        <v>1.038604241107385</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.061128886956958</v>
+        <v>1.059431304450364</v>
       </c>
       <c r="J2">
-        <v>1.000482201087158</v>
+        <v>1.001420697061552</v>
       </c>
       <c r="K2">
-        <v>1.057049315523727</v>
+        <v>1.053724220410745</v>
       </c>
       <c r="L2">
-        <v>0.9988068429239954</v>
+        <v>0.9996167006700583</v>
       </c>
       <c r="M2">
-        <v>1.051089775442285</v>
+        <v>1.049550732346694</v>
       </c>
       <c r="N2">
-        <v>1.004208372981936</v>
+        <v>1.007640972128857</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049006471433644</v>
+        <v>1.047788435168808</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051408948689054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049066525212851</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026169365175535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9816772871060154</v>
+        <v>0.9825525684703581</v>
       </c>
       <c r="D3">
-        <v>1.048242163042693</v>
+        <v>1.044679618333488</v>
       </c>
       <c r="E3">
-        <v>0.9903548044346931</v>
+        <v>0.991097876675172</v>
       </c>
       <c r="F3">
-        <v>1.042630473423974</v>
+        <v>1.040915791439392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.061735489713161</v>
+        <v>1.059933178814474</v>
       </c>
       <c r="J3">
-        <v>1.002680223962699</v>
+        <v>1.003530438889626</v>
       </c>
       <c r="K3">
-        <v>1.058292856674106</v>
+        <v>1.054771033617232</v>
       </c>
       <c r="L3">
-        <v>1.001112603280053</v>
+        <v>1.001845943457429</v>
       </c>
       <c r="M3">
-        <v>1.052745467148285</v>
+        <v>1.051050603266542</v>
       </c>
       <c r="N3">
-        <v>1.004952207778158</v>
+        <v>1.00821264573229</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050316824027319</v>
+        <v>1.048975469642588</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052285589157374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04980379381262</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026373244600697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9842595133291436</v>
+        <v>0.9850763752421038</v>
       </c>
       <c r="D4">
-        <v>1.049537696186207</v>
+        <v>1.04585297111494</v>
       </c>
       <c r="E4">
-        <v>0.9923863112711959</v>
+        <v>0.9930804312296612</v>
       </c>
       <c r="F4">
-        <v>1.044197033870026</v>
+        <v>1.042385303949694</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.062105048735729</v>
+        <v>1.060237117324411</v>
       </c>
       <c r="J4">
-        <v>1.004074616448131</v>
+        <v>1.004869689187984</v>
       </c>
       <c r="K4">
-        <v>1.059072862849828</v>
+        <v>1.055427780486123</v>
       </c>
       <c r="L4">
-        <v>1.002577503769304</v>
+        <v>1.003263093063386</v>
       </c>
       <c r="M4">
-        <v>1.053789770674763</v>
+        <v>1.051997734897472</v>
       </c>
       <c r="N4">
-        <v>1.005423872406795</v>
+        <v>1.008575342341201</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051143308735157</v>
+        <v>1.04972505176786</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052837981116919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050269120491188</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026497095655573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9853330515053839</v>
+        <v>0.9861264297124356</v>
       </c>
       <c r="D5">
-        <v>1.050077469329564</v>
+        <v>1.046343229991272</v>
       </c>
       <c r="E5">
-        <v>0.9932324587563219</v>
+        <v>0.9939068766148763</v>
       </c>
       <c r="F5">
-        <v>1.044847380219591</v>
+        <v>1.042996967736431</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.062255580287494</v>
+        <v>1.060361054177759</v>
       </c>
       <c r="J5">
-        <v>1.004653710448837</v>
+        <v>1.005426566494248</v>
       </c>
       <c r="K5">
-        <v>1.059396448828423</v>
+        <v>1.055701342000157</v>
       </c>
       <c r="L5">
-        <v>1.003186584115952</v>
+        <v>1.003852938811129</v>
       </c>
       <c r="M5">
-        <v>1.054221263765107</v>
+        <v>1.052390437748963</v>
       </c>
       <c r="N5">
-        <v>1.00561991811589</v>
+        <v>1.008726248825038</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051484801561231</v>
+        <v>1.050035845768289</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053073821829066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05047031015891</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02654719716344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9855118562741977</v>
+        <v>0.9863019627678878</v>
       </c>
       <c r="D6">
-        <v>1.050169539373802</v>
+        <v>1.046428093460496</v>
       </c>
       <c r="E6">
-        <v>0.9933735168486885</v>
+        <v>0.9940451912004286</v>
       </c>
       <c r="F6">
-        <v>1.044954702650891</v>
+        <v>1.043099341048583</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.062281273765156</v>
+        <v>1.060382912468461</v>
       </c>
       <c r="J6">
-        <v>1.004749797951019</v>
+        <v>1.005519573176305</v>
       </c>
       <c r="K6">
-        <v>1.059452233252546</v>
+        <v>1.055749820406868</v>
       </c>
       <c r="L6">
-        <v>1.00328790920017</v>
+        <v>1.003951590668775</v>
       </c>
       <c r="M6">
-        <v>1.054291894683473</v>
+        <v>1.052456083433161</v>
       </c>
       <c r="N6">
-        <v>1.005652709377535</v>
+        <v>1.008751624076679</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051540700360236</v>
+        <v>1.050087799248546</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.053121858087041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.05051405794257</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026555420764412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9842716714134714</v>
+        <v>0.9851009418578353</v>
       </c>
       <c r="D7">
-        <v>1.049549485588861</v>
+        <v>1.045868200020411</v>
       </c>
       <c r="E7">
-        <v>0.9923959881799379</v>
+        <v>0.9931011027579409</v>
       </c>
       <c r="F7">
-        <v>1.044201488064689</v>
+        <v>1.042396396479122</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.062108889148723</v>
+        <v>1.060243015132781</v>
       </c>
       <c r="J7">
-        <v>1.004080208293294</v>
+        <v>1.004887367833599</v>
       </c>
       <c r="K7">
-        <v>1.059081712646181</v>
+        <v>1.05544001838491</v>
       </c>
       <c r="L7">
-        <v>1.002584029001834</v>
+        <v>1.003280481041379</v>
       </c>
       <c r="M7">
-        <v>1.053791344102376</v>
+        <v>1.052005867620389</v>
       </c>
       <c r="N7">
-        <v>1.005426488626121</v>
+        <v>1.008606757850663</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051144553979579</v>
+        <v>1.049731488191726</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.05286400224419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050299554742109</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026497581676564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9789920801111869</v>
+        <v>0.9799653527733642</v>
       </c>
       <c r="D8">
-        <v>1.046898859115152</v>
+        <v>1.043472485819694</v>
       </c>
       <c r="E8">
-        <v>0.988247821252668</v>
+        <v>0.9890747670002066</v>
       </c>
       <c r="F8">
-        <v>1.040996384809083</v>
+        <v>1.039399238963229</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.061340147944379</v>
+        <v>1.059611331820404</v>
       </c>
       <c r="J8">
-        <v>1.001227738228726</v>
+        <v>1.00217112154765</v>
       </c>
       <c r="K8">
-        <v>1.05747892893398</v>
+        <v>1.054094113405847</v>
       </c>
       <c r="L8">
-        <v>0.9995893721763335</v>
+        <v>1.000404789859212</v>
       </c>
       <c r="M8">
-        <v>1.051648256249769</v>
+        <v>1.050070713537822</v>
       </c>
       <c r="N8">
-        <v>1.004461660407461</v>
+        <v>1.007924538547247</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049448466279951</v>
+        <v>1.048199961196929</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051735223606979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049352862826167</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026239323571651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9692976889078752</v>
+        <v>0.9705064223343414</v>
       </c>
       <c r="D9">
-        <v>1.042010947387185</v>
+        <v>1.039058539661337</v>
       </c>
       <c r="E9">
-        <v>0.9806850740709772</v>
+        <v>0.9817083355546135</v>
       </c>
       <c r="F9">
-        <v>1.035121175041465</v>
+        <v>1.033904226926374</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059805913633465</v>
+        <v>1.058330304564932</v>
       </c>
       <c r="J9">
-        <v>0.9959832378716194</v>
+        <v>0.9971454587729384</v>
       </c>
       <c r="K9">
-        <v>1.05445731036065</v>
+        <v>1.051548181869121</v>
       </c>
       <c r="L9">
-        <v>0.9940994936637564</v>
+        <v>0.9951053215826514</v>
       </c>
       <c r="M9">
-        <v>1.0476690232726</v>
+        <v>1.046470179338334</v>
       </c>
       <c r="N9">
-        <v>1.002684957741861</v>
+        <v>1.006570958201765</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046299201961509</v>
+        <v>1.045350404309206</v>
       </c>
       <c r="Q9">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.049595693863427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047549368883327</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025722587842234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625370696875432</v>
+        <v>0.9639783949089427</v>
       </c>
       <c r="D10">
-        <v>1.038616274794787</v>
+        <v>1.036019721601306</v>
       </c>
       <c r="E10">
-        <v>0.9754522110861134</v>
+        <v>0.9766714741627968</v>
       </c>
       <c r="F10">
-        <v>1.031080360568531</v>
+        <v>1.03017268235152</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.058669629652288</v>
+        <v>1.057384517622618</v>
       </c>
       <c r="J10">
-        <v>0.9923201436822485</v>
+        <v>0.9936978539280926</v>
       </c>
       <c r="K10">
-        <v>1.052321630408552</v>
+        <v>1.049767720877158</v>
       </c>
       <c r="L10">
-        <v>0.9902792940877275</v>
+        <v>0.9914751061108036</v>
       </c>
       <c r="M10">
-        <v>1.044910243654088</v>
+        <v>1.04401772281275</v>
       </c>
       <c r="N10">
-        <v>1.001447336145362</v>
+        <v>1.005756578694429</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044166912761315</v>
+        <v>1.043460589055373</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048102214206724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046308724803513</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025330114134206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9594512768614699</v>
+        <v>0.9611760313128458</v>
       </c>
       <c r="D11">
-        <v>1.037155619107147</v>
+        <v>1.034821653743642</v>
       </c>
       <c r="E11">
-        <v>0.9730816321148075</v>
+        <v>0.9745428330138404</v>
       </c>
       <c r="F11">
-        <v>1.02957018702914</v>
+        <v>1.028997121072351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.058190141220284</v>
+        <v>1.05705091973608</v>
       </c>
       <c r="J11">
-        <v>0.9906139416908414</v>
+        <v>0.9922581325321022</v>
       </c>
       <c r="K11">
-        <v>1.051409278231282</v>
+        <v>1.049115463219168</v>
       </c>
       <c r="L11">
-        <v>0.9885296926747541</v>
+        <v>0.9899613506016943</v>
       </c>
       <c r="M11">
-        <v>1.043955197655851</v>
+        <v>1.043392156998011</v>
       </c>
       <c r="N11">
-        <v>1.000905426857329</v>
+        <v>1.005621827307415</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043844630294047</v>
+        <v>1.043399272062296</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.047489457839961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04588309432194</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02508382643633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9581991161570956</v>
+        <v>0.9600994780085035</v>
       </c>
       <c r="D12">
-        <v>1.036543884537205</v>
+        <v>1.034367726336895</v>
       </c>
       <c r="E12">
-        <v>0.9721193738927559</v>
+        <v>0.9737298754089134</v>
       </c>
       <c r="F12">
-        <v>1.029009662841812</v>
+        <v>1.02866226411119</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.057980237584371</v>
+        <v>1.056929593018515</v>
       </c>
       <c r="J12">
-        <v>0.9898843231917706</v>
+        <v>0.9916940479996218</v>
       </c>
       <c r="K12">
-        <v>1.051002924367081</v>
+        <v>1.048864841524277</v>
       </c>
       <c r="L12">
-        <v>0.9878009517620944</v>
+        <v>0.9893782900255589</v>
       </c>
       <c r="M12">
-        <v>1.043601416709482</v>
+        <v>1.043260198204362</v>
       </c>
       <c r="N12">
-        <v>1.000687449438888</v>
+        <v>1.005591412022232</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043889461862342</v>
+        <v>1.043619652633468</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.047202161269715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.045705905015365</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024930834780458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9582812165277154</v>
+        <v>0.9602682762146258</v>
       </c>
       <c r="D13">
-        <v>1.036560760108427</v>
+        <v>1.034471053947866</v>
       </c>
       <c r="E13">
-        <v>0.9721790220710788</v>
+        <v>0.9738620692890044</v>
       </c>
       <c r="F13">
-        <v>1.029158572655251</v>
+        <v>1.028963641735598</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.057977447375836</v>
+        <v>1.056976500184159</v>
       </c>
       <c r="J13">
-        <v>0.9898629702593043</v>
+        <v>0.9917556439805945</v>
       </c>
       <c r="K13">
-        <v>1.050977706518293</v>
+        <v>1.048924435990156</v>
       </c>
       <c r="L13">
-        <v>0.9878134680025132</v>
+        <v>0.9894619845451363</v>
       </c>
       <c r="M13">
-        <v>1.043705446138133</v>
+        <v>1.043513969521166</v>
       </c>
       <c r="N13">
-        <v>1.000706874321602</v>
+        <v>1.005602643961076</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044247145159856</v>
+        <v>1.044095778008277</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.047181879348309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045745342404865</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024845327293578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9589400918563001</v>
+        <v>0.9609498329364988</v>
       </c>
       <c r="D14">
-        <v>1.036853557979501</v>
+        <v>1.034794342882752</v>
       </c>
       <c r="E14">
-        <v>0.9726809334485749</v>
+        <v>0.9743821474844463</v>
       </c>
       <c r="F14">
-        <v>1.029577341735072</v>
+        <v>1.029458977393956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.058066674619669</v>
+        <v>1.057084184049227</v>
       </c>
       <c r="J14">
-        <v>0.9901649757475069</v>
+        <v>0.9920806018507138</v>
       </c>
       <c r="K14">
-        <v>1.051128503203172</v>
+        <v>1.049104772616209</v>
       </c>
       <c r="L14">
-        <v>0.9881547890672442</v>
+        <v>0.9898215357830307</v>
       </c>
       <c r="M14">
-        <v>1.043978494168161</v>
+        <v>1.04386220198135</v>
       </c>
       <c r="N14">
-        <v>1.000826827940497</v>
+        <v>1.005630110235018</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044635645242252</v>
+        <v>1.044543725656938</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.047289896060447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045874381091626</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02481382252965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9593931607484391</v>
+        <v>0.9613888717309356</v>
       </c>
       <c r="D15">
-        <v>1.037071658193275</v>
+        <v>1.035003463118752</v>
       </c>
       <c r="E15">
-        <v>0.9730281466115579</v>
+        <v>0.9747170136463925</v>
       </c>
       <c r="F15">
-        <v>1.029848870010857</v>
+        <v>1.029732512419537</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.058139028993734</v>
+        <v>1.057152164111905</v>
       </c>
       <c r="J15">
-        <v>0.9903965462409451</v>
+        <v>0.9922996289954411</v>
       </c>
       <c r="K15">
-        <v>1.051258518632479</v>
+        <v>1.049225701829147</v>
       </c>
       <c r="L15">
-        <v>0.9884024189561851</v>
+        <v>0.9900573369383435</v>
       </c>
       <c r="M15">
-        <v>1.04416008291962</v>
+        <v>1.044045747101303</v>
       </c>
       <c r="N15">
-        <v>1.000909193393248</v>
+        <v>1.005649723318451</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044816580320063</v>
+        <v>1.044726209459785</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047387596461194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045966228483824</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024823836658053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.962254762382065</v>
+        <v>0.9640522567703277</v>
       </c>
       <c r="D16">
-        <v>1.038542682962284</v>
+        <v>1.036290338564643</v>
       </c>
       <c r="E16">
-        <v>0.975235644651931</v>
+        <v>0.976754741312378</v>
       </c>
       <c r="F16">
-        <v>1.031592342039622</v>
+        <v>1.031282693964858</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05865825005083</v>
+        <v>1.057571578642056</v>
       </c>
       <c r="J16">
-        <v>0.9919684506038795</v>
+        <v>0.993686842084749</v>
       </c>
       <c r="K16">
-        <v>1.052214503507646</v>
+        <v>1.049999033146097</v>
       </c>
       <c r="L16">
-        <v>0.9900288597087772</v>
+        <v>0.9915188196968071</v>
       </c>
       <c r="M16">
-        <v>1.045378616664999</v>
+        <v>1.045074113916908</v>
       </c>
       <c r="N16">
-        <v>1.001435092380106</v>
+        <v>1.005811628264373</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045741131986208</v>
+        <v>1.045500446627786</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.048066608968873</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046516404369674</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025026318355414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9641063453185887</v>
+        <v>0.9657529225908351</v>
       </c>
       <c r="D17">
-        <v>1.039517047159909</v>
+        <v>1.037108910268641</v>
       </c>
       <c r="E17">
-        <v>0.9766696920919861</v>
+        <v>0.9780603022416554</v>
       </c>
       <c r="F17">
-        <v>1.032705584633669</v>
+        <v>1.032211529239067</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.059005513852226</v>
+        <v>1.05783345404952</v>
       </c>
       <c r="J17">
-        <v>0.9930173418397872</v>
+        <v>0.9945938994370089</v>
       </c>
       <c r="K17">
-        <v>1.052865946477537</v>
+        <v>1.050496133990151</v>
       </c>
       <c r="L17">
-        <v>0.9910995372951185</v>
+        <v>0.9924642693359578</v>
       </c>
       <c r="M17">
-        <v>1.046163478459895</v>
+        <v>1.045677400575842</v>
       </c>
       <c r="N17">
-        <v>1.001775990691362</v>
+        <v>1.005952422266656</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046232990456279</v>
+        <v>1.045848746206392</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048529734828653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046870657488692</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02519657306419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9652645135610958</v>
+        <v>0.9667731424298427</v>
       </c>
       <c r="D18">
-        <v>1.040129690455114</v>
+        <v>1.037576191030545</v>
       </c>
       <c r="E18">
-        <v>0.9775692509490866</v>
+        <v>0.9788428082506448</v>
       </c>
       <c r="F18">
-        <v>1.033337421525231</v>
+        <v>1.032646047378017</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059225308266843</v>
+        <v>1.057972304472512</v>
       </c>
       <c r="J18">
-        <v>0.9937072060375756</v>
+        <v>0.9951529788586364</v>
       </c>
       <c r="K18">
-        <v>1.053289909091256</v>
+        <v>1.050776370051777</v>
       </c>
       <c r="L18">
-        <v>0.9917867369234101</v>
+        <v>0.9930370171628717</v>
       </c>
       <c r="M18">
-        <v>1.046604492635304</v>
+        <v>1.045924095808137</v>
       </c>
       <c r="N18">
-        <v>1.001986437175886</v>
+        <v>1.006046927978877</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04634507790278</v>
+        <v>1.045807113359176</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048818032894583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04705619886747</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025348011876317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9657300810457022</v>
+        <v>0.9671298478966425</v>
       </c>
       <c r="D19">
-        <v>1.040347756338976</v>
+        <v>1.037686161615009</v>
       </c>
       <c r="E19">
-        <v>0.9779292521884305</v>
+        <v>0.9791107593652739</v>
       </c>
       <c r="F19">
-        <v>1.033428916438773</v>
+        <v>1.032566222853102</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.059294621251439</v>
+        <v>1.057980093205993</v>
       </c>
       <c r="J19">
-        <v>0.9940107247502157</v>
+        <v>0.995352585678378</v>
       </c>
       <c r="K19">
-        <v>1.053443564230085</v>
+        <v>1.050823383648033</v>
       </c>
       <c r="L19">
-        <v>0.9920734941988377</v>
+        <v>0.9932335413733298</v>
       </c>
       <c r="M19">
-        <v>1.046632948449009</v>
+        <v>1.045783879272516</v>
       </c>
       <c r="N19">
-        <v>1.002061896744761</v>
+        <v>1.00607112921668</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046043959645202</v>
+        <v>1.045372414987607</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048932956744993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.047096352436079</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02544845944302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9642794989260247</v>
+        <v>0.9656350451857398</v>
       </c>
       <c r="D20">
-        <v>1.0394978465185</v>
+        <v>1.036814555623523</v>
       </c>
       <c r="E20">
-        <v>0.9767979482425942</v>
+        <v>0.9779433616469698</v>
       </c>
       <c r="F20">
-        <v>1.032107155915384</v>
+        <v>1.031123026051939</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.058968912141336</v>
+        <v>1.057637404192876</v>
       </c>
       <c r="J20">
-        <v>0.9932603886692241</v>
+        <v>0.9945581144382045</v>
       </c>
       <c r="K20">
-        <v>1.052879996172931</v>
+        <v>1.050239546077112</v>
       </c>
       <c r="L20">
-        <v>0.9912614272910313</v>
+        <v>0.9923854644132197</v>
       </c>
       <c r="M20">
-        <v>1.045607994642743</v>
+        <v>1.04463983404981</v>
       </c>
       <c r="N20">
-        <v>1.001767387402193</v>
+        <v>1.00589115945306</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044708628086316</v>
+        <v>1.04394243540047</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.048538353207285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.046687807620568</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025427964268496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9592040156193288</v>
+        <v>0.9608742236527684</v>
       </c>
       <c r="D21">
-        <v>1.036923301334257</v>
+        <v>1.034514485831693</v>
       </c>
       <c r="E21">
-        <v>0.9728820046456448</v>
+        <v>0.974300444620168</v>
       </c>
       <c r="F21">
-        <v>1.029004404788724</v>
+        <v>1.028275413488422</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.058073632624454</v>
+        <v>1.05688965813275</v>
       </c>
       <c r="J21">
-        <v>0.9905122833599634</v>
+        <v>0.9921040160030696</v>
       </c>
       <c r="K21">
-        <v>1.051237362461784</v>
+        <v>1.048870201649553</v>
       </c>
       <c r="L21">
-        <v>0.9883960161224722</v>
+        <v>0.9897856274293959</v>
       </c>
       <c r="M21">
-        <v>1.043456354677843</v>
+        <v>1.042740195427497</v>
       </c>
       <c r="N21">
-        <v>1.000832309024281</v>
+        <v>1.005646554820532</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042965176182657</v>
+        <v>1.042398385861872</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.047380154440482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.045723153571299</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025131187253887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9559457888457897</v>
+        <v>0.9578203140535252</v>
       </c>
       <c r="D22">
-        <v>1.035279400205219</v>
+        <v>1.033049304927399</v>
       </c>
       <c r="E22">
-        <v>0.9703781296126371</v>
+        <v>0.971973794757732</v>
       </c>
       <c r="F22">
-        <v>1.027050001836187</v>
+        <v>1.026491095028641</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.057490465049969</v>
+        <v>1.056402590918281</v>
       </c>
       <c r="J22">
-        <v>0.98874918109829</v>
+        <v>0.9905303124080529</v>
       </c>
       <c r="K22">
-        <v>1.050182931071064</v>
+        <v>1.047993299475755</v>
       </c>
       <c r="L22">
-        <v>0.9865601619557599</v>
+        <v>0.988121679714549</v>
       </c>
       <c r="M22">
-        <v>1.042103986917488</v>
+        <v>1.041555412393835</v>
       </c>
       <c r="N22">
-        <v>1.000233305827938</v>
+        <v>1.00548075396842</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041894870629528</v>
+        <v>1.041460711382795</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.046621364800942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045088568832896</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024935625170524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9576837365851172</v>
+        <v>0.9594289374241689</v>
       </c>
       <c r="D23">
-        <v>1.036154704923022</v>
+        <v>1.033823400974427</v>
       </c>
       <c r="E23">
-        <v>0.9717128055553425</v>
+        <v>0.9731957909716548</v>
       </c>
       <c r="F23">
-        <v>1.028098787214756</v>
+        <v>1.027438162844903</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.057803115766166</v>
+        <v>1.056660515778862</v>
       </c>
       <c r="J23">
-        <v>0.9896912103272012</v>
+        <v>0.9913521035830583</v>
       </c>
       <c r="K23">
-        <v>1.050745375666328</v>
+        <v>1.048455315297445</v>
       </c>
       <c r="L23">
-        <v>0.9875399016074925</v>
+        <v>0.9889920008288462</v>
       </c>
       <c r="M23">
-        <v>1.042833008204459</v>
+        <v>1.042184285469664</v>
       </c>
       <c r="N23">
-        <v>1.000552539737383</v>
+        <v>1.005524518812828</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042471840755412</v>
+        <v>1.041958421424257</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.047009549823068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045404801639214</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025042605237379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964371449803315</v>
+        <v>0.9657127005558881</v>
       </c>
       <c r="D24">
-        <v>1.039528559996036</v>
+        <v>1.036828860838109</v>
       </c>
       <c r="E24">
-        <v>0.9768679456868602</v>
+        <v>0.978001354751298</v>
       </c>
       <c r="F24">
-        <v>1.032132772066405</v>
+        <v>1.031124172075951</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05897618843413</v>
+        <v>1.057635320347617</v>
       </c>
       <c r="J24">
-        <v>0.9933134970140125</v>
+        <v>0.994597632507664</v>
       </c>
       <c r="K24">
-        <v>1.052895334909135</v>
+        <v>1.05023868116279</v>
       </c>
       <c r="L24">
-        <v>0.9913138401582919</v>
+        <v>0.9924261280428827</v>
       </c>
       <c r="M24">
-        <v>1.045618158076814</v>
+        <v>1.044625902974164</v>
       </c>
       <c r="N24">
-        <v>1.001781123037736</v>
+        <v>1.005895058287519</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044676090794729</v>
+        <v>1.043890791503413</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.048522250822077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.046657558387282</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025439171595889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9718483713403646</v>
+        <v>0.9729834888023569</v>
       </c>
       <c r="D25">
-        <v>1.043303311217882</v>
+        <v>1.040228107548867</v>
       </c>
       <c r="E25">
-        <v>0.9826683562562887</v>
+        <v>0.9836295940273618</v>
       </c>
       <c r="F25">
-        <v>1.036657628359749</v>
+        <v>1.035342223690257</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060224452933292</v>
+        <v>1.058683407330983</v>
       </c>
       <c r="J25">
-        <v>0.9973617661502239</v>
+        <v>0.9984555743130675</v>
       </c>
       <c r="K25">
-        <v>1.055264633967309</v>
+        <v>1.052232456341693</v>
       </c>
       <c r="L25">
-        <v>0.9955418172221989</v>
+        <v>0.9964874689997473</v>
       </c>
       <c r="M25">
-        <v>1.048712337612429</v>
+        <v>1.047415597038967</v>
       </c>
       <c r="N25">
-        <v>1.003153411693645</v>
+        <v>1.00689396459428</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047124908272967</v>
+        <v>1.046098633658779</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.050194600712049</v>
+        <v>1.048064103675999</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025861150290284</v>
       </c>
     </row>
   </sheetData>
